--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.97</v>
+        <v>83.23</v>
       </c>
       <c r="C2" t="n">
-        <v>83.98</v>
+        <v>83.23</v>
       </c>
       <c r="D2" t="n">
-        <v>83.98</v>
+        <v>83.23</v>
       </c>
       <c r="E2" t="n">
-        <v>83.97</v>
+        <v>83.23</v>
       </c>
       <c r="F2" t="n">
-        <v>5790.8762</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>83.62399999999992</v>
+        <v>83.62766666666658</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>83.97</v>
       </c>
       <c r="C3" t="n">
-        <v>83.97</v>
+        <v>83.98</v>
       </c>
       <c r="D3" t="n">
-        <v>83.97</v>
+        <v>83.98</v>
       </c>
       <c r="E3" t="n">
         <v>83.97</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>5790.8762</v>
       </c>
       <c r="G3" t="n">
-        <v>83.62199999999991</v>
+        <v>83.62399999999992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.98999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="C4" t="n">
-        <v>83.98999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="D4" t="n">
-        <v>83.98999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="E4" t="n">
-        <v>83.98999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="F4" t="n">
-        <v>415.0013</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>83.61849999999991</v>
+        <v>83.62199999999991</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83.98</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>83.26000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>83.98</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>83.26000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>415.0013</v>
       </c>
       <c r="G5" t="n">
-        <v>83.60099999999991</v>
+        <v>83.61849999999991</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83.98999999999999</v>
+        <v>83.98</v>
       </c>
       <c r="C6" t="n">
-        <v>83.98999999999999</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>83.98999999999999</v>
+        <v>83.98</v>
       </c>
       <c r="E6" t="n">
-        <v>83.98999999999999</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>3386.4612</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>83.60949999999993</v>
+        <v>83.60099999999991</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83.5</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>83.5</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>83.5</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>83.5</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1493</v>
+        <v>3386.4612</v>
       </c>
       <c r="G7" t="n">
-        <v>83.60983333333326</v>
+        <v>83.60949999999993</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83.51000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="C8" t="n">
-        <v>83.52</v>
+        <v>83.5</v>
       </c>
       <c r="D8" t="n">
-        <v>83.52</v>
+        <v>83.5</v>
       </c>
       <c r="E8" t="n">
-        <v>83.51000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2986</v>
+        <v>1493</v>
       </c>
       <c r="G8" t="n">
-        <v>83.6136666666666</v>
+        <v>83.60983333333326</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83.52</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>83.52</v>
@@ -687,22 +687,26 @@
         <v>83.52</v>
       </c>
       <c r="E9" t="n">
-        <v>83.52</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1493</v>
+        <v>2986</v>
       </c>
       <c r="G9" t="n">
-        <v>83.61749999999994</v>
+        <v>83.6136666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>83.5</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -713,32 +717,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G10" t="n">
+        <v>83.61749999999994</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="K10" t="n">
         <v>83.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6182.2606</v>
-      </c>
-      <c r="G10" t="n">
-        <v>83.62099999999994</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,32 +760,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>83.5</v>
       </c>
       <c r="C11" t="n">
-        <v>84.64</v>
+        <v>83.5</v>
       </c>
       <c r="D11" t="n">
-        <v>84.64</v>
+        <v>83.5</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>83.5</v>
       </c>
       <c r="F11" t="n">
-        <v>237.8356347826087</v>
+        <v>6182.2606</v>
       </c>
       <c r="G11" t="n">
-        <v>83.64349999999995</v>
+        <v>83.62099999999994</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="K11" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +803,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84.58</v>
+        <v>84</v>
       </c>
       <c r="C12" t="n">
-        <v>84.58</v>
+        <v>84.64</v>
       </c>
       <c r="D12" t="n">
-        <v>84.58</v>
+        <v>84.64</v>
       </c>
       <c r="E12" t="n">
-        <v>84.58</v>
+        <v>84</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>237.8356347826087</v>
       </c>
       <c r="G12" t="n">
-        <v>83.67766666666662</v>
+        <v>83.64349999999995</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84.75</v>
+        <v>84.58</v>
       </c>
       <c r="C13" t="n">
-        <v>84.75</v>
+        <v>84.58</v>
       </c>
       <c r="D13" t="n">
-        <v>84.75</v>
+        <v>84.58</v>
       </c>
       <c r="E13" t="n">
-        <v>84.75</v>
+        <v>84.58</v>
       </c>
       <c r="F13" t="n">
-        <v>235.9882005899705</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>83.71483333333327</v>
+        <v>83.67766666666662</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.58</v>
+        <v>84.75</v>
       </c>
       <c r="C14" t="n">
-        <v>84.3</v>
+        <v>84.75</v>
       </c>
       <c r="D14" t="n">
-        <v>84.3</v>
+        <v>84.75</v>
       </c>
       <c r="E14" t="n">
-        <v>83.58</v>
+        <v>84.75</v>
       </c>
       <c r="F14" t="n">
-        <v>2193</v>
+        <v>235.9882005899705</v>
       </c>
       <c r="G14" t="n">
-        <v>83.74449999999995</v>
+        <v>83.71483333333327</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +911,19 @@
         <v>83.58</v>
       </c>
       <c r="C15" t="n">
-        <v>83.56999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="D15" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="E15" t="n">
         <v>83.58</v>
       </c>
-      <c r="E15" t="n">
-        <v>83.56999999999999</v>
-      </c>
       <c r="F15" t="n">
-        <v>63605.2143</v>
+        <v>2193</v>
       </c>
       <c r="G15" t="n">
-        <v>83.7626666666666</v>
+        <v>83.74449999999995</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +943,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83.89</v>
+        <v>83.58</v>
       </c>
       <c r="C16" t="n">
-        <v>83.89</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>83.89</v>
+        <v>83.58</v>
       </c>
       <c r="E16" t="n">
-        <v>83.89</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>3162.8935</v>
+        <v>63605.2143</v>
       </c>
       <c r="G16" t="n">
-        <v>83.78599999999996</v>
+        <v>83.7626666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83.56999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="C17" t="n">
-        <v>83.56999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="D17" t="n">
-        <v>83.56999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="E17" t="n">
-        <v>83.56999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="F17" t="n">
-        <v>2986</v>
+        <v>3162.8935</v>
       </c>
       <c r="G17" t="n">
-        <v>83.80416666666662</v>
+        <v>83.78599999999996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1025,10 @@
         <v>83.56999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>8958</v>
+        <v>2986</v>
       </c>
       <c r="G18" t="n">
-        <v>83.82233333333329</v>
+        <v>83.80416666666662</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1060,10 @@
         <v>83.56999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>1425.9086</v>
+        <v>8958</v>
       </c>
       <c r="G19" t="n">
-        <v>83.83849999999994</v>
+        <v>83.82233333333329</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1083,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83.54000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>83.54000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>83.54000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>83.54000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>1493</v>
+        <v>1425.9086</v>
       </c>
       <c r="G20" t="n">
-        <v>83.85349999999994</v>
+        <v>83.83849999999994</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1130,10 @@
         <v>83.54000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>10850.7904</v>
+        <v>1493</v>
       </c>
       <c r="G21" t="n">
-        <v>83.86833333333328</v>
+        <v>83.85349999999994</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1165,10 @@
         <v>83.54000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1493</v>
+        <v>10850.7904</v>
       </c>
       <c r="G22" t="n">
-        <v>83.88316666666661</v>
+        <v>83.86833333333328</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1191,19 @@
         <v>83.54000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D23" t="n">
         <v>83.54000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>1585.4435</v>
+        <v>1493</v>
       </c>
       <c r="G23" t="n">
-        <v>83.89783333333328</v>
+        <v>83.88316666666661</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1223,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>83.5</v>
       </c>
       <c r="D24" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>83.5</v>
       </c>
       <c r="F24" t="n">
-        <v>954.0246</v>
+        <v>1585.4435</v>
       </c>
       <c r="G24" t="n">
-        <v>83.88183333333329</v>
+        <v>83.89783333333328</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1258,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
       <c r="C25" t="n">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
       <c r="D25" t="n">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
       <c r="E25" t="n">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
       <c r="F25" t="n">
-        <v>324.9576</v>
+        <v>954.0246</v>
       </c>
       <c r="G25" t="n">
-        <v>83.88166666666662</v>
+        <v>83.88183333333329</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1305,10 @@
         <v>83.2</v>
       </c>
       <c r="F26" t="n">
-        <v>421.711</v>
+        <v>324.9576</v>
       </c>
       <c r="G26" t="n">
-        <v>83.86083333333328</v>
+        <v>83.88166666666662</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1331,19 @@
         <v>83.2</v>
       </c>
       <c r="C27" t="n">
-        <v>83.12</v>
+        <v>83.2</v>
       </c>
       <c r="D27" t="n">
         <v>83.2</v>
       </c>
       <c r="E27" t="n">
-        <v>83.12</v>
+        <v>83.2</v>
       </c>
       <c r="F27" t="n">
-        <v>6781.3992</v>
+        <v>421.711</v>
       </c>
       <c r="G27" t="n">
-        <v>83.83883333333328</v>
+        <v>83.86083333333328</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1363,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83.12</v>
+        <v>83.2</v>
       </c>
       <c r="C28" t="n">
         <v>83.12</v>
       </c>
       <c r="D28" t="n">
-        <v>83.12</v>
+        <v>83.2</v>
       </c>
       <c r="E28" t="n">
         <v>83.12</v>
       </c>
       <c r="F28" t="n">
-        <v>319.4393</v>
+        <v>6781.3992</v>
       </c>
       <c r="G28" t="n">
-        <v>83.82799999999995</v>
+        <v>83.83883333333328</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1398,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83.05</v>
+        <v>83.12</v>
       </c>
       <c r="C29" t="n">
-        <v>83.05</v>
+        <v>83.12</v>
       </c>
       <c r="D29" t="n">
-        <v>83.05</v>
+        <v>83.12</v>
       </c>
       <c r="E29" t="n">
-        <v>83.05</v>
+        <v>83.12</v>
       </c>
       <c r="F29" t="n">
-        <v>1493</v>
+        <v>319.4393</v>
       </c>
       <c r="G29" t="n">
-        <v>83.82533333333328</v>
+        <v>83.82799999999995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1445,10 @@
         <v>83.05</v>
       </c>
       <c r="F30" t="n">
-        <v>4479</v>
+        <v>1493</v>
       </c>
       <c r="G30" t="n">
-        <v>83.82266666666662</v>
+        <v>83.82533333333328</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1480,10 @@
         <v>83.05</v>
       </c>
       <c r="F31" t="n">
-        <v>13242.96</v>
+        <v>4479</v>
       </c>
       <c r="G31" t="n">
-        <v>83.80983333333329</v>
+        <v>83.82266666666662</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1506,19 @@
         <v>83.05</v>
       </c>
       <c r="C32" t="n">
-        <v>82.88</v>
+        <v>83.05</v>
       </c>
       <c r="D32" t="n">
         <v>83.05</v>
       </c>
       <c r="E32" t="n">
-        <v>82.88</v>
+        <v>83.05</v>
       </c>
       <c r="F32" t="n">
-        <v>22080.8452</v>
+        <v>13242.96</v>
       </c>
       <c r="G32" t="n">
-        <v>83.79416666666663</v>
+        <v>83.80983333333329</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,161 +1538,147 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="D33" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>22080.8452</v>
+      </c>
+      <c r="G33" t="n">
+        <v>83.79416666666663</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>82.72</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>82.64</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>82.72</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E34" t="n">
         <v>82.64</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F34" t="n">
         <v>1165.7231</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>83.7798333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>82.88</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>82.87</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>82.87</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33621.8299</v>
+      </c>
+      <c r="G35" t="n">
+        <v>83.7893333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K35" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>84.06</v>
+      </c>
+      <c r="C36" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="D36" t="n">
+        <v>84.06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>83.76966666666664</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>82.87</v>
-      </c>
-      <c r="C34" t="n">
-        <v>84.06999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>84.06999999999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>82.87</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33621.8299</v>
-      </c>
-      <c r="G34" t="n">
-        <v>83.7893333333333</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>84.06</v>
-      </c>
-      <c r="C35" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="D35" t="n">
-        <v>84.06</v>
-      </c>
-      <c r="E35" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="F35" t="n">
-        <v>20</v>
-      </c>
-      <c r="G35" t="n">
-        <v>83.76966666666664</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>84.06999999999999</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="C36" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="D36" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="E36" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="F36" t="n">
-        <v>118.9767995240928</v>
-      </c>
-      <c r="G36" t="n">
-        <v>83.77883333333331</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,22 +1688,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84.04000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="C37" t="n">
-        <v>82.75</v>
+        <v>84.05</v>
       </c>
       <c r="D37" t="n">
-        <v>84.04000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="E37" t="n">
-        <v>82.75</v>
+        <v>84.05</v>
       </c>
       <c r="F37" t="n">
-        <v>36</v>
+        <v>118.9767995240928</v>
       </c>
       <c r="G37" t="n">
-        <v>83.76633333333331</v>
+        <v>83.77883333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1706,7 +1712,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1724,19 +1732,19 @@
         <v>84.04000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>84.04000000000001</v>
+        <v>82.75</v>
       </c>
       <c r="D38" t="n">
         <v>84.04000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>84.04000000000001</v>
+        <v>82.75</v>
       </c>
       <c r="F38" t="n">
-        <v>118.9909566872918</v>
+        <v>36</v>
       </c>
       <c r="G38" t="n">
-        <v>83.77533333333331</v>
+        <v>83.76633333333331</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1745,7 +1753,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.81999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>82.81999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>82.81999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>82.81999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>2282.5436</v>
+        <v>118.9909566872918</v>
       </c>
       <c r="G39" t="n">
-        <v>83.76399999999997</v>
+        <v>83.77533333333331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1784,7 +1794,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1799,22 +1811,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.03</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>82.59999999999999</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>84.03</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>82.59999999999999</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>115646.8576</v>
+        <v>2282.5436</v>
       </c>
       <c r="G40" t="n">
-        <v>83.75233333333331</v>
+        <v>83.76399999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1823,7 +1835,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1838,22 +1852,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82.73</v>
+        <v>84.03</v>
       </c>
       <c r="C41" t="n">
-        <v>82.73</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>82.73</v>
+        <v>84.03</v>
       </c>
       <c r="E41" t="n">
-        <v>82.73</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1494</v>
+        <v>115646.8576</v>
       </c>
       <c r="G41" t="n">
-        <v>83.74283333333329</v>
+        <v>83.75233333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1862,7 +1876,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1877,22 +1893,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.04000000000001</v>
+        <v>82.73</v>
       </c>
       <c r="C42" t="n">
-        <v>84.05</v>
+        <v>82.73</v>
       </c>
       <c r="D42" t="n">
-        <v>84.05</v>
+        <v>82.73</v>
       </c>
       <c r="E42" t="n">
-        <v>84.04000000000001</v>
+        <v>82.73</v>
       </c>
       <c r="F42" t="n">
-        <v>23189.1941</v>
+        <v>1494</v>
       </c>
       <c r="G42" t="n">
-        <v>83.73999999999997</v>
+        <v>83.74283333333329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1901,7 +1917,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1916,7 +1934,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.05</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C43" t="n">
         <v>84.05</v>
@@ -1925,13 +1943,13 @@
         <v>84.05</v>
       </c>
       <c r="E43" t="n">
-        <v>84.05</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>26000</v>
+        <v>23189.1941</v>
       </c>
       <c r="G43" t="n">
-        <v>83.73716666666662</v>
+        <v>83.73999999999997</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1940,7 +1958,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,10 +1987,10 @@
         <v>84.05</v>
       </c>
       <c r="F44" t="n">
-        <v>385.0259</v>
+        <v>26000</v>
       </c>
       <c r="G44" t="n">
-        <v>83.73066666666664</v>
+        <v>83.73716666666662</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1979,7 +1999,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>82.64</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1994,561 +2016,655 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="F45" t="n">
+        <v>385.0259</v>
+      </c>
+      <c r="G45" t="n">
+        <v>83.73066666666664</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>84.37</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>84.37</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>84.37</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E46" t="n">
         <v>84.37</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F46" t="n">
         <v>1500</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>83.72883333333331</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="D47" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="E47" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>425.78</v>
+      </c>
+      <c r="G47" t="n">
+        <v>83.71299999999998</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>594.9548</v>
+      </c>
+      <c r="G48" t="n">
+        <v>83.69716666666665</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4008</v>
+      </c>
+      <c r="G49" t="n">
+        <v>83.68116666666666</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3917.8359</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83.66533333333332</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>83.64949999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C52" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8059.7963</v>
+      </c>
+      <c r="G52" t="n">
+        <v>83.64966666666666</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1314.9615</v>
+      </c>
+      <c r="G53" t="n">
+        <v>83.67299999999999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1777.7695</v>
+      </c>
+      <c r="G54" t="n">
+        <v>83.65549999999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>75.59610000000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>83.67249999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="C56" t="n">
+        <v>85</v>
+      </c>
+      <c r="D56" t="n">
+        <v>85</v>
+      </c>
+      <c r="E56" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="F56" t="n">
+        <v>45526.7258</v>
+      </c>
+      <c r="G56" t="n">
+        <v>83.70533333333333</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>85</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85</v>
+      </c>
+      <c r="D57" t="n">
+        <v>85</v>
+      </c>
+      <c r="E57" t="n">
+        <v>85</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6955.5909</v>
+      </c>
+      <c r="G57" t="n">
+        <v>83.70716666666665</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>85</v>
+      </c>
+      <c r="C58" t="n">
+        <v>85</v>
+      </c>
+      <c r="D58" t="n">
+        <v>85</v>
+      </c>
+      <c r="E58" t="n">
+        <v>85</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2440.2029</v>
+      </c>
+      <c r="G58" t="n">
+        <v>83.71049999999998</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="C59" t="n">
+        <v>85</v>
+      </c>
+      <c r="D59" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="E59" t="n">
+        <v>85</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9403.5399</v>
+      </c>
+      <c r="G59" t="n">
+        <v>83.72716666666665</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>85</v>
+      </c>
+      <c r="C60" t="n">
+        <v>85</v>
+      </c>
+      <c r="D60" t="n">
+        <v>85</v>
+      </c>
+      <c r="E60" t="n">
+        <v>85</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1669.2134</v>
+      </c>
+      <c r="G60" t="n">
+        <v>83.75683333333332</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="C46" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="D46" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="E46" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="F46" t="n">
-        <v>425.78</v>
-      </c>
-      <c r="G46" t="n">
-        <v>83.71299999999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>594.9548</v>
-      </c>
-      <c r="G47" t="n">
-        <v>83.69716666666665</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4008</v>
-      </c>
-      <c r="G48" t="n">
-        <v>83.68116666666666</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3917.8359</v>
-      </c>
-      <c r="G49" t="n">
-        <v>83.66533333333332</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>83.64949999999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C51" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E51" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>8059.7963</v>
-      </c>
-      <c r="G51" t="n">
-        <v>83.64966666666666</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E52" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1314.9615</v>
-      </c>
-      <c r="G52" t="n">
-        <v>83.67299999999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C53" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D53" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1777.7695</v>
-      </c>
-      <c r="G53" t="n">
-        <v>83.65549999999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="C54" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="D54" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="E54" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="F54" t="n">
-        <v>75.59610000000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>83.67249999999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="C55" t="n">
-        <v>85</v>
-      </c>
-      <c r="D55" t="n">
-        <v>85</v>
-      </c>
-      <c r="E55" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="F55" t="n">
-        <v>45526.7258</v>
-      </c>
-      <c r="G55" t="n">
-        <v>83.70533333333333</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>85</v>
-      </c>
-      <c r="C56" t="n">
-        <v>85</v>
-      </c>
-      <c r="D56" t="n">
-        <v>85</v>
-      </c>
-      <c r="E56" t="n">
-        <v>85</v>
-      </c>
-      <c r="F56" t="n">
-        <v>6955.5909</v>
-      </c>
-      <c r="G56" t="n">
-        <v>83.70716666666665</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>85</v>
-      </c>
-      <c r="C57" t="n">
-        <v>85</v>
-      </c>
-      <c r="D57" t="n">
-        <v>85</v>
-      </c>
-      <c r="E57" t="n">
-        <v>85</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2440.2029</v>
-      </c>
-      <c r="G57" t="n">
-        <v>83.71049999999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="C58" t="n">
-        <v>85</v>
-      </c>
-      <c r="D58" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="E58" t="n">
-        <v>85</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9403.5399</v>
-      </c>
-      <c r="G58" t="n">
-        <v>83.72716666666665</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>85</v>
-      </c>
-      <c r="C59" t="n">
-        <v>85</v>
-      </c>
-      <c r="D59" t="n">
-        <v>85</v>
-      </c>
-      <c r="E59" t="n">
-        <v>85</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1669.2134</v>
-      </c>
-      <c r="G59" t="n">
-        <v>83.75683333333332</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D60" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F60" t="n">
-        <v>8</v>
-      </c>
-      <c r="G60" t="n">
-        <v>83.78883333333332</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>1.023557599225557</v>
       </c>
     </row>
     <row r="61">
@@ -2556,22 +2672,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>85</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>85</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>85</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>85</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>62.8928</v>
+        <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>83.81833333333333</v>
+        <v>83.78883333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2594,19 +2710,19 @@
         <v>85</v>
       </c>
       <c r="C62" t="n">
-        <v>84.20999999999999</v>
+        <v>85</v>
       </c>
       <c r="D62" t="n">
-        <v>86.68000000000001</v>
+        <v>85</v>
       </c>
       <c r="E62" t="n">
-        <v>84.2</v>
+        <v>85</v>
       </c>
       <c r="F62" t="n">
-        <v>47985.8381</v>
+        <v>62.8928</v>
       </c>
       <c r="G62" t="n">
-        <v>83.82216666666666</v>
+        <v>83.81833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2626,28 +2742,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>86.39</v>
+        <v>85</v>
       </c>
       <c r="C63" t="n">
-        <v>86.78</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>86.78</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>84.20999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="F63" t="n">
-        <v>6560.6954</v>
+        <v>47985.8381</v>
       </c>
       <c r="G63" t="n">
-        <v>83.86899999999999</v>
+        <v>83.82216666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2667,22 +2783,22 @@
         <v>86.78</v>
       </c>
       <c r="D64" t="n">
-        <v>87.48</v>
+        <v>86.78</v>
       </c>
       <c r="E64" t="n">
-        <v>84.26000000000001</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>12960.7919</v>
+        <v>6560.6954</v>
       </c>
       <c r="G64" t="n">
-        <v>83.91549999999999</v>
+        <v>83.86899999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2696,22 +2812,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="C65" t="n">
         <v>86.78</v>
       </c>
-      <c r="C65" t="n">
-        <v>87.38</v>
-      </c>
       <c r="D65" t="n">
-        <v>87.38</v>
+        <v>87.48</v>
       </c>
       <c r="E65" t="n">
-        <v>84.29000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>50495.321</v>
+        <v>12960.7919</v>
       </c>
       <c r="G65" t="n">
-        <v>83.98416666666665</v>
+        <v>83.91549999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,22 +2847,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>87.3</v>
+        <v>86.78</v>
       </c>
       <c r="C66" t="n">
-        <v>87.19</v>
+        <v>87.38</v>
       </c>
       <c r="D66" t="n">
-        <v>87.3</v>
+        <v>87.38</v>
       </c>
       <c r="E66" t="n">
-        <v>87.19</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>50495.321</v>
       </c>
       <c r="G66" t="n">
-        <v>84.03749999999998</v>
+        <v>83.98416666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,22 +2882,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>86.75</v>
+        <v>87.3</v>
       </c>
       <c r="C67" t="n">
-        <v>86.75</v>
+        <v>87.19</v>
       </c>
       <c r="D67" t="n">
-        <v>86.75</v>
+        <v>87.3</v>
       </c>
       <c r="E67" t="n">
-        <v>86.75</v>
+        <v>87.19</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>84.09166666666665</v>
+        <v>84.03749999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2813,10 +2929,10 @@
         <v>86.75</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>84.14549999999998</v>
+        <v>84.09166666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2848,10 +2964,10 @@
         <v>86.75</v>
       </c>
       <c r="F69" t="n">
-        <v>7766.4107</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>84.1993333333333</v>
+        <v>84.14549999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2871,22 +2987,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>86.65000000000001</v>
+        <v>86.75</v>
       </c>
       <c r="C70" t="n">
-        <v>86.65000000000001</v>
+        <v>86.75</v>
       </c>
       <c r="D70" t="n">
-        <v>86.65000000000001</v>
+        <v>86.75</v>
       </c>
       <c r="E70" t="n">
-        <v>86.65000000000001</v>
+        <v>86.75</v>
       </c>
       <c r="F70" t="n">
-        <v>15.789</v>
+        <v>7766.4107</v>
       </c>
       <c r="G70" t="n">
-        <v>84.25183333333329</v>
+        <v>84.1993333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2906,22 +3022,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>86.64</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>86.76000000000001</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>86.76000000000001</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>86.64</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>48.677</v>
+        <v>15.789</v>
       </c>
       <c r="G71" t="n">
-        <v>84.28716666666664</v>
+        <v>84.25183333333329</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2941,22 +3057,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>86.64</v>
+      </c>
+      <c r="C72" t="n">
         <v>86.76000000000001</v>
       </c>
-      <c r="C72" t="n">
-        <v>86.8</v>
-      </c>
       <c r="D72" t="n">
-        <v>86.8</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>86.76000000000001</v>
+        <v>86.64</v>
       </c>
       <c r="F72" t="n">
-        <v>55387.3084</v>
+        <v>48.677</v>
       </c>
       <c r="G72" t="n">
-        <v>84.32416666666663</v>
+        <v>84.28716666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2976,22 +3092,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="C73" t="n">
         <v>86.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>85.73</v>
       </c>
       <c r="D73" t="n">
         <v>86.8</v>
       </c>
       <c r="E73" t="n">
-        <v>85.73</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>1555.1935</v>
+        <v>55387.3084</v>
       </c>
       <c r="G73" t="n">
-        <v>84.34049999999996</v>
+        <v>84.32416666666663</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3011,22 +3127,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87.29000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="C74" t="n">
-        <v>86.09999999999999</v>
+        <v>85.73</v>
       </c>
       <c r="D74" t="n">
-        <v>87.29000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="E74" t="n">
-        <v>86.09999999999999</v>
+        <v>85.73</v>
       </c>
       <c r="F74" t="n">
-        <v>189.8829</v>
+        <v>1555.1935</v>
       </c>
       <c r="G74" t="n">
-        <v>84.37049999999996</v>
+        <v>84.34049999999996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3049,19 +3165,19 @@
         <v>87.29000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>87.29000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D75" t="n">
         <v>87.29000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>87.29000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>14.9743</v>
+        <v>189.8829</v>
       </c>
       <c r="G75" t="n">
-        <v>84.43249999999996</v>
+        <v>84.37049999999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3081,22 +3197,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>85.27</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>85.27</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>85.27</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>85.27</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>14.9743</v>
       </c>
       <c r="G76" t="n">
-        <v>84.45549999999997</v>
+        <v>84.43249999999996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3119,19 +3235,19 @@
         <v>85.27</v>
       </c>
       <c r="C77" t="n">
-        <v>87.2</v>
+        <v>85.27</v>
       </c>
       <c r="D77" t="n">
-        <v>87.2</v>
+        <v>85.27</v>
       </c>
       <c r="E77" t="n">
         <v>85.27</v>
       </c>
       <c r="F77" t="n">
-        <v>1270.2613</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>84.51599999999998</v>
+        <v>84.45549999999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3151,22 +3267,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87</v>
+        <v>85.27</v>
       </c>
       <c r="C78" t="n">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="D78" t="n">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="E78" t="n">
-        <v>87</v>
+        <v>85.27</v>
       </c>
       <c r="F78" t="n">
-        <v>2167.5956</v>
+        <v>1270.2613</v>
       </c>
       <c r="G78" t="n">
-        <v>84.57316666666664</v>
+        <v>84.51599999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3186,22 +3302,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>85.66</v>
+        <v>87</v>
       </c>
       <c r="C79" t="n">
-        <v>84.03</v>
+        <v>87</v>
       </c>
       <c r="D79" t="n">
-        <v>85.66</v>
+        <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>84.03</v>
+        <v>87</v>
       </c>
       <c r="F79" t="n">
-        <v>168246.9495</v>
+        <v>2167.5956</v>
       </c>
       <c r="G79" t="n">
-        <v>84.5808333333333</v>
+        <v>84.57316666666664</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3221,22 +3337,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>85.81999999999999</v>
+        <v>85.66</v>
       </c>
       <c r="C80" t="n">
-        <v>85.83</v>
+        <v>84.03</v>
       </c>
       <c r="D80" t="n">
-        <v>85.83</v>
+        <v>85.66</v>
       </c>
       <c r="E80" t="n">
-        <v>85.81999999999999</v>
+        <v>84.03</v>
       </c>
       <c r="F80" t="n">
-        <v>2986</v>
+        <v>168246.9495</v>
       </c>
       <c r="G80" t="n">
-        <v>84.61899999999997</v>
+        <v>84.5808333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3256,22 +3372,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="C81" t="n">
         <v>85.83</v>
-      </c>
-      <c r="C81" t="n">
-        <v>85.76000000000001</v>
       </c>
       <c r="D81" t="n">
         <v>85.83</v>
       </c>
       <c r="E81" t="n">
-        <v>85.76000000000001</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>16205.9388</v>
+        <v>2986</v>
       </c>
       <c r="G81" t="n">
-        <v>84.65599999999998</v>
+        <v>84.61899999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3291,22 +3407,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>85.76000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="C82" t="n">
         <v>85.76000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>85.76000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="E82" t="n">
         <v>85.76000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>16205.9388</v>
       </c>
       <c r="G82" t="n">
-        <v>84.69299999999998</v>
+        <v>84.65599999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3326,22 +3442,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>85</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>85.53</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>85.53</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>85</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>7446.613</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>84.72683333333332</v>
+        <v>84.69299999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3361,22 +3477,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>85.68000000000001</v>
+        <v>85</v>
       </c>
       <c r="C84" t="n">
         <v>85.53</v>
       </c>
       <c r="D84" t="n">
-        <v>85.68000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="E84" t="n">
-        <v>85.53</v>
+        <v>85</v>
       </c>
       <c r="F84" t="n">
-        <v>4883.9061</v>
+        <v>7446.613</v>
       </c>
       <c r="G84" t="n">
-        <v>84.76066666666664</v>
+        <v>84.72683333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3396,22 +3512,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85.11</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>85.84</v>
+        <v>85.53</v>
       </c>
       <c r="D85" t="n">
-        <v>85.84</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>85.11</v>
+        <v>85.53</v>
       </c>
       <c r="F85" t="n">
-        <v>14071.3647</v>
+        <v>4883.9061</v>
       </c>
       <c r="G85" t="n">
-        <v>84.80466666666665</v>
+        <v>84.76066666666664</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3431,22 +3547,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>85.78</v>
+        <v>85.11</v>
       </c>
       <c r="C86" t="n">
-        <v>86</v>
+        <v>85.84</v>
       </c>
       <c r="D86" t="n">
-        <v>86</v>
+        <v>85.84</v>
       </c>
       <c r="E86" t="n">
-        <v>85.78</v>
+        <v>85.11</v>
       </c>
       <c r="F86" t="n">
-        <v>20902.4258</v>
+        <v>14071.3647</v>
       </c>
       <c r="G86" t="n">
-        <v>84.85133333333332</v>
+        <v>84.80466666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3466,22 +3582,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>85.78</v>
+      </c>
+      <c r="C87" t="n">
         <v>86</v>
       </c>
-      <c r="C87" t="n">
-        <v>86.18000000000001</v>
-      </c>
       <c r="D87" t="n">
-        <v>86.18000000000001</v>
+        <v>86</v>
       </c>
       <c r="E87" t="n">
-        <v>85.98999999999999</v>
+        <v>85.78</v>
       </c>
       <c r="F87" t="n">
-        <v>4824.9177</v>
+        <v>20902.4258</v>
       </c>
       <c r="G87" t="n">
-        <v>84.90233333333332</v>
+        <v>84.85133333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3501,22 +3617,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>86.45</v>
+        <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>86.44</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>86.56</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>86.44</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>11469.2305</v>
+        <v>4824.9177</v>
       </c>
       <c r="G88" t="n">
-        <v>84.95766666666665</v>
+        <v>84.90233333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3536,22 +3652,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>86.44</v>
+        <v>86.45</v>
       </c>
       <c r="C89" t="n">
         <v>86.44</v>
       </c>
       <c r="D89" t="n">
-        <v>86.44</v>
+        <v>86.56</v>
       </c>
       <c r="E89" t="n">
         <v>86.44</v>
       </c>
       <c r="F89" t="n">
-        <v>1428.6336</v>
+        <v>11469.2305</v>
       </c>
       <c r="G89" t="n">
-        <v>85.01416666666664</v>
+        <v>84.95766666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3571,22 +3687,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>86.34999999999999</v>
+        <v>86.44</v>
       </c>
       <c r="C90" t="n">
-        <v>86.18000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="D90" t="n">
-        <v>86.39</v>
+        <v>86.44</v>
       </c>
       <c r="E90" t="n">
-        <v>86.18000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="F90" t="n">
-        <v>5071.0864</v>
+        <v>1428.6336</v>
       </c>
       <c r="G90" t="n">
-        <v>85.0663333333333</v>
+        <v>85.01416666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3606,22 +3722,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>86.23</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>86.23</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>86.23</v>
+        <v>86.39</v>
       </c>
       <c r="E91" t="n">
-        <v>86.23</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>3400</v>
+        <v>5071.0864</v>
       </c>
       <c r="G91" t="n">
-        <v>85.1193333333333</v>
+        <v>85.0663333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3653,10 +3769,10 @@
         <v>86.23</v>
       </c>
       <c r="F92" t="n">
-        <v>2244.2176</v>
+        <v>3400</v>
       </c>
       <c r="G92" t="n">
-        <v>85.17516666666663</v>
+        <v>85.1193333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3676,22 +3792,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86.22</v>
+        <v>86.23</v>
       </c>
       <c r="C93" t="n">
-        <v>86.2</v>
+        <v>86.23</v>
       </c>
       <c r="D93" t="n">
-        <v>86.22</v>
+        <v>86.23</v>
       </c>
       <c r="E93" t="n">
-        <v>86.2</v>
+        <v>86.23</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>2244.2176</v>
       </c>
       <c r="G93" t="n">
-        <v>85.23449999999995</v>
+        <v>85.17516666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3711,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86</v>
+        <v>86.22</v>
       </c>
       <c r="C94" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="D94" t="n">
-        <v>86</v>
+        <v>86.22</v>
       </c>
       <c r="E94" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1400</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>85.26666666666662</v>
+        <v>85.23449999999995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3749,19 +3865,19 @@
         <v>86</v>
       </c>
       <c r="C95" t="n">
-        <v>85.98999999999999</v>
+        <v>86</v>
       </c>
       <c r="D95" t="n">
         <v>86</v>
       </c>
       <c r="E95" t="n">
-        <v>85.98999999999999</v>
+        <v>86</v>
       </c>
       <c r="F95" t="n">
-        <v>43.3061</v>
+        <v>1400</v>
       </c>
       <c r="G95" t="n">
-        <v>85.32249999999995</v>
+        <v>85.26666666666662</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3781,22 +3897,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>86</v>
+      </c>
+      <c r="C96" t="n">
         <v>85.98999999999999</v>
       </c>
-      <c r="C96" t="n">
-        <v>86.16</v>
-      </c>
       <c r="D96" t="n">
-        <v>86.16</v>
+        <v>86</v>
       </c>
       <c r="E96" t="n">
         <v>85.98999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>20000</v>
+        <v>43.3061</v>
       </c>
       <c r="G96" t="n">
-        <v>85.3576666666666</v>
+        <v>85.32249999999995</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3816,22 +3932,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>86.17</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>86.17</v>
+        <v>86.16</v>
       </c>
       <c r="D97" t="n">
-        <v>86.17</v>
+        <v>86.16</v>
       </c>
       <c r="E97" t="n">
-        <v>86.17</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>766.0612</v>
+        <v>20000</v>
       </c>
       <c r="G97" t="n">
-        <v>85.41466666666661</v>
+        <v>85.3576666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3863,10 +3979,10 @@
         <v>86.17</v>
       </c>
       <c r="F98" t="n">
-        <v>1436.3764</v>
+        <v>766.0612</v>
       </c>
       <c r="G98" t="n">
-        <v>85.4501666666666</v>
+        <v>85.41466666666661</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3898,10 +4014,10 @@
         <v>86.17</v>
       </c>
       <c r="F99" t="n">
-        <v>861.8422</v>
+        <v>1436.3764</v>
       </c>
       <c r="G99" t="n">
-        <v>85.50599999999994</v>
+        <v>85.4501666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3921,22 +4037,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>85.61</v>
+        <v>86.17</v>
       </c>
       <c r="C100" t="n">
-        <v>85.61</v>
+        <v>86.17</v>
       </c>
       <c r="D100" t="n">
-        <v>86.39</v>
+        <v>86.17</v>
       </c>
       <c r="E100" t="n">
-        <v>85.51000000000001</v>
+        <v>86.17</v>
       </c>
       <c r="F100" t="n">
-        <v>53652.3736</v>
+        <v>861.8422</v>
       </c>
       <c r="G100" t="n">
-        <v>85.5561666666666</v>
+        <v>85.50599999999994</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3956,22 +4072,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>86.38</v>
+        <v>85.61</v>
       </c>
       <c r="C101" t="n">
-        <v>86.38</v>
+        <v>85.61</v>
       </c>
       <c r="D101" t="n">
-        <v>86.38</v>
+        <v>86.39</v>
       </c>
       <c r="E101" t="n">
-        <v>86.38</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>6527</v>
+        <v>53652.3736</v>
       </c>
       <c r="G101" t="n">
-        <v>85.61699999999995</v>
+        <v>85.5561666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3991,22 +4107,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>86.40000000000001</v>
+        <v>86.38</v>
       </c>
       <c r="C102" t="n">
-        <v>85.91</v>
+        <v>86.38</v>
       </c>
       <c r="D102" t="n">
-        <v>86.40000000000001</v>
+        <v>86.38</v>
       </c>
       <c r="E102" t="n">
-        <v>85.91</v>
+        <v>86.38</v>
       </c>
       <c r="F102" t="n">
-        <v>11785.279</v>
+        <v>6527</v>
       </c>
       <c r="G102" t="n">
-        <v>85.64799999999994</v>
+        <v>85.61699999999995</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4026,22 +4142,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>85.84999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>85.84999999999999</v>
+        <v>85.91</v>
       </c>
       <c r="D103" t="n">
-        <v>85.84999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>85.84999999999999</v>
+        <v>85.91</v>
       </c>
       <c r="F103" t="n">
-        <v>2248.1654</v>
+        <v>11785.279</v>
       </c>
       <c r="G103" t="n">
-        <v>85.67799999999994</v>
+        <v>85.64799999999994</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4061,22 +4177,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>85.75</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>85.75</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>85.75</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>85.75</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>105.5622</v>
+        <v>2248.1654</v>
       </c>
       <c r="G104" t="n">
-        <v>85.70633333333328</v>
+        <v>85.67799999999994</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4108,10 +4224,10 @@
         <v>85.75</v>
       </c>
       <c r="F105" t="n">
-        <v>8754</v>
+        <v>105.5622</v>
       </c>
       <c r="G105" t="n">
-        <v>85.72933333333327</v>
+        <v>85.70633333333328</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4134,19 +4250,19 @@
         <v>85.75</v>
       </c>
       <c r="C106" t="n">
-        <v>85.62</v>
+        <v>85.75</v>
       </c>
       <c r="D106" t="n">
         <v>85.75</v>
       </c>
       <c r="E106" t="n">
-        <v>85.62</v>
+        <v>85.75</v>
       </c>
       <c r="F106" t="n">
-        <v>2874.4367</v>
+        <v>8754</v>
       </c>
       <c r="G106" t="n">
-        <v>85.75549999999994</v>
+        <v>85.72933333333327</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4166,22 +4282,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>85.62</v>
+        <v>85.75</v>
       </c>
       <c r="C107" t="n">
         <v>85.62</v>
       </c>
       <c r="D107" t="n">
-        <v>85.62</v>
+        <v>85.75</v>
       </c>
       <c r="E107" t="n">
         <v>85.62</v>
       </c>
       <c r="F107" t="n">
-        <v>1107.6401</v>
+        <v>2874.4367</v>
       </c>
       <c r="G107" t="n">
-        <v>85.78183333333327</v>
+        <v>85.75549999999994</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4213,10 +4329,10 @@
         <v>85.62</v>
       </c>
       <c r="F108" t="n">
-        <v>9.3599</v>
+        <v>1107.6401</v>
       </c>
       <c r="G108" t="n">
-        <v>85.80816666666661</v>
+        <v>85.78183333333327</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4236,22 +4352,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>85.72</v>
+        <v>85.62</v>
       </c>
       <c r="C109" t="n">
-        <v>85.72</v>
+        <v>85.62</v>
       </c>
       <c r="D109" t="n">
-        <v>85.72</v>
+        <v>85.62</v>
       </c>
       <c r="E109" t="n">
-        <v>85.72</v>
+        <v>85.62</v>
       </c>
       <c r="F109" t="n">
-        <v>497.6193</v>
+        <v>9.3599</v>
       </c>
       <c r="G109" t="n">
-        <v>85.83616666666661</v>
+        <v>85.80816666666661</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4283,10 +4399,10 @@
         <v>85.72</v>
       </c>
       <c r="F110" t="n">
-        <v>619</v>
+        <v>497.6193</v>
       </c>
       <c r="G110" t="n">
-        <v>85.86416666666661</v>
+        <v>85.83616666666661</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4318,10 +4434,10 @@
         <v>85.72</v>
       </c>
       <c r="F111" t="n">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="G111" t="n">
-        <v>85.89216666666661</v>
+        <v>85.86416666666661</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4356,7 +4472,7 @@
         <v>558</v>
       </c>
       <c r="G112" t="n">
-        <v>85.92016666666662</v>
+        <v>85.89216666666661</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4376,22 +4492,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85.62</v>
+        <v>85.72</v>
       </c>
       <c r="C113" t="n">
-        <v>85.62</v>
+        <v>85.72</v>
       </c>
       <c r="D113" t="n">
-        <v>85.62</v>
+        <v>85.72</v>
       </c>
       <c r="E113" t="n">
-        <v>85.62</v>
+        <v>85.72</v>
       </c>
       <c r="F113" t="n">
-        <v>1252.5294</v>
+        <v>558</v>
       </c>
       <c r="G113" t="n">
-        <v>85.94649999999996</v>
+        <v>85.92016666666662</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4411,22 +4527,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>85.52</v>
+        <v>85.62</v>
       </c>
       <c r="C114" t="n">
-        <v>84.62</v>
+        <v>85.62</v>
       </c>
       <c r="D114" t="n">
-        <v>85.52</v>
+        <v>85.62</v>
       </c>
       <c r="E114" t="n">
-        <v>84.62</v>
+        <v>85.62</v>
       </c>
       <c r="F114" t="n">
-        <v>1533.9901</v>
+        <v>1252.5294</v>
       </c>
       <c r="G114" t="n">
-        <v>85.95599999999995</v>
+        <v>85.94649999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4446,22 +4562,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>84.38</v>
+        <v>85.52</v>
       </c>
       <c r="C115" t="n">
-        <v>84.38</v>
+        <v>84.62</v>
       </c>
       <c r="D115" t="n">
-        <v>84.38</v>
+        <v>85.52</v>
       </c>
       <c r="E115" t="n">
-        <v>84.38</v>
+        <v>84.62</v>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>1533.9901</v>
       </c>
       <c r="G115" t="n">
-        <v>85.94566666666661</v>
+        <v>85.95599999999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4481,22 +4597,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>86.40000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="C116" t="n">
-        <v>86.40000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="D116" t="n">
-        <v>86.40000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="E116" t="n">
-        <v>86.40000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="n">
-        <v>85.96899999999995</v>
+        <v>85.94566666666661</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4528,10 +4644,10 @@
         <v>86.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>3903.7535</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>85.99233333333328</v>
+        <v>85.96899999999995</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4551,22 +4667,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>86.39</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>85.16</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>86.39</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>85.16</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>13184</v>
+        <v>3903.7535</v>
       </c>
       <c r="G118" t="n">
-        <v>85.99499999999993</v>
+        <v>85.99233333333328</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4586,22 +4702,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>85.63</v>
+        <v>86.39</v>
       </c>
       <c r="C119" t="n">
-        <v>85.62</v>
+        <v>85.16</v>
       </c>
       <c r="D119" t="n">
-        <v>85.63</v>
+        <v>86.39</v>
       </c>
       <c r="E119" t="n">
-        <v>85.62</v>
+        <v>85.16</v>
       </c>
       <c r="F119" t="n">
-        <v>2167.5956</v>
+        <v>13184</v>
       </c>
       <c r="G119" t="n">
-        <v>86.00533333333327</v>
+        <v>85.99499999999993</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4621,22 +4737,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>85.59999999999999</v>
+        <v>85.63</v>
       </c>
       <c r="C120" t="n">
-        <v>85.39</v>
+        <v>85.62</v>
       </c>
       <c r="D120" t="n">
-        <v>85.59999999999999</v>
+        <v>85.63</v>
       </c>
       <c r="E120" t="n">
-        <v>85.39</v>
+        <v>85.62</v>
       </c>
       <c r="F120" t="n">
-        <v>5093.8586</v>
+        <v>2167.5956</v>
       </c>
       <c r="G120" t="n">
-        <v>85.99683333333329</v>
+        <v>86.00533333333327</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4656,22 +4772,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>85.48</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>85.48</v>
+        <v>85.39</v>
       </c>
       <c r="D121" t="n">
-        <v>85.48</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>85.48</v>
+        <v>85.39</v>
       </c>
       <c r="F121" t="n">
-        <v>570</v>
+        <v>5093.8586</v>
       </c>
       <c r="G121" t="n">
-        <v>86.00483333333327</v>
+        <v>85.99683333333329</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4691,22 +4807,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>86.34</v>
+        <v>85.48</v>
       </c>
       <c r="C122" t="n">
-        <v>86.34</v>
+        <v>85.48</v>
       </c>
       <c r="D122" t="n">
-        <v>86.34</v>
+        <v>85.48</v>
       </c>
       <c r="E122" t="n">
-        <v>86.34</v>
+        <v>85.48</v>
       </c>
       <c r="F122" t="n">
-        <v>81.07482047718322</v>
+        <v>570</v>
       </c>
       <c r="G122" t="n">
-        <v>86.04033333333328</v>
+        <v>86.00483333333327</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4726,22 +4842,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>85.61</v>
+        <v>86.34</v>
       </c>
       <c r="C123" t="n">
-        <v>85.17</v>
+        <v>86.34</v>
       </c>
       <c r="D123" t="n">
-        <v>85.61</v>
+        <v>86.34</v>
       </c>
       <c r="E123" t="n">
-        <v>85.17</v>
+        <v>86.34</v>
       </c>
       <c r="F123" t="n">
-        <v>50589.4092</v>
+        <v>81.07482047718322</v>
       </c>
       <c r="G123" t="n">
-        <v>86.01349999999995</v>
+        <v>86.04033333333328</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4761,22 +4877,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>85.95999999999999</v>
+        <v>85.61</v>
       </c>
       <c r="C124" t="n">
-        <v>85.97</v>
+        <v>85.17</v>
       </c>
       <c r="D124" t="n">
-        <v>85.97</v>
+        <v>85.61</v>
       </c>
       <c r="E124" t="n">
-        <v>85.95999999999999</v>
+        <v>85.17</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>50589.4092</v>
       </c>
       <c r="G124" t="n">
-        <v>85.99999999999996</v>
+        <v>86.01349999999995</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4796,22 +4912,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>86.29000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>86.29000000000001</v>
+        <v>85.97</v>
       </c>
       <c r="D125" t="n">
-        <v>86.29000000000001</v>
+        <v>85.97</v>
       </c>
       <c r="E125" t="n">
-        <v>86.29000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>7455.4851</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="n">
-        <v>85.98183333333328</v>
+        <v>85.99999999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4831,22 +4947,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>85.27</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>85.27</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>85.27</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>85.27</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>6081.3766</v>
+        <v>7455.4851</v>
       </c>
       <c r="G126" t="n">
-        <v>85.9498333333333</v>
+        <v>85.98183333333328</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4866,22 +4982,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>86</v>
+        <v>85.27</v>
       </c>
       <c r="C127" t="n">
-        <v>86</v>
+        <v>85.27</v>
       </c>
       <c r="D127" t="n">
-        <v>86</v>
+        <v>85.27</v>
       </c>
       <c r="E127" t="n">
-        <v>86</v>
+        <v>85.27</v>
       </c>
       <c r="F127" t="n">
-        <v>10000</v>
+        <v>6081.3766</v>
       </c>
       <c r="G127" t="n">
-        <v>85.9373333333333</v>
+        <v>85.9498333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4901,22 +5017,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>85.3</v>
+        <v>86</v>
       </c>
       <c r="C128" t="n">
-        <v>85.3</v>
+        <v>86</v>
       </c>
       <c r="D128" t="n">
-        <v>85.3</v>
+        <v>86</v>
       </c>
       <c r="E128" t="n">
-        <v>85.3</v>
+        <v>86</v>
       </c>
       <c r="F128" t="n">
-        <v>7455.4851</v>
+        <v>10000</v>
       </c>
       <c r="G128" t="n">
-        <v>85.91316666666664</v>
+        <v>85.9373333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4948,10 +5064,10 @@
         <v>85.3</v>
       </c>
       <c r="F129" t="n">
-        <v>1600</v>
+        <v>7455.4851</v>
       </c>
       <c r="G129" t="n">
-        <v>85.88899999999997</v>
+        <v>85.91316666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4966,6 +5082,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G130" t="n">
+        <v>85.88899999999997</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>25</v>
       </c>
       <c r="G2" t="n">
+        <v>84.12733333333331</v>
+      </c>
+      <c r="H2" t="n">
         <v>83.62766666666658</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5790.8762</v>
       </c>
       <c r="G3" t="n">
+        <v>84.05999999999997</v>
+      </c>
+      <c r="H3" t="n">
         <v>83.62399999999992</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,25 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
+        <v>83.99133333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>83.62199999999991</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="L4" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +571,27 @@
         <v>415.0013</v>
       </c>
       <c r="G5" t="n">
+        <v>83.92466666666664</v>
+      </c>
+      <c r="H5" t="n">
         <v>83.61849999999991</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +615,27 @@
         <v>36</v>
       </c>
       <c r="G6" t="n">
+        <v>83.80933333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>83.60099999999991</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,27 @@
         <v>3386.4612</v>
       </c>
       <c r="G7" t="n">
+        <v>83.80666666666664</v>
+      </c>
+      <c r="H7" t="n">
         <v>83.60949999999993</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +703,29 @@
         <v>1493</v>
       </c>
       <c r="G8" t="n">
+        <v>83.86399999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>83.60983333333326</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,22 +749,29 @@
         <v>2986</v>
       </c>
       <c r="G9" t="n">
+        <v>83.75933333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>83.6136666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>83.5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>83.5</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -732,26 +795,29 @@
         <v>1493</v>
       </c>
       <c r="G10" t="n">
+        <v>83.79199999999997</v>
+      </c>
+      <c r="H10" t="n">
         <v>83.61749999999994</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>83.52</v>
       </c>
-      <c r="K10" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -775,26 +841,29 @@
         <v>6182.2606</v>
       </c>
       <c r="G11" t="n">
+        <v>83.82333333333331</v>
+      </c>
+      <c r="H11" t="n">
         <v>83.62099999999994</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>83.52</v>
       </c>
-      <c r="K11" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,18 +887,29 @@
         <v>237.8356347826087</v>
       </c>
       <c r="G12" t="n">
+        <v>83.80666666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>83.64349999999995</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +933,27 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
+        <v>83.79199999999997</v>
+      </c>
+      <c r="H13" t="n">
         <v>83.67766666666662</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +977,27 @@
         <v>235.9882005899705</v>
       </c>
       <c r="G14" t="n">
+        <v>83.84199999999997</v>
+      </c>
+      <c r="H14" t="n">
         <v>83.71483333333327</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +1021,27 @@
         <v>2193</v>
       </c>
       <c r="G15" t="n">
+        <v>83.91399999999997</v>
+      </c>
+      <c r="H15" t="n">
         <v>83.74449999999995</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +1065,27 @@
         <v>63605.2143</v>
       </c>
       <c r="G16" t="n">
+        <v>83.88666666666663</v>
+      </c>
+      <c r="H16" t="n">
         <v>83.7626666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1109,27 @@
         <v>3162.8935</v>
       </c>
       <c r="G17" t="n">
+        <v>83.93066666666664</v>
+      </c>
+      <c r="H17" t="n">
         <v>83.78599999999996</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1153,27 @@
         <v>2986</v>
       </c>
       <c r="G18" t="n">
+        <v>83.90333333333329</v>
+      </c>
+      <c r="H18" t="n">
         <v>83.80416666666662</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1197,27 @@
         <v>8958</v>
       </c>
       <c r="G19" t="n">
+        <v>83.87666666666662</v>
+      </c>
+      <c r="H19" t="n">
         <v>83.82233333333329</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1241,27 @@
         <v>1425.9086</v>
       </c>
       <c r="G20" t="n">
+        <v>83.84866666666662</v>
+      </c>
+      <c r="H20" t="n">
         <v>83.83849999999994</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1285,27 @@
         <v>1493</v>
       </c>
       <c r="G21" t="n">
+        <v>83.86733333333329</v>
+      </c>
+      <c r="H21" t="n">
         <v>83.85349999999994</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1329,27 @@
         <v>10850.7904</v>
       </c>
       <c r="G22" t="n">
+        <v>83.83733333333329</v>
+      </c>
+      <c r="H22" t="n">
         <v>83.86833333333328</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1373,27 @@
         <v>1493</v>
       </c>
       <c r="G23" t="n">
+        <v>83.83999999999995</v>
+      </c>
+      <c r="H23" t="n">
         <v>83.88316666666661</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1417,27 @@
         <v>1585.4435</v>
       </c>
       <c r="G24" t="n">
+        <v>83.83866666666661</v>
+      </c>
+      <c r="H24" t="n">
         <v>83.89783333333328</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1461,27 @@
         <v>954.0246</v>
       </c>
       <c r="G25" t="n">
+        <v>83.83733333333329</v>
+      </c>
+      <c r="H25" t="n">
         <v>83.88183333333329</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1505,27 @@
         <v>324.9576</v>
       </c>
       <c r="G26" t="n">
+        <v>83.81733333333328</v>
+      </c>
+      <c r="H26" t="n">
         <v>83.88166666666662</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1549,27 @@
         <v>421.711</v>
       </c>
       <c r="G27" t="n">
+        <v>83.72133333333328</v>
+      </c>
+      <c r="H27" t="n">
         <v>83.86083333333328</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1593,29 @@
         <v>6781.3992</v>
       </c>
       <c r="G28" t="n">
+        <v>83.62399999999995</v>
+      </c>
+      <c r="H28" t="n">
         <v>83.83883333333328</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1639,27 @@
         <v>319.4393</v>
       </c>
       <c r="G29" t="n">
+        <v>83.51533333333327</v>
+      </c>
+      <c r="H29" t="n">
         <v>83.82799999999995</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1683,29 @@
         <v>1493</v>
       </c>
       <c r="G30" t="n">
+        <v>83.43199999999995</v>
+      </c>
+      <c r="H30" t="n">
         <v>83.82533333333328</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>83.12</v>
+      </c>
+      <c r="L30" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1729,27 @@
         <v>4479</v>
       </c>
       <c r="G31" t="n">
+        <v>83.39733333333328</v>
+      </c>
+      <c r="H31" t="n">
         <v>83.82266666666662</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1773,27 @@
         <v>13242.96</v>
       </c>
       <c r="G32" t="n">
+        <v>83.34133333333327</v>
+      </c>
+      <c r="H32" t="n">
         <v>83.80983333333329</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1817,27 @@
         <v>22080.8452</v>
       </c>
       <c r="G33" t="n">
+        <v>83.29533333333328</v>
+      </c>
+      <c r="H33" t="n">
         <v>83.79416666666663</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1861,27 @@
         <v>1165.7231</v>
       </c>
       <c r="G34" t="n">
+        <v>83.23333333333329</v>
+      </c>
+      <c r="H34" t="n">
         <v>83.7798333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,22 +1905,27 @@
         <v>33621.8299</v>
       </c>
       <c r="G35" t="n">
+        <v>83.26666666666662</v>
+      </c>
+      <c r="H35" t="n">
         <v>83.7893333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K35" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,24 +1949,27 @@
         <v>20</v>
       </c>
       <c r="G36" t="n">
+        <v>83.20666666666664</v>
+      </c>
+      <c r="H36" t="n">
         <v>83.76966666666664</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1703,24 +1993,27 @@
         <v>118.9767995240928</v>
       </c>
       <c r="G37" t="n">
+        <v>83.24066666666663</v>
+      </c>
+      <c r="H37" t="n">
         <v>83.77883333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,24 +2037,27 @@
         <v>36</v>
       </c>
       <c r="G38" t="n">
+        <v>83.18799999999996</v>
+      </c>
+      <c r="H38" t="n">
         <v>83.76633333333331</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1785,24 +2081,27 @@
         <v>118.9909566872918</v>
       </c>
       <c r="G39" t="n">
+        <v>83.22399999999996</v>
+      </c>
+      <c r="H39" t="n">
         <v>83.77533333333331</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,24 +2125,27 @@
         <v>2282.5436</v>
       </c>
       <c r="G40" t="n">
+        <v>83.17866666666663</v>
+      </c>
+      <c r="H40" t="n">
         <v>83.76399999999997</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1867,24 +2169,27 @@
         <v>115646.8576</v>
       </c>
       <c r="G41" t="n">
+        <v>83.13866666666662</v>
+      </c>
+      <c r="H41" t="n">
         <v>83.75233333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,24 +2213,27 @@
         <v>1494</v>
       </c>
       <c r="G42" t="n">
+        <v>83.10733333333329</v>
+      </c>
+      <c r="H42" t="n">
         <v>83.74283333333329</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,24 +2257,27 @@
         <v>23189.1941</v>
       </c>
       <c r="G43" t="n">
+        <v>83.16933333333327</v>
+      </c>
+      <c r="H43" t="n">
         <v>83.73999999999997</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,24 +2301,27 @@
         <v>26000</v>
       </c>
       <c r="G44" t="n">
+        <v>83.23133333333325</v>
+      </c>
+      <c r="H44" t="n">
         <v>83.73716666666662</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2031,24 +2345,27 @@
         <v>385.0259</v>
       </c>
       <c r="G45" t="n">
+        <v>83.29799999999993</v>
+      </c>
+      <c r="H45" t="n">
         <v>83.73066666666664</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,24 +2389,27 @@
         <v>1500</v>
       </c>
       <c r="G46" t="n">
+        <v>83.38599999999992</v>
+      </c>
+      <c r="H46" t="n">
         <v>83.72883333333331</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,24 +2433,27 @@
         <v>425.78</v>
       </c>
       <c r="G47" t="n">
+        <v>83.45266666666659</v>
+      </c>
+      <c r="H47" t="n">
         <v>83.71299999999998</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,24 +2477,27 @@
         <v>594.9548</v>
       </c>
       <c r="G48" t="n">
+        <v>83.52999999999993</v>
+      </c>
+      <c r="H48" t="n">
         <v>83.69716666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2195,24 +2521,27 @@
         <v>4008</v>
       </c>
       <c r="G49" t="n">
+        <v>83.62333333333325</v>
+      </c>
+      <c r="H49" t="n">
         <v>83.68116666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,24 +2565,27 @@
         <v>3917.8359</v>
       </c>
       <c r="G50" t="n">
+        <v>83.62133333333325</v>
+      </c>
+      <c r="H50" t="n">
         <v>83.66533333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2277,24 +2609,27 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
+        <v>83.71466666666657</v>
+      </c>
+      <c r="H51" t="n">
         <v>83.64949999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,24 +2653,29 @@
         <v>8059.7963</v>
       </c>
       <c r="G52" t="n">
+        <v>83.71399999999991</v>
+      </c>
+      <c r="H52" t="n">
         <v>83.64966666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="L52" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2359,24 +2699,29 @@
         <v>1314.9615</v>
       </c>
       <c r="G53" t="n">
+        <v>83.79999999999991</v>
+      </c>
+      <c r="H53" t="n">
         <v>83.67299999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="L53" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,24 +2745,29 @@
         <v>1777.7695</v>
       </c>
       <c r="G54" t="n">
+        <v>83.79999999999991</v>
+      </c>
+      <c r="H54" t="n">
         <v>83.65549999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="L54" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2441,24 +2791,29 @@
         <v>75.59610000000001</v>
       </c>
       <c r="G55" t="n">
+        <v>83.88199999999991</v>
+      </c>
+      <c r="H55" t="n">
         <v>83.67249999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="L55" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,24 +2837,29 @@
         <v>45526.7258</v>
       </c>
       <c r="G56" t="n">
+        <v>84.04199999999992</v>
+      </c>
+      <c r="H56" t="n">
         <v>83.70533333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="L56" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,24 +2883,27 @@
         <v>6955.5909</v>
       </c>
       <c r="G57" t="n">
+        <v>84.19333333333324</v>
+      </c>
+      <c r="H57" t="n">
         <v>83.70716666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,24 +2927,27 @@
         <v>2440.2029</v>
       </c>
       <c r="G58" t="n">
+        <v>84.25666666666659</v>
+      </c>
+      <c r="H58" t="n">
         <v>83.71049999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2605,24 +2971,27 @@
         <v>9403.5399</v>
       </c>
       <c r="G59" t="n">
+        <v>84.31999999999992</v>
+      </c>
+      <c r="H59" t="n">
         <v>83.72716666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,25 +3015,28 @@
         <v>1669.2134</v>
       </c>
       <c r="G60" t="n">
+        <v>84.38333333333325</v>
+      </c>
+      <c r="H60" t="n">
         <v>83.75683333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1.023557599225557</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2687,18 +3059,27 @@
         <v>8</v>
       </c>
       <c r="G61" t="n">
+        <v>84.48533333333326</v>
+      </c>
+      <c r="H61" t="n">
         <v>83.78883333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +3103,27 @@
         <v>62.8928</v>
       </c>
       <c r="G62" t="n">
+        <v>84.54866666666659</v>
+      </c>
+      <c r="H62" t="n">
         <v>83.81833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +3147,27 @@
         <v>47985.8381</v>
       </c>
       <c r="G63" t="n">
+        <v>84.55999999999993</v>
+      </c>
+      <c r="H63" t="n">
         <v>83.82216666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +3191,27 @@
         <v>6560.6954</v>
       </c>
       <c r="G64" t="n">
+        <v>84.74266666666659</v>
+      </c>
+      <c r="H64" t="n">
         <v>83.86899999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +3235,27 @@
         <v>12960.7919</v>
       </c>
       <c r="G65" t="n">
+        <v>84.92533333333327</v>
+      </c>
+      <c r="H65" t="n">
         <v>83.91549999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +3279,27 @@
         <v>50495.321</v>
       </c>
       <c r="G66" t="n">
+        <v>85.14799999999993</v>
+      </c>
+      <c r="H66" t="n">
         <v>83.98416666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3323,27 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
+        <v>85.35799999999993</v>
+      </c>
+      <c r="H67" t="n">
         <v>84.03749999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3367,27 @@
         <v>8</v>
       </c>
       <c r="G68" t="n">
+        <v>85.5386666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>84.09166666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3411,27 @@
         <v>6</v>
       </c>
       <c r="G69" t="n">
+        <v>85.71933333333327</v>
+      </c>
+      <c r="H69" t="n">
         <v>84.14549999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3455,27 @@
         <v>7766.4107</v>
       </c>
       <c r="G70" t="n">
+        <v>85.89933333333327</v>
+      </c>
+      <c r="H70" t="n">
         <v>84.1993333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3499,27 @@
         <v>15.789</v>
       </c>
       <c r="G71" t="n">
+        <v>86.00933333333327</v>
+      </c>
+      <c r="H71" t="n">
         <v>84.25183333333329</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3543,27 @@
         <v>48.677</v>
       </c>
       <c r="G72" t="n">
+        <v>86.12666666666661</v>
+      </c>
+      <c r="H72" t="n">
         <v>84.28716666666664</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3587,27 @@
         <v>55387.3084</v>
       </c>
       <c r="G73" t="n">
+        <v>86.24666666666661</v>
+      </c>
+      <c r="H73" t="n">
         <v>84.32416666666663</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3631,27 @@
         <v>1555.1935</v>
       </c>
       <c r="G74" t="n">
+        <v>86.29533333333328</v>
+      </c>
+      <c r="H74" t="n">
         <v>84.34049999999996</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3675,27 @@
         <v>189.8829</v>
       </c>
       <c r="G75" t="n">
+        <v>86.3686666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>84.37049999999996</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3719,27 @@
         <v>14.9743</v>
       </c>
       <c r="G76" t="n">
+        <v>86.46133333333326</v>
+      </c>
+      <c r="H76" t="n">
         <v>84.43249999999996</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,19 +3763,28 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
+        <v>86.47933333333326</v>
+      </c>
+      <c r="H77" t="n">
         <v>84.45549999999997</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
+      <c r="L77" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1.010360800190522</v>
       </c>
     </row>
     <row r="78">
@@ -3282,18 +3807,21 @@
         <v>1270.2613</v>
       </c>
       <c r="G78" t="n">
+        <v>86.6786666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>84.51599999999998</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3845,21 @@
         <v>2167.5956</v>
       </c>
       <c r="G79" t="n">
+        <v>86.69333333333326</v>
+      </c>
+      <c r="H79" t="n">
         <v>84.57316666666664</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +3883,21 @@
         <v>168246.9495</v>
       </c>
       <c r="G80" t="n">
+        <v>86.50999999999993</v>
+      </c>
+      <c r="H80" t="n">
         <v>84.5808333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +3921,21 @@
         <v>2986</v>
       </c>
       <c r="G81" t="n">
+        <v>86.4066666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>84.61899999999997</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +3959,21 @@
         <v>16205.9388</v>
       </c>
       <c r="G82" t="n">
+        <v>86.31133333333327</v>
+      </c>
+      <c r="H82" t="n">
         <v>84.65599999999998</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +3997,21 @@
         <v>4</v>
       </c>
       <c r="G83" t="n">
+        <v>86.24533333333326</v>
+      </c>
+      <c r="H83" t="n">
         <v>84.69299999999998</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +4035,21 @@
         <v>7446.613</v>
       </c>
       <c r="G84" t="n">
+        <v>86.16399999999993</v>
+      </c>
+      <c r="H84" t="n">
         <v>84.72683333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +4073,21 @@
         <v>4883.9061</v>
       </c>
       <c r="G85" t="n">
+        <v>86.0826666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>84.76066666666664</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +4111,21 @@
         <v>14071.3647</v>
       </c>
       <c r="G86" t="n">
+        <v>86.02866666666658</v>
+      </c>
+      <c r="H86" t="n">
         <v>84.80466666666665</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +4149,21 @@
         <v>20902.4258</v>
       </c>
       <c r="G87" t="n">
+        <v>85.97799999999991</v>
+      </c>
+      <c r="H87" t="n">
         <v>84.85133333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +4187,21 @@
         <v>4824.9177</v>
       </c>
       <c r="G88" t="n">
+        <v>85.93666666666658</v>
+      </c>
+      <c r="H88" t="n">
         <v>84.90233333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +4225,21 @@
         <v>11469.2305</v>
       </c>
       <c r="G89" t="n">
+        <v>85.98399999999992</v>
+      </c>
+      <c r="H89" t="n">
         <v>84.95766666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4263,21 @@
         <v>1428.6336</v>
       </c>
       <c r="G90" t="n">
+        <v>86.0066666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>85.01416666666664</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4301,21 @@
         <v>5071.0864</v>
       </c>
       <c r="G91" t="n">
+        <v>85.93266666666661</v>
+      </c>
+      <c r="H91" t="n">
         <v>85.0663333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4339,21 @@
         <v>3400</v>
       </c>
       <c r="G92" t="n">
+        <v>85.99666666666661</v>
+      </c>
+      <c r="H92" t="n">
         <v>85.1193333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4377,21 @@
         <v>2244.2176</v>
       </c>
       <c r="G93" t="n">
+        <v>85.93199999999995</v>
+      </c>
+      <c r="H93" t="n">
         <v>85.17516666666663</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4415,21 @@
         <v>40</v>
       </c>
       <c r="G94" t="n">
+        <v>85.8786666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>85.23449999999995</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4453,21 @@
         <v>1400</v>
       </c>
       <c r="G95" t="n">
+        <v>86.00999999999995</v>
+      </c>
+      <c r="H95" t="n">
         <v>85.26666666666662</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4491,21 @@
         <v>43.3061</v>
       </c>
       <c r="G96" t="n">
+        <v>86.02066666666661</v>
+      </c>
+      <c r="H96" t="n">
         <v>85.32249999999995</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4529,21 @@
         <v>20000</v>
       </c>
       <c r="G97" t="n">
+        <v>86.04733333333328</v>
+      </c>
+      <c r="H97" t="n">
         <v>85.3576666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4567,21 @@
         <v>766.0612</v>
       </c>
       <c r="G98" t="n">
+        <v>86.07466666666663</v>
+      </c>
+      <c r="H98" t="n">
         <v>85.41466666666661</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4605,21 @@
         <v>1436.3764</v>
       </c>
       <c r="G99" t="n">
+        <v>86.11733333333331</v>
+      </c>
+      <c r="H99" t="n">
         <v>85.4501666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4643,21 @@
         <v>861.8422</v>
       </c>
       <c r="G100" t="n">
+        <v>86.15999999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>85.50599999999994</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4681,21 @@
         <v>53652.3736</v>
       </c>
       <c r="G101" t="n">
+        <v>86.14466666666664</v>
+      </c>
+      <c r="H101" t="n">
         <v>85.5561666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4719,21 @@
         <v>6527</v>
       </c>
       <c r="G102" t="n">
+        <v>86.16999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>85.61699999999995</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +4757,21 @@
         <v>11785.279</v>
       </c>
       <c r="G103" t="n">
+        <v>86.15199999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>85.64799999999994</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +4795,21 @@
         <v>2248.1654</v>
       </c>
       <c r="G104" t="n">
+        <v>86.11266666666664</v>
+      </c>
+      <c r="H104" t="n">
         <v>85.67799999999994</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4833,21 @@
         <v>105.5622</v>
       </c>
       <c r="G105" t="n">
+        <v>86.06666666666663</v>
+      </c>
+      <c r="H105" t="n">
         <v>85.70633333333328</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4871,21 @@
         <v>8754</v>
       </c>
       <c r="G106" t="n">
+        <v>86.03799999999997</v>
+      </c>
+      <c r="H106" t="n">
         <v>85.72933333333327</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4909,21 @@
         <v>2874.4367</v>
       </c>
       <c r="G107" t="n">
+        <v>85.9973333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>85.75549999999994</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4947,21 @@
         <v>1107.6401</v>
       </c>
       <c r="G108" t="n">
+        <v>85.95666666666664</v>
+      </c>
+      <c r="H108" t="n">
         <v>85.78183333333327</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +4985,21 @@
         <v>9.3599</v>
       </c>
       <c r="G109" t="n">
+        <v>85.91799999999995</v>
+      </c>
+      <c r="H109" t="n">
         <v>85.80816666666661</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +5023,21 @@
         <v>497.6193</v>
       </c>
       <c r="G110" t="n">
+        <v>85.89933333333329</v>
+      </c>
+      <c r="H110" t="n">
         <v>85.83616666666661</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +5061,21 @@
         <v>619</v>
       </c>
       <c r="G111" t="n">
+        <v>85.88133333333329</v>
+      </c>
+      <c r="H111" t="n">
         <v>85.86416666666661</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +5099,21 @@
         <v>558</v>
       </c>
       <c r="G112" t="n">
+        <v>85.85199999999995</v>
+      </c>
+      <c r="H112" t="n">
         <v>85.89216666666661</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +5137,21 @@
         <v>558</v>
       </c>
       <c r="G113" t="n">
+        <v>85.82199999999995</v>
+      </c>
+      <c r="H113" t="n">
         <v>85.92016666666662</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5175,21 @@
         <v>1252.5294</v>
       </c>
       <c r="G114" t="n">
+        <v>85.78533333333328</v>
+      </c>
+      <c r="H114" t="n">
         <v>85.94649999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5213,21 @@
         <v>1533.9901</v>
       </c>
       <c r="G115" t="n">
+        <v>85.68199999999995</v>
+      </c>
+      <c r="H115" t="n">
         <v>85.95599999999995</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5251,21 @@
         <v>1000</v>
       </c>
       <c r="G116" t="n">
+        <v>85.59999999999995</v>
+      </c>
+      <c r="H116" t="n">
         <v>85.94566666666661</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5289,21 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
+        <v>85.6013333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>85.96899999999995</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5327,21 @@
         <v>3903.7535</v>
       </c>
       <c r="G118" t="n">
+        <v>85.63399999999997</v>
+      </c>
+      <c r="H118" t="n">
         <v>85.99233333333328</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5365,21 @@
         <v>13184</v>
       </c>
       <c r="G119" t="n">
+        <v>85.58799999999998</v>
+      </c>
+      <c r="H119" t="n">
         <v>85.99499999999993</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5403,21 @@
         <v>2167.5956</v>
       </c>
       <c r="G120" t="n">
+        <v>85.57933333333331</v>
+      </c>
+      <c r="H120" t="n">
         <v>86.00533333333327</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5441,21 @@
         <v>5093.8586</v>
       </c>
       <c r="G121" t="n">
+        <v>85.55533333333331</v>
+      </c>
+      <c r="H121" t="n">
         <v>85.99683333333329</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5479,21 @@
         <v>570</v>
       </c>
       <c r="G122" t="n">
+        <v>85.54599999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>86.00483333333327</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5517,21 @@
         <v>81.07482047718322</v>
       </c>
       <c r="G123" t="n">
+        <v>85.59399999999997</v>
+      </c>
+      <c r="H123" t="n">
         <v>86.04033333333328</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5555,21 @@
         <v>50589.4092</v>
       </c>
       <c r="G124" t="n">
+        <v>85.56399999999998</v>
+      </c>
+      <c r="H124" t="n">
         <v>86.01349999999995</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5593,21 @@
         <v>2000</v>
       </c>
       <c r="G125" t="n">
+        <v>85.58066666666664</v>
+      </c>
+      <c r="H125" t="n">
         <v>85.99999999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5631,21 @@
         <v>7455.4851</v>
       </c>
       <c r="G126" t="n">
+        <v>85.61866666666664</v>
+      </c>
+      <c r="H126" t="n">
         <v>85.98183333333328</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5669,21 @@
         <v>6081.3766</v>
       </c>
       <c r="G127" t="n">
+        <v>85.58866666666663</v>
+      </c>
+      <c r="H127" t="n">
         <v>85.9498333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5707,21 @@
         <v>10000</v>
       </c>
       <c r="G128" t="n">
+        <v>85.6073333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>85.9373333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5745,21 @@
         <v>7455.4851</v>
       </c>
       <c r="G129" t="n">
+        <v>85.58599999999997</v>
+      </c>
+      <c r="H129" t="n">
         <v>85.91316666666664</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5783,401 @@
         <v>1600</v>
       </c>
       <c r="G130" t="n">
+        <v>85.63133333333329</v>
+      </c>
+      <c r="H130" t="n">
         <v>85.88899999999997</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>85</v>
+      </c>
+      <c r="D131" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>85</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26086.0757</v>
+      </c>
+      <c r="G131" t="n">
+        <v>85.67266666666661</v>
+      </c>
+      <c r="H131" t="n">
+        <v>85.86149999999998</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>86</v>
+      </c>
+      <c r="C132" t="n">
+        <v>86</v>
+      </c>
+      <c r="D132" t="n">
+        <v>86</v>
+      </c>
+      <c r="E132" t="n">
+        <v>86</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G132" t="n">
+        <v>85.64599999999994</v>
+      </c>
+      <c r="H132" t="n">
+        <v>85.8488333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>86</v>
+      </c>
+      <c r="C133" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="D133" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="E133" t="n">
+        <v>86</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7026.1832</v>
+      </c>
+      <c r="G133" t="n">
+        <v>85.62733333333327</v>
+      </c>
+      <c r="H133" t="n">
+        <v>85.83749999999996</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6144.0743</v>
+      </c>
+      <c r="G134" t="n">
+        <v>85.58799999999992</v>
+      </c>
+      <c r="H134" t="n">
+        <v>85.81816666666664</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C135" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D135" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E135" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F135" t="n">
+        <v>115.9689203293517</v>
+      </c>
+      <c r="G135" t="n">
+        <v>85.62866666666659</v>
+      </c>
+      <c r="H135" t="n">
+        <v>85.82033333333329</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="C136" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8077.1347</v>
+      </c>
+      <c r="G136" t="n">
+        <v>85.62266666666659</v>
+      </c>
+      <c r="H136" t="n">
+        <v>85.78716666666664</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3800.711475612602</v>
+      </c>
+      <c r="G137" t="n">
+        <v>85.63733333333326</v>
+      </c>
+      <c r="H137" t="n">
+        <v>85.79433333333328</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1811.7953</v>
+      </c>
+      <c r="G138" t="n">
+        <v>85.55466666666659</v>
+      </c>
+      <c r="H138" t="n">
+        <v>85.75933333333329</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="C139" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D139" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E139" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11037.947</v>
+      </c>
+      <c r="G139" t="n">
+        <v>85.57866666666658</v>
+      </c>
+      <c r="H139" t="n">
+        <v>85.73483333333328</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="C140" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D140" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E140" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5629.5192</v>
+      </c>
+      <c r="G140" t="n">
+        <v>85.54933333333324</v>
+      </c>
+      <c r="H140" t="n">
+        <v>85.75983333333329</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.23</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>83.23</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>83.23</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>83.23</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>3524.672</v>
       </c>
       <c r="G2" t="n">
-        <v>84.12733333333331</v>
+        <v>-130761.6852505466</v>
       </c>
       <c r="H2" t="n">
-        <v>83.62766666666658</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.97</v>
+        <v>83.5</v>
       </c>
       <c r="C3" t="n">
-        <v>83.98</v>
+        <v>83.5</v>
       </c>
       <c r="D3" t="n">
-        <v>83.98</v>
+        <v>83.5</v>
       </c>
       <c r="E3" t="n">
-        <v>83.97</v>
+        <v>83.5</v>
       </c>
       <c r="F3" t="n">
-        <v>5790.8762</v>
+        <v>39440.699</v>
       </c>
       <c r="G3" t="n">
-        <v>84.05999999999997</v>
+        <v>-170202.3842505466</v>
       </c>
       <c r="H3" t="n">
-        <v>83.62399999999992</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,40 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.97</v>
+        <v>83.5</v>
       </c>
       <c r="C4" t="n">
-        <v>83.97</v>
+        <v>83.5</v>
       </c>
       <c r="D4" t="n">
-        <v>83.97</v>
+        <v>83.5</v>
       </c>
       <c r="E4" t="n">
-        <v>83.97</v>
+        <v>83.5</v>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
+        <v>559.301</v>
       </c>
       <c r="G4" t="n">
-        <v>83.99133333333332</v>
+        <v>-170202.3842505466</v>
       </c>
       <c r="H4" t="n">
-        <v>83.62199999999991</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="L4" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -556,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83.98999999999999</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>83.98999999999999</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>83.98999999999999</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>83.98999999999999</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>415.0013</v>
+        <v>1240.9936</v>
       </c>
       <c r="G5" t="n">
-        <v>83.92466666666664</v>
+        <v>-168961.3906505466</v>
       </c>
       <c r="H5" t="n">
-        <v>83.61849999999991</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83.98</v>
+        <v>83.5</v>
       </c>
       <c r="C6" t="n">
-        <v>83.26000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D6" t="n">
-        <v>83.98</v>
+        <v>83.5</v>
       </c>
       <c r="E6" t="n">
-        <v>83.26000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>769.9395</v>
       </c>
       <c r="G6" t="n">
-        <v>83.80933333333331</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H6" t="n">
-        <v>83.60099999999991</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -644,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83.98999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="D7" t="n">
-        <v>83.98999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F7" t="n">
-        <v>3386.4612</v>
+        <v>18357.9715</v>
       </c>
       <c r="G7" t="n">
-        <v>83.80666666666664</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H7" t="n">
-        <v>83.60949999999993</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,32 +655,21 @@
         <v>83.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1493</v>
+        <v>5864.8565</v>
       </c>
       <c r="G8" t="n">
-        <v>83.86399999999998</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H8" t="n">
-        <v>83.60983333333326</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L8" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -734,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83.51000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="C9" t="n">
-        <v>83.52</v>
+        <v>83.5</v>
       </c>
       <c r="D9" t="n">
-        <v>83.52</v>
+        <v>83.5</v>
       </c>
       <c r="E9" t="n">
-        <v>83.51000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F9" t="n">
-        <v>2986</v>
+        <v>252.0977</v>
       </c>
       <c r="G9" t="n">
-        <v>83.75933333333332</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H9" t="n">
-        <v>83.6136666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,44 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83.52</v>
+        <v>83.3</v>
       </c>
       <c r="C10" t="n">
-        <v>83.52</v>
+        <v>83.3</v>
       </c>
       <c r="D10" t="n">
-        <v>83.52</v>
+        <v>83.3</v>
       </c>
       <c r="E10" t="n">
-        <v>83.52</v>
+        <v>83.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1493</v>
+        <v>4768.176</v>
       </c>
       <c r="G10" t="n">
-        <v>83.79199999999997</v>
+        <v>-174499.5061505467</v>
       </c>
       <c r="H10" t="n">
-        <v>83.61749999999994</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="L10" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,44 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="C11" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="D11" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="E11" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="F11" t="n">
-        <v>6182.2606</v>
+        <v>1348.7782</v>
       </c>
       <c r="G11" t="n">
-        <v>83.82333333333331</v>
+        <v>-174499.5061505467</v>
       </c>
       <c r="H11" t="n">
-        <v>83.62099999999994</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="L11" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,44 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>84.64</v>
+        <v>84.22</v>
       </c>
       <c r="D12" t="n">
-        <v>84.64</v>
+        <v>84.22</v>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>237.8356347826087</v>
+        <v>47112.9947</v>
       </c>
       <c r="G12" t="n">
-        <v>83.80666666666664</v>
+        <v>-127386.5114505466</v>
       </c>
       <c r="H12" t="n">
-        <v>83.64349999999995</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84.58</v>
+        <v>84.22</v>
       </c>
       <c r="C13" t="n">
-        <v>84.58</v>
+        <v>84.22</v>
       </c>
       <c r="D13" t="n">
-        <v>84.58</v>
+        <v>84.22</v>
       </c>
       <c r="E13" t="n">
-        <v>84.58</v>
+        <v>84.22</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>2610.0865</v>
       </c>
       <c r="G13" t="n">
-        <v>83.79199999999997</v>
+        <v>-127386.5114505466</v>
       </c>
       <c r="H13" t="n">
-        <v>83.67766666666662</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>84.75</v>
+        <v>84.42</v>
       </c>
       <c r="C14" t="n">
-        <v>84.75</v>
+        <v>84.44</v>
       </c>
       <c r="D14" t="n">
-        <v>84.75</v>
+        <v>84.44</v>
       </c>
       <c r="E14" t="n">
-        <v>84.75</v>
+        <v>84.42</v>
       </c>
       <c r="F14" t="n">
-        <v>235.9882005899705</v>
+        <v>6533.9251</v>
       </c>
       <c r="G14" t="n">
-        <v>83.84199999999997</v>
+        <v>-120852.5863505467</v>
       </c>
       <c r="H14" t="n">
-        <v>83.71483333333327</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83.58</v>
+        <v>84.44</v>
       </c>
       <c r="C15" t="n">
-        <v>84.3</v>
+        <v>84.48</v>
       </c>
       <c r="D15" t="n">
-        <v>84.3</v>
+        <v>84.48</v>
       </c>
       <c r="E15" t="n">
-        <v>83.58</v>
+        <v>84.44</v>
       </c>
       <c r="F15" t="n">
-        <v>2193</v>
+        <v>14999.2296</v>
       </c>
       <c r="G15" t="n">
-        <v>83.91399999999997</v>
+        <v>-105853.3567505466</v>
       </c>
       <c r="H15" t="n">
-        <v>83.74449999999995</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83.58</v>
+        <v>84.94</v>
       </c>
       <c r="C16" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
-        <v>83.58</v>
+        <v>85</v>
       </c>
       <c r="E16" t="n">
-        <v>83.56999999999999</v>
+        <v>84.94</v>
       </c>
       <c r="F16" t="n">
-        <v>63605.2143</v>
+        <v>16521.3601</v>
       </c>
       <c r="G16" t="n">
-        <v>83.88666666666663</v>
+        <v>-89331.99665054664</v>
       </c>
       <c r="H16" t="n">
-        <v>83.7626666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83.89</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>83.89</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>83.89</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>83.89</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>3162.8935</v>
+        <v>3803.9872</v>
       </c>
       <c r="G17" t="n">
-        <v>83.93066666666664</v>
+        <v>-93135.98385054665</v>
       </c>
       <c r="H17" t="n">
-        <v>83.78599999999996</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="D18" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="E18" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>2986</v>
+        <v>6162.7415</v>
       </c>
       <c r="G18" t="n">
-        <v>83.90333333333329</v>
+        <v>-86973.24235054664</v>
       </c>
       <c r="H18" t="n">
-        <v>83.80416666666662</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>8958</v>
+        <v>1493</v>
       </c>
       <c r="G19" t="n">
-        <v>83.87666666666662</v>
+        <v>-88466.24235054664</v>
       </c>
       <c r="H19" t="n">
-        <v>83.82233333333329</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>83.56999999999999</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>1425.9086</v>
+        <v>552.7134</v>
       </c>
       <c r="G20" t="n">
-        <v>83.84866666666662</v>
+        <v>-88466.24235054664</v>
       </c>
       <c r="H20" t="n">
-        <v>83.83849999999994</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1270,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83.54000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="C21" t="n">
-        <v>83.54000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="D21" t="n">
-        <v>83.54000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="E21" t="n">
-        <v>83.54000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="F21" t="n">
-        <v>1493</v>
+        <v>3862.5147</v>
       </c>
       <c r="G21" t="n">
-        <v>83.86733333333329</v>
+        <v>-92328.75705054664</v>
       </c>
       <c r="H21" t="n">
-        <v>83.85349999999994</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83.54000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="C22" t="n">
-        <v>83.54000000000001</v>
+        <v>82.64</v>
       </c>
       <c r="D22" t="n">
-        <v>83.54000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="E22" t="n">
-        <v>83.54000000000001</v>
+        <v>82.64</v>
       </c>
       <c r="F22" t="n">
-        <v>10850.7904</v>
+        <v>304028.3907</v>
       </c>
       <c r="G22" t="n">
-        <v>83.83733333333329</v>
+        <v>-396357.1477505466</v>
       </c>
       <c r="H22" t="n">
-        <v>83.86833333333328</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83.54000000000001</v>
+        <v>84.22</v>
       </c>
       <c r="C23" t="n">
-        <v>83.54000000000001</v>
+        <v>85.09</v>
       </c>
       <c r="D23" t="n">
-        <v>83.54000000000001</v>
+        <v>85.09</v>
       </c>
       <c r="E23" t="n">
-        <v>83.54000000000001</v>
+        <v>84.22</v>
       </c>
       <c r="F23" t="n">
-        <v>1493</v>
+        <v>13309.11128974793</v>
       </c>
       <c r="G23" t="n">
-        <v>83.83999999999995</v>
+        <v>-383048.0364607987</v>
       </c>
       <c r="H23" t="n">
-        <v>83.88316666666661</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1402,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83.54000000000001</v>
+        <v>83.03</v>
       </c>
       <c r="C24" t="n">
-        <v>83.5</v>
+        <v>83.03</v>
       </c>
       <c r="D24" t="n">
-        <v>83.54000000000001</v>
+        <v>83.03</v>
       </c>
       <c r="E24" t="n">
-        <v>83.5</v>
+        <v>83.03</v>
       </c>
       <c r="F24" t="n">
-        <v>1585.4435</v>
+        <v>15652.391</v>
       </c>
       <c r="G24" t="n">
-        <v>83.83866666666661</v>
+        <v>-398700.4274607987</v>
       </c>
       <c r="H24" t="n">
-        <v>83.89783333333328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83.5</v>
+        <v>83.03</v>
       </c>
       <c r="C25" t="n">
-        <v>83.5</v>
+        <v>83.03</v>
       </c>
       <c r="D25" t="n">
-        <v>83.5</v>
+        <v>83.03</v>
       </c>
       <c r="E25" t="n">
-        <v>83.5</v>
+        <v>83.03</v>
       </c>
       <c r="F25" t="n">
-        <v>954.0246</v>
+        <v>13550.6619</v>
       </c>
       <c r="G25" t="n">
-        <v>83.83733333333329</v>
+        <v>-398700.4274607987</v>
       </c>
       <c r="H25" t="n">
-        <v>83.88183333333329</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83.2</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>83.2</v>
+        <v>84.89</v>
       </c>
       <c r="D26" t="n">
-        <v>83.2</v>
+        <v>84.89</v>
       </c>
       <c r="E26" t="n">
-        <v>83.2</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>324.9576</v>
+        <v>4748.391</v>
       </c>
       <c r="G26" t="n">
-        <v>83.81733333333328</v>
+        <v>-393952.0364607987</v>
       </c>
       <c r="H26" t="n">
-        <v>83.88166666666662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83.2</v>
+        <v>84.8</v>
       </c>
       <c r="C27" t="n">
-        <v>83.2</v>
+        <v>84.8</v>
       </c>
       <c r="D27" t="n">
-        <v>83.2</v>
+        <v>84.8</v>
       </c>
       <c r="E27" t="n">
-        <v>83.2</v>
+        <v>84.8</v>
       </c>
       <c r="F27" t="n">
-        <v>421.711</v>
+        <v>6.415</v>
       </c>
       <c r="G27" t="n">
-        <v>83.72133333333328</v>
+        <v>-393958.4514607987</v>
       </c>
       <c r="H27" t="n">
-        <v>83.86083333333328</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,44 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83.2</v>
+        <v>84</v>
       </c>
       <c r="C28" t="n">
-        <v>83.12</v>
+        <v>84</v>
       </c>
       <c r="D28" t="n">
-        <v>83.2</v>
+        <v>84</v>
       </c>
       <c r="E28" t="n">
-        <v>83.12</v>
+        <v>84</v>
       </c>
       <c r="F28" t="n">
-        <v>6781.3992</v>
+        <v>3572.6004</v>
       </c>
       <c r="G28" t="n">
-        <v>83.62399999999995</v>
+        <v>-397531.0518607987</v>
       </c>
       <c r="H28" t="n">
-        <v>83.83883333333328</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83.12</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>83.12</v>
+        <v>83.22</v>
       </c>
       <c r="D29" t="n">
-        <v>83.12</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>83.12</v>
+        <v>83.22</v>
       </c>
       <c r="F29" t="n">
-        <v>319.4393</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>83.51533333333327</v>
+        <v>-397567.0518607987</v>
       </c>
       <c r="H29" t="n">
-        <v>83.82799999999995</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,44 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83.05</v>
+        <v>83.98</v>
       </c>
       <c r="C30" t="n">
-        <v>83.05</v>
+        <v>83.98</v>
       </c>
       <c r="D30" t="n">
-        <v>83.05</v>
+        <v>83.98</v>
       </c>
       <c r="E30" t="n">
-        <v>83.05</v>
+        <v>83.98</v>
       </c>
       <c r="F30" t="n">
-        <v>1493</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>83.43199999999995</v>
+        <v>-397517.0518607987</v>
       </c>
       <c r="H30" t="n">
-        <v>83.82533333333328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>83.12</v>
-      </c>
-      <c r="L30" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83.05</v>
+        <v>83.23</v>
       </c>
       <c r="C31" t="n">
-        <v>83.05</v>
+        <v>83.23</v>
       </c>
       <c r="D31" t="n">
-        <v>83.05</v>
+        <v>83.23</v>
       </c>
       <c r="E31" t="n">
-        <v>83.05</v>
+        <v>83.23</v>
       </c>
       <c r="F31" t="n">
-        <v>4479</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>83.39733333333328</v>
+        <v>-397542.0518607987</v>
       </c>
       <c r="H31" t="n">
-        <v>83.82266666666662</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,42 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83.05</v>
+        <v>83.97</v>
       </c>
       <c r="C32" t="n">
-        <v>83.05</v>
+        <v>83.98</v>
       </c>
       <c r="D32" t="n">
-        <v>83.05</v>
+        <v>83.98</v>
       </c>
       <c r="E32" t="n">
-        <v>83.05</v>
+        <v>83.97</v>
       </c>
       <c r="F32" t="n">
-        <v>13242.96</v>
+        <v>5790.8762</v>
       </c>
       <c r="G32" t="n">
-        <v>83.34133333333327</v>
+        <v>-391751.1756607987</v>
       </c>
       <c r="H32" t="n">
-        <v>83.80983333333329</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,42 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83.05</v>
+        <v>83.97</v>
       </c>
       <c r="C33" t="n">
-        <v>82.88</v>
+        <v>83.97</v>
       </c>
       <c r="D33" t="n">
-        <v>83.05</v>
+        <v>83.97</v>
       </c>
       <c r="E33" t="n">
-        <v>82.88</v>
+        <v>83.97</v>
       </c>
       <c r="F33" t="n">
-        <v>22080.8452</v>
+        <v>200</v>
       </c>
       <c r="G33" t="n">
-        <v>83.29533333333328</v>
+        <v>-391951.1756607987</v>
       </c>
       <c r="H33" t="n">
-        <v>83.79416666666663</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,42 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>82.72</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>82.64</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>82.72</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>82.64</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>1165.7231</v>
+        <v>415.0013</v>
       </c>
       <c r="G34" t="n">
-        <v>83.23333333333329</v>
+        <v>-391536.1743607987</v>
       </c>
       <c r="H34" t="n">
-        <v>83.7798333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82.87</v>
+        <v>83.98</v>
       </c>
       <c r="C35" t="n">
-        <v>84.06999999999999</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>84.06999999999999</v>
+        <v>83.98</v>
       </c>
       <c r="E35" t="n">
-        <v>82.87</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>33621.8299</v>
+        <v>36</v>
       </c>
       <c r="G35" t="n">
-        <v>83.26666666666662</v>
+        <v>-391572.1743607987</v>
       </c>
       <c r="H35" t="n">
-        <v>83.7893333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84.06</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>82.64</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>84.06</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>82.64</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>3386.4612</v>
       </c>
       <c r="G36" t="n">
-        <v>83.20666666666664</v>
+        <v>-388185.7131607987</v>
       </c>
       <c r="H36" t="n">
-        <v>83.76966666666664</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,42 +1658,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="C37" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="D37" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="E37" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="F37" t="n">
-        <v>118.9767995240928</v>
+        <v>1493</v>
       </c>
       <c r="G37" t="n">
-        <v>83.24066666666663</v>
+        <v>-389678.7131607987</v>
       </c>
       <c r="H37" t="n">
-        <v>83.77883333333331</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,42 +1697,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84.04000000000001</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>82.75</v>
+        <v>83.52</v>
       </c>
       <c r="D38" t="n">
-        <v>84.04000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="E38" t="n">
-        <v>82.75</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>36</v>
+        <v>2986</v>
       </c>
       <c r="G38" t="n">
-        <v>83.18799999999996</v>
+        <v>-386692.7131607987</v>
       </c>
       <c r="H38" t="n">
-        <v>83.76633333333331</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,42 +1740,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="C39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="D39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="E39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="F39" t="n">
-        <v>118.9909566872918</v>
+        <v>1493</v>
       </c>
       <c r="G39" t="n">
-        <v>83.22399999999996</v>
+        <v>-386692.7131607987</v>
       </c>
       <c r="H39" t="n">
-        <v>83.77533333333331</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M39" t="inlineStr">
+        <v>83.52</v>
+      </c>
+      <c r="K39" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,42 +1783,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.81999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C40" t="n">
-        <v>82.81999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="D40" t="n">
-        <v>82.81999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="E40" t="n">
-        <v>82.81999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F40" t="n">
-        <v>2282.5436</v>
+        <v>6182.2606</v>
       </c>
       <c r="G40" t="n">
-        <v>83.17866666666663</v>
+        <v>-392874.9737607986</v>
       </c>
       <c r="H40" t="n">
-        <v>83.76399999999997</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M40" t="inlineStr">
+        <v>83.52</v>
+      </c>
+      <c r="K40" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,42 +1826,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.03</v>
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>82.59999999999999</v>
+        <v>84.64</v>
       </c>
       <c r="D41" t="n">
-        <v>84.03</v>
+        <v>84.64</v>
       </c>
       <c r="E41" t="n">
-        <v>82.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="F41" t="n">
-        <v>115646.8576</v>
+        <v>237.8356347826087</v>
       </c>
       <c r="G41" t="n">
-        <v>83.13866666666662</v>
+        <v>-392637.138126016</v>
       </c>
       <c r="H41" t="n">
-        <v>83.75233333333331</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M41" t="inlineStr">
+        <v>83.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,42 +1869,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>82.73</v>
+        <v>84.58</v>
       </c>
       <c r="C42" t="n">
-        <v>82.73</v>
+        <v>84.58</v>
       </c>
       <c r="D42" t="n">
-        <v>82.73</v>
+        <v>84.58</v>
       </c>
       <c r="E42" t="n">
-        <v>82.73</v>
+        <v>84.58</v>
       </c>
       <c r="F42" t="n">
-        <v>1494</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>83.10733333333329</v>
+        <v>-392643.138126016</v>
       </c>
       <c r="H42" t="n">
-        <v>83.74283333333329</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,42 +1910,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.04000000000001</v>
+        <v>84.75</v>
       </c>
       <c r="C43" t="n">
-        <v>84.05</v>
+        <v>84.75</v>
       </c>
       <c r="D43" t="n">
-        <v>84.05</v>
+        <v>84.75</v>
       </c>
       <c r="E43" t="n">
-        <v>84.04000000000001</v>
+        <v>84.75</v>
       </c>
       <c r="F43" t="n">
-        <v>23189.1941</v>
+        <v>235.9882005899705</v>
       </c>
       <c r="G43" t="n">
-        <v>83.16933333333327</v>
+        <v>-392407.1499254261</v>
       </c>
       <c r="H43" t="n">
-        <v>83.73999999999997</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,42 +1951,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84.05</v>
+        <v>83.58</v>
       </c>
       <c r="C44" t="n">
-        <v>84.05</v>
+        <v>84.3</v>
       </c>
       <c r="D44" t="n">
-        <v>84.05</v>
+        <v>84.3</v>
       </c>
       <c r="E44" t="n">
-        <v>84.05</v>
+        <v>83.58</v>
       </c>
       <c r="F44" t="n">
-        <v>26000</v>
+        <v>2193</v>
       </c>
       <c r="G44" t="n">
-        <v>83.23133333333325</v>
+        <v>-394600.1499254261</v>
       </c>
       <c r="H44" t="n">
-        <v>83.73716666666662</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,42 +1992,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>84.05</v>
+        <v>83.58</v>
       </c>
       <c r="C45" t="n">
-        <v>84.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>84.05</v>
+        <v>83.58</v>
       </c>
       <c r="E45" t="n">
-        <v>84.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>385.0259</v>
+        <v>63605.2143</v>
       </c>
       <c r="G45" t="n">
-        <v>83.29799999999993</v>
+        <v>-458205.364225426</v>
       </c>
       <c r="H45" t="n">
-        <v>83.73066666666664</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M45" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,42 +2033,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84.37</v>
+        <v>83.89</v>
       </c>
       <c r="C46" t="n">
-        <v>84.37</v>
+        <v>83.89</v>
       </c>
       <c r="D46" t="n">
-        <v>84.37</v>
+        <v>83.89</v>
       </c>
       <c r="E46" t="n">
-        <v>84.37</v>
+        <v>83.89</v>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>3162.8935</v>
       </c>
       <c r="G46" t="n">
-        <v>83.38599999999992</v>
+        <v>-455042.470725426</v>
       </c>
       <c r="H46" t="n">
-        <v>83.72883333333331</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M46" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,42 +2074,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>84.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>84.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>84.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>84.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>425.78</v>
+        <v>2986</v>
       </c>
       <c r="G47" t="n">
-        <v>83.45266666666659</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H47" t="n">
-        <v>83.71299999999998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M47" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,42 +2115,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>594.9548</v>
+        <v>8958</v>
       </c>
       <c r="G48" t="n">
-        <v>83.52999999999993</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H48" t="n">
-        <v>83.69716666666665</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M48" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,42 +2156,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>84.04000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>4008</v>
+        <v>1425.9086</v>
       </c>
       <c r="G49" t="n">
-        <v>83.62333333333325</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H49" t="n">
-        <v>83.68116666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M49" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,42 +2197,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>3917.8359</v>
+        <v>1493</v>
       </c>
       <c r="G50" t="n">
-        <v>83.62133333333325</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H50" t="n">
-        <v>83.66533333333332</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M50" t="inlineStr">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,42 +2238,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>10850.7904</v>
       </c>
       <c r="G51" t="n">
-        <v>83.71466666666657</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H51" t="n">
-        <v>83.64949999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M51" t="inlineStr">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,44 +2279,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>8059.7963</v>
+        <v>1493</v>
       </c>
       <c r="G52" t="n">
-        <v>83.71399999999991</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H52" t="n">
-        <v>83.64966666666666</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="L52" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M52" t="inlineStr">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,44 +2322,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D53" t="n">
-        <v>84.04000000000001</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F53" t="n">
-        <v>1314.9615</v>
+        <v>1585.4435</v>
       </c>
       <c r="G53" t="n">
-        <v>83.79999999999991</v>
+        <v>-461106.914225426</v>
       </c>
       <c r="H53" t="n">
-        <v>83.67299999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="L53" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M53" t="inlineStr">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2730,44 +2363,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="C54" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D54" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="E54" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F54" t="n">
-        <v>1777.7695</v>
+        <v>954.0246</v>
       </c>
       <c r="G54" t="n">
-        <v>83.79999999999991</v>
+        <v>-461106.914225426</v>
       </c>
       <c r="H54" t="n">
-        <v>83.65549999999999</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="L54" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M54" t="inlineStr">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,44 +2404,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>84.05</v>
+        <v>83.2</v>
       </c>
       <c r="C55" t="n">
-        <v>84.05</v>
+        <v>83.2</v>
       </c>
       <c r="D55" t="n">
-        <v>84.05</v>
+        <v>83.2</v>
       </c>
       <c r="E55" t="n">
-        <v>84.05</v>
+        <v>83.2</v>
       </c>
       <c r="F55" t="n">
-        <v>75.59610000000001</v>
+        <v>324.9576</v>
       </c>
       <c r="G55" t="n">
-        <v>83.88199999999991</v>
+        <v>-461431.8718254261</v>
       </c>
       <c r="H55" t="n">
-        <v>83.67249999999999</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="L55" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M55" t="inlineStr">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,44 +2445,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84.38</v>
+        <v>83.2</v>
       </c>
       <c r="C56" t="n">
-        <v>85</v>
+        <v>83.2</v>
       </c>
       <c r="D56" t="n">
-        <v>85</v>
+        <v>83.2</v>
       </c>
       <c r="E56" t="n">
-        <v>84.38</v>
+        <v>83.2</v>
       </c>
       <c r="F56" t="n">
-        <v>45526.7258</v>
+        <v>421.711</v>
       </c>
       <c r="G56" t="n">
-        <v>84.04199999999992</v>
+        <v>-461431.8718254261</v>
       </c>
       <c r="H56" t="n">
-        <v>83.70533333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="L56" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M56" t="inlineStr">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,42 +2486,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>85</v>
+        <v>83.2</v>
       </c>
       <c r="C57" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="D57" t="n">
-        <v>85</v>
+        <v>83.2</v>
       </c>
       <c r="E57" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="F57" t="n">
-        <v>6955.5909</v>
+        <v>6781.3992</v>
       </c>
       <c r="G57" t="n">
-        <v>84.19333333333324</v>
+        <v>-468213.271025426</v>
       </c>
       <c r="H57" t="n">
-        <v>83.70716666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M57" t="inlineStr">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,42 +2527,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="C58" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="D58" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="E58" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="F58" t="n">
-        <v>2440.2029</v>
+        <v>319.4393</v>
       </c>
       <c r="G58" t="n">
-        <v>84.25666666666659</v>
+        <v>-468213.271025426</v>
       </c>
       <c r="H58" t="n">
-        <v>83.71049999999998</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M58" t="inlineStr">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2956,42 +2568,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>85.09</v>
+        <v>83.05</v>
       </c>
       <c r="C59" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="D59" t="n">
-        <v>85.09</v>
+        <v>83.05</v>
       </c>
       <c r="E59" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="F59" t="n">
-        <v>9403.5399</v>
+        <v>1493</v>
       </c>
       <c r="G59" t="n">
-        <v>84.31999999999992</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H59" t="n">
-        <v>83.72716666666665</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M59" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,42 +2609,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="C60" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="D60" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="E60" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="F60" t="n">
-        <v>1669.2134</v>
+        <v>4479</v>
       </c>
       <c r="G60" t="n">
-        <v>84.38333333333325</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H60" t="n">
-        <v>83.75683333333332</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M60" t="inlineStr">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,42 +2650,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>85.90000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="C61" t="n">
-        <v>85.90000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="D61" t="n">
-        <v>85.90000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="E61" t="n">
-        <v>85.90000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>13242.96</v>
       </c>
       <c r="G61" t="n">
-        <v>84.48533333333326</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H61" t="n">
-        <v>83.78883333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M61" t="inlineStr">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,42 +2691,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="C62" t="n">
-        <v>85</v>
+        <v>82.88</v>
       </c>
       <c r="D62" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="E62" t="n">
-        <v>85</v>
+        <v>82.88</v>
       </c>
       <c r="F62" t="n">
-        <v>62.8928</v>
+        <v>22080.8452</v>
       </c>
       <c r="G62" t="n">
-        <v>84.54866666666659</v>
+        <v>-491787.116225426</v>
       </c>
       <c r="H62" t="n">
-        <v>83.81833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M62" t="inlineStr">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3132,42 +2732,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>85</v>
+        <v>82.72</v>
       </c>
       <c r="C63" t="n">
-        <v>84.20999999999999</v>
+        <v>82.64</v>
       </c>
       <c r="D63" t="n">
-        <v>86.68000000000001</v>
+        <v>82.72</v>
       </c>
       <c r="E63" t="n">
-        <v>84.2</v>
+        <v>82.64</v>
       </c>
       <c r="F63" t="n">
-        <v>47985.8381</v>
+        <v>1165.7231</v>
       </c>
       <c r="G63" t="n">
-        <v>84.55999999999993</v>
+        <v>-492952.839325426</v>
       </c>
       <c r="H63" t="n">
-        <v>83.82216666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M63" t="inlineStr">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,42 +2773,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>86.39</v>
+        <v>82.87</v>
       </c>
       <c r="C64" t="n">
-        <v>86.78</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>86.78</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>84.20999999999999</v>
+        <v>82.87</v>
       </c>
       <c r="F64" t="n">
-        <v>6560.6954</v>
+        <v>33621.8299</v>
       </c>
       <c r="G64" t="n">
-        <v>84.74266666666659</v>
+        <v>-459331.009425426</v>
       </c>
       <c r="H64" t="n">
-        <v>83.86899999999999</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M64" t="inlineStr">
+        <v>82.64</v>
+      </c>
+      <c r="K64" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,42 +2816,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>86.39</v>
+        <v>84.06</v>
       </c>
       <c r="C65" t="n">
-        <v>86.78</v>
+        <v>82.64</v>
       </c>
       <c r="D65" t="n">
-        <v>87.48</v>
+        <v>84.06</v>
       </c>
       <c r="E65" t="n">
-        <v>84.26000000000001</v>
+        <v>82.64</v>
       </c>
       <c r="F65" t="n">
-        <v>12960.7919</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>84.92533333333327</v>
+        <v>-459351.009425426</v>
       </c>
       <c r="H65" t="n">
-        <v>83.91549999999999</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M65" t="inlineStr">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,42 +2857,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>86.78</v>
+        <v>84.05</v>
       </c>
       <c r="C66" t="n">
-        <v>87.38</v>
+        <v>84.05</v>
       </c>
       <c r="D66" t="n">
-        <v>87.38</v>
+        <v>84.05</v>
       </c>
       <c r="E66" t="n">
-        <v>84.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F66" t="n">
-        <v>50495.321</v>
+        <v>118.9767995240928</v>
       </c>
       <c r="G66" t="n">
-        <v>85.14799999999993</v>
+        <v>-459232.0326259019</v>
       </c>
       <c r="H66" t="n">
-        <v>83.98416666666665</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M66" t="inlineStr">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,42 +2898,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>87.3</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>87.19</v>
+        <v>82.75</v>
       </c>
       <c r="D67" t="n">
-        <v>87.3</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>87.19</v>
+        <v>82.75</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G67" t="n">
-        <v>85.35799999999993</v>
+        <v>-459268.0326259019</v>
       </c>
       <c r="H67" t="n">
-        <v>84.03749999999998</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M67" t="inlineStr">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,42 +2939,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>86.75</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>86.75</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>86.75</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>86.75</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>118.9909566872918</v>
       </c>
       <c r="G68" t="n">
-        <v>85.5386666666666</v>
+        <v>-459149.0416692146</v>
       </c>
       <c r="H68" t="n">
-        <v>84.09166666666665</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M68" t="inlineStr">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,42 +2980,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>86.75</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>86.75</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>86.75</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>86.75</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>6</v>
+        <v>2282.5436</v>
       </c>
       <c r="G69" t="n">
-        <v>85.71933333333327</v>
+        <v>-461431.5852692146</v>
       </c>
       <c r="H69" t="n">
-        <v>84.14549999999998</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,42 +3021,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>86.75</v>
+        <v>84.03</v>
       </c>
       <c r="C70" t="n">
-        <v>86.75</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>86.75</v>
+        <v>84.03</v>
       </c>
       <c r="E70" t="n">
-        <v>86.75</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>7766.4107</v>
+        <v>115646.8576</v>
       </c>
       <c r="G70" t="n">
-        <v>85.89933333333327</v>
+        <v>-577078.4428692146</v>
       </c>
       <c r="H70" t="n">
-        <v>84.1993333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M70" t="inlineStr">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,42 +3062,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>86.65000000000001</v>
+        <v>82.73</v>
       </c>
       <c r="C71" t="n">
-        <v>86.65000000000001</v>
+        <v>82.73</v>
       </c>
       <c r="D71" t="n">
-        <v>86.65000000000001</v>
+        <v>82.73</v>
       </c>
       <c r="E71" t="n">
-        <v>86.65000000000001</v>
+        <v>82.73</v>
       </c>
       <c r="F71" t="n">
-        <v>15.789</v>
+        <v>1494</v>
       </c>
       <c r="G71" t="n">
-        <v>86.00933333333327</v>
+        <v>-575584.4428692146</v>
       </c>
       <c r="H71" t="n">
-        <v>84.25183333333329</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M71" t="inlineStr">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,42 +3103,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>86.64</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>86.76000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="D72" t="n">
-        <v>86.76000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="E72" t="n">
-        <v>86.64</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>48.677</v>
+        <v>23189.1941</v>
       </c>
       <c r="G72" t="n">
-        <v>86.12666666666661</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H72" t="n">
-        <v>84.28716666666664</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M72" t="inlineStr">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,42 +3144,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>86.76000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="C73" t="n">
-        <v>86.8</v>
+        <v>84.05</v>
       </c>
       <c r="D73" t="n">
-        <v>86.8</v>
+        <v>84.05</v>
       </c>
       <c r="E73" t="n">
-        <v>86.76000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F73" t="n">
-        <v>55387.3084</v>
+        <v>26000</v>
       </c>
       <c r="G73" t="n">
-        <v>86.24666666666661</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H73" t="n">
-        <v>84.32416666666663</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M73" t="inlineStr">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,42 +3185,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>86.8</v>
+        <v>84.05</v>
       </c>
       <c r="C74" t="n">
-        <v>85.73</v>
+        <v>84.05</v>
       </c>
       <c r="D74" t="n">
-        <v>86.8</v>
+        <v>84.05</v>
       </c>
       <c r="E74" t="n">
-        <v>85.73</v>
+        <v>84.05</v>
       </c>
       <c r="F74" t="n">
-        <v>1555.1935</v>
+        <v>385.0259</v>
       </c>
       <c r="G74" t="n">
-        <v>86.29533333333328</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H74" t="n">
-        <v>84.34049999999996</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M74" t="inlineStr">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,42 +3226,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87.29000000000001</v>
+        <v>84.37</v>
       </c>
       <c r="C75" t="n">
-        <v>86.09999999999999</v>
+        <v>84.37</v>
       </c>
       <c r="D75" t="n">
-        <v>87.29000000000001</v>
+        <v>84.37</v>
       </c>
       <c r="E75" t="n">
-        <v>86.09999999999999</v>
+        <v>84.37</v>
       </c>
       <c r="F75" t="n">
-        <v>189.8829</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="n">
-        <v>86.3686666666666</v>
+        <v>-550895.2487692146</v>
       </c>
       <c r="H75" t="n">
-        <v>84.37049999999996</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,42 +3267,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="C76" t="n">
-        <v>87.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="D76" t="n">
-        <v>87.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="E76" t="n">
-        <v>87.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F76" t="n">
-        <v>14.9743</v>
+        <v>425.78</v>
       </c>
       <c r="G76" t="n">
-        <v>86.46133333333326</v>
+        <v>-551321.0287692146</v>
       </c>
       <c r="H76" t="n">
-        <v>84.43249999999996</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,43 +3308,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>85.27</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>85.27</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>85.27</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>85.27</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>594.9548</v>
       </c>
       <c r="G77" t="n">
-        <v>86.47933333333326</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H77" t="n">
-        <v>84.45549999999997</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>1.010360800190522</v>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3792,36 +3349,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>85.27</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>87.2</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>87.2</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>85.27</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1270.2613</v>
+        <v>4008</v>
       </c>
       <c r="G78" t="n">
-        <v>86.6786666666666</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H78" t="n">
-        <v>84.51599999999998</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,36 +3390,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>87</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>87</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>87</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>2167.5956</v>
+        <v>3917.8359</v>
       </c>
       <c r="G79" t="n">
-        <v>86.69333333333326</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H79" t="n">
-        <v>84.57316666666664</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,36 +3431,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>85.66</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>84.03</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>85.66</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>84.03</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>168246.9495</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>86.50999999999993</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H80" t="n">
-        <v>84.5808333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,36 +3472,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>85.81999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>85.83</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>85.83</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>85.81999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>2986</v>
+        <v>8059.7963</v>
       </c>
       <c r="G81" t="n">
-        <v>86.4066666666666</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H81" t="n">
-        <v>84.61899999999997</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,36 +3513,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>85.83</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>85.76000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>85.83</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>85.76000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>16205.9388</v>
+        <v>1314.9615</v>
       </c>
       <c r="G82" t="n">
-        <v>86.31133333333327</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H82" t="n">
-        <v>84.65599999999998</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,36 +3554,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>85.76000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>85.76000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>85.76000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>85.76000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>1777.7695</v>
       </c>
       <c r="G83" t="n">
-        <v>86.24533333333326</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H83" t="n">
-        <v>84.69299999999998</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,36 +3595,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>85</v>
+        <v>84.05</v>
       </c>
       <c r="C84" t="n">
-        <v>85.53</v>
+        <v>84.05</v>
       </c>
       <c r="D84" t="n">
-        <v>85.53</v>
+        <v>84.05</v>
       </c>
       <c r="E84" t="n">
-        <v>85</v>
+        <v>84.05</v>
       </c>
       <c r="F84" t="n">
-        <v>7446.613</v>
+        <v>75.59610000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>86.16399999999993</v>
+        <v>-551840.3874692146</v>
       </c>
       <c r="H84" t="n">
-        <v>84.72683333333332</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,36 +3636,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85.68000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="C85" t="n">
-        <v>85.53</v>
+        <v>85</v>
       </c>
       <c r="D85" t="n">
-        <v>85.68000000000001</v>
+        <v>85</v>
       </c>
       <c r="E85" t="n">
-        <v>85.53</v>
+        <v>84.38</v>
       </c>
       <c r="F85" t="n">
-        <v>4883.9061</v>
+        <v>45526.7258</v>
       </c>
       <c r="G85" t="n">
-        <v>86.0826666666666</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H85" t="n">
-        <v>84.76066666666664</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,36 +3677,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>85.11</v>
+        <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>85.84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>85.84</v>
+        <v>85</v>
       </c>
       <c r="E86" t="n">
-        <v>85.11</v>
+        <v>85</v>
       </c>
       <c r="F86" t="n">
-        <v>14071.3647</v>
+        <v>6955.5909</v>
       </c>
       <c r="G86" t="n">
-        <v>86.02866666666658</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H86" t="n">
-        <v>84.80466666666665</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,36 +3718,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85.78</v>
+        <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" t="n">
-        <v>85.78</v>
+        <v>85</v>
       </c>
       <c r="F87" t="n">
-        <v>20902.4258</v>
+        <v>2440.2029</v>
       </c>
       <c r="G87" t="n">
-        <v>85.97799999999991</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H87" t="n">
-        <v>84.85133333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,36 +3759,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>86</v>
+        <v>85.09</v>
       </c>
       <c r="C88" t="n">
-        <v>86.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="D88" t="n">
-        <v>86.18000000000001</v>
+        <v>85.09</v>
       </c>
       <c r="E88" t="n">
-        <v>85.98999999999999</v>
+        <v>85</v>
       </c>
       <c r="F88" t="n">
-        <v>4824.9177</v>
+        <v>9403.5399</v>
       </c>
       <c r="G88" t="n">
-        <v>85.93666666666658</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H88" t="n">
-        <v>84.90233333333332</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,36 +3800,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>86.45</v>
+        <v>85</v>
       </c>
       <c r="C89" t="n">
-        <v>86.44</v>
+        <v>85</v>
       </c>
       <c r="D89" t="n">
-        <v>86.56</v>
+        <v>85</v>
       </c>
       <c r="E89" t="n">
-        <v>86.44</v>
+        <v>85</v>
       </c>
       <c r="F89" t="n">
-        <v>11469.2305</v>
+        <v>1669.2134</v>
       </c>
       <c r="G89" t="n">
-        <v>85.98399999999992</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H89" t="n">
-        <v>84.95766666666665</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,36 +3841,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>86.44</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>86.44</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>86.44</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>86.44</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>1428.6336</v>
+        <v>8</v>
       </c>
       <c r="G90" t="n">
-        <v>86.0066666666666</v>
+        <v>-506305.6616692146</v>
       </c>
       <c r="H90" t="n">
-        <v>85.01416666666664</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,36 +3882,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>86.34999999999999</v>
+        <v>85</v>
       </c>
       <c r="C91" t="n">
-        <v>86.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="D91" t="n">
-        <v>86.39</v>
+        <v>85</v>
       </c>
       <c r="E91" t="n">
-        <v>86.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="F91" t="n">
-        <v>5071.0864</v>
+        <v>62.8928</v>
       </c>
       <c r="G91" t="n">
-        <v>85.93266666666661</v>
+        <v>-506368.5544692146</v>
       </c>
       <c r="H91" t="n">
-        <v>85.0663333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,36 +3923,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86.23</v>
+        <v>85</v>
       </c>
       <c r="C92" t="n">
-        <v>86.23</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>86.23</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>86.23</v>
+        <v>84.2</v>
       </c>
       <c r="F92" t="n">
-        <v>3400</v>
+        <v>47985.8381</v>
       </c>
       <c r="G92" t="n">
-        <v>85.99666666666661</v>
+        <v>-554354.3925692146</v>
       </c>
       <c r="H92" t="n">
-        <v>85.1193333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,36 +3964,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86.23</v>
+        <v>86.39</v>
       </c>
       <c r="C93" t="n">
-        <v>86.23</v>
+        <v>86.78</v>
       </c>
       <c r="D93" t="n">
-        <v>86.23</v>
+        <v>86.78</v>
       </c>
       <c r="E93" t="n">
-        <v>86.23</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>2244.2176</v>
+        <v>6560.6954</v>
       </c>
       <c r="G93" t="n">
-        <v>85.93199999999995</v>
+        <v>-547793.6971692146</v>
       </c>
       <c r="H93" t="n">
-        <v>85.17516666666663</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,36 +4005,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86.22</v>
+        <v>86.39</v>
       </c>
       <c r="C94" t="n">
-        <v>86.2</v>
+        <v>86.78</v>
       </c>
       <c r="D94" t="n">
-        <v>86.22</v>
+        <v>87.48</v>
       </c>
       <c r="E94" t="n">
-        <v>86.2</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>12960.7919</v>
       </c>
       <c r="G94" t="n">
-        <v>85.8786666666666</v>
+        <v>-547793.6971692146</v>
       </c>
       <c r="H94" t="n">
-        <v>85.23449999999995</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,36 +4046,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>86</v>
+        <v>86.78</v>
       </c>
       <c r="C95" t="n">
-        <v>86</v>
+        <v>87.38</v>
       </c>
       <c r="D95" t="n">
-        <v>86</v>
+        <v>87.38</v>
       </c>
       <c r="E95" t="n">
-        <v>86</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1400</v>
+        <v>50495.321</v>
       </c>
       <c r="G95" t="n">
-        <v>86.00999999999995</v>
+        <v>-497298.3761692146</v>
       </c>
       <c r="H95" t="n">
-        <v>85.26666666666662</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,36 +4087,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86</v>
+        <v>87.3</v>
       </c>
       <c r="C96" t="n">
-        <v>85.98999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="D96" t="n">
-        <v>86</v>
+        <v>87.3</v>
       </c>
       <c r="E96" t="n">
-        <v>85.98999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="F96" t="n">
-        <v>43.3061</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>86.02066666666661</v>
+        <v>-497318.3761692146</v>
       </c>
       <c r="H96" t="n">
-        <v>85.32249999999995</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,36 +4128,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>85.98999999999999</v>
+        <v>86.75</v>
       </c>
       <c r="C97" t="n">
-        <v>86.16</v>
+        <v>86.75</v>
       </c>
       <c r="D97" t="n">
-        <v>86.16</v>
+        <v>86.75</v>
       </c>
       <c r="E97" t="n">
-        <v>85.98999999999999</v>
+        <v>86.75</v>
       </c>
       <c r="F97" t="n">
-        <v>20000</v>
+        <v>8</v>
       </c>
       <c r="G97" t="n">
-        <v>86.04733333333328</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H97" t="n">
-        <v>85.3576666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,36 +4169,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="C98" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="D98" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="E98" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="F98" t="n">
-        <v>766.0612</v>
+        <v>6</v>
       </c>
       <c r="G98" t="n">
-        <v>86.07466666666663</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H98" t="n">
-        <v>85.41466666666661</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4590,36 +4210,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="C99" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="D99" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="E99" t="n">
-        <v>86.17</v>
+        <v>86.75</v>
       </c>
       <c r="F99" t="n">
-        <v>1436.3764</v>
+        <v>7766.4107</v>
       </c>
       <c r="G99" t="n">
-        <v>86.11733333333331</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H99" t="n">
-        <v>85.4501666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,36 +4251,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>86.17</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>86.17</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>86.17</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>86.17</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>861.8422</v>
+        <v>15.789</v>
       </c>
       <c r="G100" t="n">
-        <v>86.15999999999998</v>
+        <v>-497342.1651692146</v>
       </c>
       <c r="H100" t="n">
-        <v>85.50599999999994</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,36 +4292,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>85.61</v>
+        <v>86.64</v>
       </c>
       <c r="C101" t="n">
-        <v>85.61</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>86.39</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>85.51000000000001</v>
+        <v>86.64</v>
       </c>
       <c r="F101" t="n">
-        <v>53652.3736</v>
+        <v>48.677</v>
       </c>
       <c r="G101" t="n">
-        <v>86.14466666666664</v>
+        <v>-497293.4881692146</v>
       </c>
       <c r="H101" t="n">
-        <v>85.5561666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,36 +4333,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>86.38</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>86.38</v>
+        <v>86.8</v>
       </c>
       <c r="D102" t="n">
-        <v>86.38</v>
+        <v>86.8</v>
       </c>
       <c r="E102" t="n">
-        <v>86.38</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>6527</v>
+        <v>55387.3084</v>
       </c>
       <c r="G102" t="n">
-        <v>86.16999999999999</v>
+        <v>-441906.1797692146</v>
       </c>
       <c r="H102" t="n">
-        <v>85.61699999999995</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,36 +4374,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>86.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="C103" t="n">
-        <v>85.91</v>
+        <v>85.73</v>
       </c>
       <c r="D103" t="n">
-        <v>86.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="E103" t="n">
-        <v>85.91</v>
+        <v>85.73</v>
       </c>
       <c r="F103" t="n">
-        <v>11785.279</v>
+        <v>1555.1935</v>
       </c>
       <c r="G103" t="n">
-        <v>86.15199999999999</v>
+        <v>-443461.3732692146</v>
       </c>
       <c r="H103" t="n">
-        <v>85.64799999999994</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,36 +4415,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>85.84999999999999</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>85.84999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>85.84999999999999</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>85.84999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>2248.1654</v>
+        <v>189.8829</v>
       </c>
       <c r="G104" t="n">
-        <v>86.11266666666664</v>
+        <v>-443271.4903692146</v>
       </c>
       <c r="H104" t="n">
-        <v>85.67799999999994</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,36 +4456,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>85.75</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>85.75</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>85.75</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>85.75</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>105.5622</v>
+        <v>14.9743</v>
       </c>
       <c r="G105" t="n">
-        <v>86.06666666666663</v>
+        <v>-443256.5160692146</v>
       </c>
       <c r="H105" t="n">
-        <v>85.70633333333328</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,37 +4497,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>85.75</v>
+        <v>85.27</v>
       </c>
       <c r="C106" t="n">
-        <v>85.75</v>
+        <v>85.27</v>
       </c>
       <c r="D106" t="n">
-        <v>85.75</v>
+        <v>85.27</v>
       </c>
       <c r="E106" t="n">
-        <v>85.75</v>
+        <v>85.27</v>
       </c>
       <c r="F106" t="n">
-        <v>8754</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>86.03799999999997</v>
+        <v>-443266.5160692146</v>
       </c>
       <c r="H106" t="n">
-        <v>85.72933333333327</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1.010239909513037</v>
       </c>
     </row>
     <row r="107">
@@ -4894,36 +4538,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>85.75</v>
+        <v>85.27</v>
       </c>
       <c r="C107" t="n">
-        <v>85.62</v>
+        <v>87.2</v>
       </c>
       <c r="D107" t="n">
-        <v>85.75</v>
+        <v>87.2</v>
       </c>
       <c r="E107" t="n">
-        <v>85.62</v>
+        <v>85.27</v>
       </c>
       <c r="F107" t="n">
-        <v>2874.4367</v>
+        <v>1270.2613</v>
       </c>
       <c r="G107" t="n">
-        <v>85.9973333333333</v>
+        <v>-441996.2547692145</v>
       </c>
       <c r="H107" t="n">
-        <v>85.75549999999994</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,36 +4573,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>85.62</v>
+        <v>87</v>
       </c>
       <c r="C108" t="n">
-        <v>85.62</v>
+        <v>87</v>
       </c>
       <c r="D108" t="n">
-        <v>85.62</v>
+        <v>87</v>
       </c>
       <c r="E108" t="n">
-        <v>85.62</v>
+        <v>87</v>
       </c>
       <c r="F108" t="n">
-        <v>1107.6401</v>
+        <v>2167.5956</v>
       </c>
       <c r="G108" t="n">
-        <v>85.95666666666664</v>
+        <v>-444163.8503692145</v>
       </c>
       <c r="H108" t="n">
-        <v>85.78183333333327</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,36 +4608,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>85.62</v>
+        <v>85.66</v>
       </c>
       <c r="C109" t="n">
-        <v>85.62</v>
+        <v>84.03</v>
       </c>
       <c r="D109" t="n">
-        <v>85.62</v>
+        <v>85.66</v>
       </c>
       <c r="E109" t="n">
-        <v>85.62</v>
+        <v>84.03</v>
       </c>
       <c r="F109" t="n">
-        <v>9.3599</v>
+        <v>168246.9495</v>
       </c>
       <c r="G109" t="n">
-        <v>85.91799999999995</v>
+        <v>-612410.7998692145</v>
       </c>
       <c r="H109" t="n">
-        <v>85.80816666666661</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,36 +4643,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>85.72</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>85.72</v>
+        <v>85.83</v>
       </c>
       <c r="D110" t="n">
-        <v>85.72</v>
+        <v>85.83</v>
       </c>
       <c r="E110" t="n">
-        <v>85.72</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>497.6193</v>
+        <v>2986</v>
       </c>
       <c r="G110" t="n">
-        <v>85.89933333333329</v>
+        <v>-609424.7998692145</v>
       </c>
       <c r="H110" t="n">
-        <v>85.83616666666661</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,36 +4678,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>85.72</v>
+        <v>85.83</v>
       </c>
       <c r="C111" t="n">
-        <v>85.72</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>85.72</v>
+        <v>85.83</v>
       </c>
       <c r="E111" t="n">
-        <v>85.72</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>619</v>
+        <v>16205.9388</v>
       </c>
       <c r="G111" t="n">
-        <v>85.88133333333329</v>
+        <v>-625630.7386692145</v>
       </c>
       <c r="H111" t="n">
-        <v>85.86416666666661</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,36 +4713,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>85.72</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>85.72</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>85.72</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>85.72</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>558</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>85.85199999999995</v>
+        <v>-625630.7386692145</v>
       </c>
       <c r="H112" t="n">
-        <v>85.89216666666661</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,36 +4748,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85.72</v>
+        <v>85</v>
       </c>
       <c r="C113" t="n">
-        <v>85.72</v>
+        <v>85.53</v>
       </c>
       <c r="D113" t="n">
-        <v>85.72</v>
+        <v>85.53</v>
       </c>
       <c r="E113" t="n">
-        <v>85.72</v>
+        <v>85</v>
       </c>
       <c r="F113" t="n">
-        <v>558</v>
+        <v>7446.613</v>
       </c>
       <c r="G113" t="n">
-        <v>85.82199999999995</v>
+        <v>-633077.3516692145</v>
       </c>
       <c r="H113" t="n">
-        <v>85.92016666666662</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,36 +4783,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>85.62</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>85.62</v>
+        <v>85.53</v>
       </c>
       <c r="D114" t="n">
-        <v>85.62</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>85.62</v>
+        <v>85.53</v>
       </c>
       <c r="F114" t="n">
-        <v>1252.5294</v>
+        <v>4883.9061</v>
       </c>
       <c r="G114" t="n">
-        <v>85.78533333333328</v>
+        <v>-633077.3516692145</v>
       </c>
       <c r="H114" t="n">
-        <v>85.94649999999996</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,36 +4818,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>85.52</v>
+        <v>85.11</v>
       </c>
       <c r="C115" t="n">
-        <v>84.62</v>
+        <v>85.84</v>
       </c>
       <c r="D115" t="n">
-        <v>85.52</v>
+        <v>85.84</v>
       </c>
       <c r="E115" t="n">
-        <v>84.62</v>
+        <v>85.11</v>
       </c>
       <c r="F115" t="n">
-        <v>1533.9901</v>
+        <v>14071.3647</v>
       </c>
       <c r="G115" t="n">
-        <v>85.68199999999995</v>
+        <v>-619005.9869692145</v>
       </c>
       <c r="H115" t="n">
-        <v>85.95599999999995</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,36 +4853,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>84.38</v>
+        <v>85.78</v>
       </c>
       <c r="C116" t="n">
-        <v>84.38</v>
+        <v>86</v>
       </c>
       <c r="D116" t="n">
-        <v>84.38</v>
+        <v>86</v>
       </c>
       <c r="E116" t="n">
-        <v>84.38</v>
+        <v>85.78</v>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>20902.4258</v>
       </c>
       <c r="G116" t="n">
-        <v>85.59999999999995</v>
+        <v>-598103.5611692145</v>
       </c>
       <c r="H116" t="n">
-        <v>85.94566666666661</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,36 +4888,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="C117" t="n">
-        <v>86.40000000000001</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>86.40000000000001</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>86.40000000000001</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>4824.9177</v>
       </c>
       <c r="G117" t="n">
-        <v>85.6013333333333</v>
+        <v>-593278.6434692146</v>
       </c>
       <c r="H117" t="n">
-        <v>85.96899999999995</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,36 +4923,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>86.40000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="C118" t="n">
-        <v>86.40000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="D118" t="n">
-        <v>86.40000000000001</v>
+        <v>86.56</v>
       </c>
       <c r="E118" t="n">
-        <v>86.40000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="F118" t="n">
-        <v>3903.7535</v>
+        <v>11469.2305</v>
       </c>
       <c r="G118" t="n">
-        <v>85.63399999999997</v>
+        <v>-581809.4129692146</v>
       </c>
       <c r="H118" t="n">
-        <v>85.99233333333328</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5350,36 +4958,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>86.39</v>
+        <v>86.44</v>
       </c>
       <c r="C119" t="n">
-        <v>85.16</v>
+        <v>86.44</v>
       </c>
       <c r="D119" t="n">
-        <v>86.39</v>
+        <v>86.44</v>
       </c>
       <c r="E119" t="n">
-        <v>85.16</v>
+        <v>86.44</v>
       </c>
       <c r="F119" t="n">
-        <v>13184</v>
+        <v>1428.6336</v>
       </c>
       <c r="G119" t="n">
-        <v>85.58799999999998</v>
+        <v>-581809.4129692146</v>
       </c>
       <c r="H119" t="n">
-        <v>85.99499999999993</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,36 +4993,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>85.63</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>85.62</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>85.63</v>
+        <v>86.39</v>
       </c>
       <c r="E120" t="n">
-        <v>85.62</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>2167.5956</v>
+        <v>5071.0864</v>
       </c>
       <c r="G120" t="n">
-        <v>85.57933333333331</v>
+        <v>-586880.4993692146</v>
       </c>
       <c r="H120" t="n">
-        <v>86.00533333333327</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5426,36 +5028,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>85.59999999999999</v>
+        <v>86.23</v>
       </c>
       <c r="C121" t="n">
-        <v>85.39</v>
+        <v>86.23</v>
       </c>
       <c r="D121" t="n">
-        <v>85.59999999999999</v>
+        <v>86.23</v>
       </c>
       <c r="E121" t="n">
-        <v>85.39</v>
+        <v>86.23</v>
       </c>
       <c r="F121" t="n">
-        <v>5093.8586</v>
+        <v>3400</v>
       </c>
       <c r="G121" t="n">
-        <v>85.55533333333331</v>
+        <v>-583480.4993692146</v>
       </c>
       <c r="H121" t="n">
-        <v>85.99683333333329</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,36 +5063,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>85.48</v>
+        <v>86.23</v>
       </c>
       <c r="C122" t="n">
-        <v>85.48</v>
+        <v>86.23</v>
       </c>
       <c r="D122" t="n">
-        <v>85.48</v>
+        <v>86.23</v>
       </c>
       <c r="E122" t="n">
-        <v>85.48</v>
+        <v>86.23</v>
       </c>
       <c r="F122" t="n">
-        <v>570</v>
+        <v>2244.2176</v>
       </c>
       <c r="G122" t="n">
-        <v>85.54599999999998</v>
+        <v>-583480.4993692146</v>
       </c>
       <c r="H122" t="n">
-        <v>86.00483333333327</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5502,36 +5098,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>86.34</v>
+        <v>86.22</v>
       </c>
       <c r="C123" t="n">
-        <v>86.34</v>
+        <v>86.2</v>
       </c>
       <c r="D123" t="n">
-        <v>86.34</v>
+        <v>86.22</v>
       </c>
       <c r="E123" t="n">
-        <v>86.34</v>
+        <v>86.2</v>
       </c>
       <c r="F123" t="n">
-        <v>81.07482047718322</v>
+        <v>40</v>
       </c>
       <c r="G123" t="n">
-        <v>85.59399999999997</v>
+        <v>-583520.4993692146</v>
       </c>
       <c r="H123" t="n">
-        <v>86.04033333333328</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,36 +5133,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>85.61</v>
+        <v>86</v>
       </c>
       <c r="C124" t="n">
-        <v>85.17</v>
+        <v>86</v>
       </c>
       <c r="D124" t="n">
-        <v>85.61</v>
+        <v>86</v>
       </c>
       <c r="E124" t="n">
-        <v>85.17</v>
+        <v>86</v>
       </c>
       <c r="F124" t="n">
-        <v>50589.4092</v>
+        <v>1400</v>
       </c>
       <c r="G124" t="n">
-        <v>85.56399999999998</v>
+        <v>-584920.4993692146</v>
       </c>
       <c r="H124" t="n">
-        <v>86.01349999999995</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,36 +5168,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>85.95999999999999</v>
+        <v>86</v>
       </c>
       <c r="C125" t="n">
-        <v>85.97</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>85.97</v>
+        <v>86</v>
       </c>
       <c r="E125" t="n">
-        <v>85.95999999999999</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>43.3061</v>
       </c>
       <c r="G125" t="n">
-        <v>85.58066666666664</v>
+        <v>-584963.8054692147</v>
       </c>
       <c r="H125" t="n">
-        <v>85.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,36 +5203,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>86.29000000000001</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>86.29000000000001</v>
+        <v>86.16</v>
       </c>
       <c r="D126" t="n">
-        <v>86.29000000000001</v>
+        <v>86.16</v>
       </c>
       <c r="E126" t="n">
-        <v>86.29000000000001</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>7455.4851</v>
+        <v>20000</v>
       </c>
       <c r="G126" t="n">
-        <v>85.61866666666664</v>
+        <v>-564963.8054692147</v>
       </c>
       <c r="H126" t="n">
-        <v>85.98183333333328</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5654,36 +5238,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>85.27</v>
+        <v>86.17</v>
       </c>
       <c r="C127" t="n">
-        <v>85.27</v>
+        <v>86.17</v>
       </c>
       <c r="D127" t="n">
-        <v>85.27</v>
+        <v>86.17</v>
       </c>
       <c r="E127" t="n">
-        <v>85.27</v>
+        <v>86.17</v>
       </c>
       <c r="F127" t="n">
-        <v>6081.3766</v>
+        <v>766.0612</v>
       </c>
       <c r="G127" t="n">
-        <v>85.58866666666663</v>
+        <v>-564197.7442692147</v>
       </c>
       <c r="H127" t="n">
-        <v>85.9498333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,36 +5273,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>86</v>
+        <v>86.17</v>
       </c>
       <c r="C128" t="n">
-        <v>86</v>
+        <v>86.17</v>
       </c>
       <c r="D128" t="n">
-        <v>86</v>
+        <v>86.17</v>
       </c>
       <c r="E128" t="n">
-        <v>86</v>
+        <v>86.17</v>
       </c>
       <c r="F128" t="n">
-        <v>10000</v>
+        <v>1436.3764</v>
       </c>
       <c r="G128" t="n">
-        <v>85.6073333333333</v>
+        <v>-564197.7442692147</v>
       </c>
       <c r="H128" t="n">
-        <v>85.9373333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,36 +5308,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>85.3</v>
+        <v>86.17</v>
       </c>
       <c r="C129" t="n">
-        <v>85.3</v>
+        <v>86.17</v>
       </c>
       <c r="D129" t="n">
-        <v>85.3</v>
+        <v>86.17</v>
       </c>
       <c r="E129" t="n">
-        <v>85.3</v>
+        <v>86.17</v>
       </c>
       <c r="F129" t="n">
-        <v>7455.4851</v>
+        <v>861.8422</v>
       </c>
       <c r="G129" t="n">
-        <v>85.58599999999997</v>
+        <v>-564197.7442692147</v>
       </c>
       <c r="H129" t="n">
-        <v>85.91316666666664</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,36 +5343,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>85.3</v>
+        <v>85.61</v>
       </c>
       <c r="C130" t="n">
-        <v>85.3</v>
+        <v>85.61</v>
       </c>
       <c r="D130" t="n">
-        <v>85.3</v>
+        <v>86.39</v>
       </c>
       <c r="E130" t="n">
-        <v>85.3</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>1600</v>
+        <v>53652.3736</v>
       </c>
       <c r="G130" t="n">
-        <v>85.63133333333329</v>
+        <v>-617850.1178692147</v>
       </c>
       <c r="H130" t="n">
-        <v>85.88899999999997</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,36 +5378,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>85.3</v>
+        <v>86.38</v>
       </c>
       <c r="C131" t="n">
-        <v>85</v>
+        <v>86.38</v>
       </c>
       <c r="D131" t="n">
-        <v>85.3</v>
+        <v>86.38</v>
       </c>
       <c r="E131" t="n">
-        <v>85</v>
+        <v>86.38</v>
       </c>
       <c r="F131" t="n">
-        <v>26086.0757</v>
+        <v>6527</v>
       </c>
       <c r="G131" t="n">
-        <v>85.67266666666661</v>
+        <v>-611323.1178692147</v>
       </c>
       <c r="H131" t="n">
-        <v>85.86149999999998</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,36 +5413,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>86</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>86</v>
+        <v>85.91</v>
       </c>
       <c r="D132" t="n">
-        <v>86</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>86</v>
+        <v>85.91</v>
       </c>
       <c r="F132" t="n">
-        <v>1971</v>
+        <v>11785.279</v>
       </c>
       <c r="G132" t="n">
-        <v>85.64599999999994</v>
+        <v>-623108.3968692147</v>
       </c>
       <c r="H132" t="n">
-        <v>85.8488333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5882,36 +5448,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>86</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>86.12</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>86.12</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>86</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>7026.1832</v>
+        <v>2248.1654</v>
       </c>
       <c r="G133" t="n">
-        <v>85.62733333333327</v>
+        <v>-625356.5622692148</v>
       </c>
       <c r="H133" t="n">
-        <v>85.83749999999996</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5920,36 +5483,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>84.56999999999999</v>
+        <v>85.75</v>
       </c>
       <c r="C134" t="n">
-        <v>84.56999999999999</v>
+        <v>85.75</v>
       </c>
       <c r="D134" t="n">
-        <v>84.56999999999999</v>
+        <v>85.75</v>
       </c>
       <c r="E134" t="n">
-        <v>84.56999999999999</v>
+        <v>85.75</v>
       </c>
       <c r="F134" t="n">
-        <v>6144.0743</v>
+        <v>105.5622</v>
       </c>
       <c r="G134" t="n">
-        <v>85.58799999999992</v>
+        <v>-625462.1244692148</v>
       </c>
       <c r="H134" t="n">
-        <v>85.81816666666664</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5958,36 +5518,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>86.23</v>
+        <v>85.75</v>
       </c>
       <c r="C135" t="n">
-        <v>86.23</v>
+        <v>85.75</v>
       </c>
       <c r="D135" t="n">
-        <v>86.23</v>
+        <v>85.75</v>
       </c>
       <c r="E135" t="n">
-        <v>86.23</v>
+        <v>85.75</v>
       </c>
       <c r="F135" t="n">
-        <v>115.9689203293517</v>
+        <v>8754</v>
       </c>
       <c r="G135" t="n">
-        <v>85.62866666666659</v>
+        <v>-625462.1244692148</v>
       </c>
       <c r="H135" t="n">
-        <v>85.82033333333329</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,36 +5553,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>85.09</v>
+        <v>85.75</v>
       </c>
       <c r="C136" t="n">
-        <v>85.3</v>
+        <v>85.62</v>
       </c>
       <c r="D136" t="n">
-        <v>85.3</v>
+        <v>85.75</v>
       </c>
       <c r="E136" t="n">
-        <v>85.09</v>
+        <v>85.62</v>
       </c>
       <c r="F136" t="n">
-        <v>8077.1347</v>
+        <v>2874.4367</v>
       </c>
       <c r="G136" t="n">
-        <v>85.62266666666659</v>
+        <v>-628336.5611692148</v>
       </c>
       <c r="H136" t="n">
-        <v>85.78716666666664</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,36 +5588,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>85.3</v>
+        <v>85.62</v>
       </c>
       <c r="C137" t="n">
-        <v>85.7</v>
+        <v>85.62</v>
       </c>
       <c r="D137" t="n">
-        <v>85.7</v>
+        <v>85.62</v>
       </c>
       <c r="E137" t="n">
-        <v>85.3</v>
+        <v>85.62</v>
       </c>
       <c r="F137" t="n">
-        <v>3800.711475612602</v>
+        <v>1107.6401</v>
       </c>
       <c r="G137" t="n">
-        <v>85.63733333333326</v>
+        <v>-628336.5611692148</v>
       </c>
       <c r="H137" t="n">
-        <v>85.79433333333328</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,36 +5623,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>85.09999999999999</v>
+        <v>85.62</v>
       </c>
       <c r="C138" t="n">
-        <v>85.09999999999999</v>
+        <v>85.62</v>
       </c>
       <c r="D138" t="n">
-        <v>85.09999999999999</v>
+        <v>85.62</v>
       </c>
       <c r="E138" t="n">
-        <v>85.09999999999999</v>
+        <v>85.62</v>
       </c>
       <c r="F138" t="n">
-        <v>1811.7953</v>
+        <v>9.3599</v>
       </c>
       <c r="G138" t="n">
-        <v>85.55466666666659</v>
+        <v>-628336.5611692148</v>
       </c>
       <c r="H138" t="n">
-        <v>85.75933333333329</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6110,36 +5658,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="C139" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="D139" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="E139" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="F139" t="n">
-        <v>11037.947</v>
+        <v>497.6193</v>
       </c>
       <c r="G139" t="n">
-        <v>85.57866666666658</v>
+        <v>-627838.9418692148</v>
       </c>
       <c r="H139" t="n">
-        <v>85.73483333333328</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,36 +5693,1064 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="C140" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="D140" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="E140" t="n">
-        <v>85.53</v>
+        <v>85.72</v>
       </c>
       <c r="F140" t="n">
-        <v>5629.5192</v>
+        <v>619</v>
       </c>
       <c r="G140" t="n">
-        <v>85.54933333333324</v>
+        <v>-627838.9418692148</v>
       </c>
       <c r="H140" t="n">
-        <v>85.75983333333329</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C141" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D141" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E141" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F141" t="n">
+        <v>558</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C142" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D142" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E142" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F142" t="n">
+        <v>558</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C143" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E143" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1252.5294</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-629091.4712692148</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="C144" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="D144" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="E144" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1533.9901</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-630625.4613692148</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="C145" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="D145" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="E145" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-631625.4613692148</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-631615.4613692148</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="K146" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3903.7535</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-631615.4613692148</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="C148" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="D148" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E148" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13184</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-644799.4613692148</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="C149" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D149" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="E149" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2167.5956</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-642631.8657692148</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="D150" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5093.8586</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-647725.7243692148</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="C151" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="D151" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="E151" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="F151" t="n">
+        <v>570</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-647155.7243692148</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="C152" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="D152" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F152" t="n">
+        <v>81.07482047718322</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-647074.6495487377</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="C153" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="D153" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="E153" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="F153" t="n">
+        <v>50589.4092</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-697664.0587487377</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="D154" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="E154" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-695664.0587487377</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7455.4851</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-688208.5736487376</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C156" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="D156" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="E156" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6081.3766</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-694289.9502487376</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>86</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86</v>
+      </c>
+      <c r="D157" t="n">
+        <v>86</v>
+      </c>
+      <c r="E157" t="n">
+        <v>86</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-684289.9502487376</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7455.4851</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-691745.4353487376</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-691745.4353487376</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>85</v>
+      </c>
+      <c r="D160" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>85</v>
+      </c>
+      <c r="F160" t="n">
+        <v>26086.0757</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-717831.5110487377</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>86</v>
+      </c>
+      <c r="C161" t="n">
+        <v>86</v>
+      </c>
+      <c r="D161" t="n">
+        <v>86</v>
+      </c>
+      <c r="E161" t="n">
+        <v>86</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-715860.5110487377</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>86</v>
+      </c>
+      <c r="C162" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="E162" t="n">
+        <v>86</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7026.1832</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-708834.3278487377</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="D163" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6144.0743</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-714978.4021487377</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C164" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D164" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E164" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F164" t="n">
+        <v>115.9689203293517</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-714862.4332284083</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="C165" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8077.1347</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-722939.5679284084</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3800.711475612602</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-719138.8564527958</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1811.7953</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-720950.6517527958</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="C168" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D168" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E168" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11037.947</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-709912.7047527957</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="C169" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D169" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E169" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5629.5192</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-709912.7047527957</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.81999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="C2" t="n">
-        <v>83.81999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="D2" t="n">
-        <v>83.81999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="E2" t="n">
-        <v>83.81999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="F2" t="n">
-        <v>3524.672</v>
+        <v>2193</v>
       </c>
       <c r="G2" t="n">
-        <v>-130761.6852505466</v>
+        <v>-394600.1499254261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.5</v>
+        <v>83.58</v>
       </c>
       <c r="C3" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>83.5</v>
+        <v>83.58</v>
       </c>
       <c r="E3" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>39440.699</v>
+        <v>63605.2143</v>
       </c>
       <c r="G3" t="n">
-        <v>-170202.3842505466</v>
+        <v>-458205.364225426</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.5</v>
+        <v>83.89</v>
       </c>
       <c r="C4" t="n">
-        <v>83.5</v>
+        <v>83.89</v>
       </c>
       <c r="D4" t="n">
-        <v>83.5</v>
+        <v>83.89</v>
       </c>
       <c r="E4" t="n">
-        <v>83.5</v>
+        <v>83.89</v>
       </c>
       <c r="F4" t="n">
-        <v>559.301</v>
+        <v>3162.8935</v>
       </c>
       <c r="G4" t="n">
-        <v>-170202.3842505466</v>
+        <v>-455042.470725426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83.81999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>83.81999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>83.81999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>83.81999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>1240.9936</v>
+        <v>2986</v>
       </c>
       <c r="G5" t="n">
-        <v>-168961.3906505466</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>769.9395</v>
+        <v>8958</v>
       </c>
       <c r="G6" t="n">
-        <v>-169731.3301505467</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83.59999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>83.59999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>83.5</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>18357.9715</v>
+        <v>1425.9086</v>
       </c>
       <c r="G7" t="n">
-        <v>-169731.3301505467</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>5864.8565</v>
+        <v>1493</v>
       </c>
       <c r="G8" t="n">
-        <v>-169731.3301505467</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>83.5</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>252.0977</v>
+        <v>10850.7904</v>
       </c>
       <c r="G9" t="n">
-        <v>-169731.3301505467</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83.3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>83.3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>83.3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>83.3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>4768.176</v>
+        <v>1493</v>
       </c>
       <c r="G10" t="n">
-        <v>-174499.5061505467</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83.3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="D11" t="n">
-        <v>83.3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1348.7782</v>
+        <v>1585.4435</v>
       </c>
       <c r="G11" t="n">
-        <v>-174499.5061505467</v>
+        <v>-461106.914225426</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83.20999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C12" t="n">
-        <v>84.22</v>
+        <v>83.5</v>
       </c>
       <c r="D12" t="n">
-        <v>84.22</v>
+        <v>83.5</v>
       </c>
       <c r="E12" t="n">
-        <v>83.20999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F12" t="n">
-        <v>47112.9947</v>
+        <v>954.0246</v>
       </c>
       <c r="G12" t="n">
-        <v>-127386.5114505466</v>
+        <v>-461106.914225426</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,63 +827,69 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84.22</v>
+        <v>83.2</v>
       </c>
       <c r="C13" t="n">
-        <v>84.22</v>
+        <v>83.2</v>
       </c>
       <c r="D13" t="n">
-        <v>84.22</v>
+        <v>83.2</v>
       </c>
       <c r="E13" t="n">
-        <v>84.22</v>
+        <v>83.2</v>
       </c>
       <c r="F13" t="n">
-        <v>2610.0865</v>
+        <v>324.9576</v>
       </c>
       <c r="G13" t="n">
-        <v>-127386.5114505466</v>
+        <v>-461431.8718254261</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>83.5</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>84.42</v>
+        <v>83.2</v>
       </c>
       <c r="C14" t="n">
-        <v>84.44</v>
+        <v>83.2</v>
       </c>
       <c r="D14" t="n">
-        <v>84.44</v>
+        <v>83.2</v>
       </c>
       <c r="E14" t="n">
-        <v>84.42</v>
+        <v>83.2</v>
       </c>
       <c r="F14" t="n">
-        <v>6533.9251</v>
+        <v>421.711</v>
       </c>
       <c r="G14" t="n">
-        <v>-120852.5863505467</v>
+        <v>-461431.8718254261</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,68 +898,82 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>84.44</v>
+        <v>83.2</v>
       </c>
       <c r="C15" t="n">
-        <v>84.48</v>
+        <v>83.12</v>
       </c>
       <c r="D15" t="n">
-        <v>84.48</v>
+        <v>83.2</v>
       </c>
       <c r="E15" t="n">
-        <v>84.44</v>
+        <v>83.12</v>
       </c>
       <c r="F15" t="n">
-        <v>14999.2296</v>
+        <v>6781.3992</v>
       </c>
       <c r="G15" t="n">
-        <v>-105853.3567505466</v>
+        <v>-468213.271025426</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>84.94</v>
+        <v>83.12</v>
       </c>
       <c r="C16" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>83.12</v>
       </c>
       <c r="E16" t="n">
-        <v>84.94</v>
+        <v>83.12</v>
       </c>
       <c r="F16" t="n">
-        <v>16521.3601</v>
+        <v>319.4393</v>
       </c>
       <c r="G16" t="n">
-        <v>-89331.99665054664</v>
+        <v>-468213.271025426</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,68 +982,82 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="C17" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="D17" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="E17" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="F17" t="n">
-        <v>3803.9872</v>
+        <v>1493</v>
       </c>
       <c r="G17" t="n">
-        <v>-93135.98385054665</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="C18" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>83.05</v>
       </c>
       <c r="E18" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="F18" t="n">
-        <v>6162.7415</v>
+        <v>4479</v>
       </c>
       <c r="G18" t="n">
-        <v>-86973.24235054664</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,68 +1066,82 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="C19" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="D19" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="E19" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="F19" t="n">
-        <v>1493</v>
+        <v>13242.96</v>
       </c>
       <c r="G19" t="n">
-        <v>-88466.24235054664</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="C20" t="n">
-        <v>84.98999999999999</v>
+        <v>82.88</v>
       </c>
       <c r="D20" t="n">
-        <v>84.98999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="E20" t="n">
-        <v>84.98999999999999</v>
+        <v>82.88</v>
       </c>
       <c r="F20" t="n">
-        <v>552.7134</v>
+        <v>22080.8452</v>
       </c>
       <c r="G20" t="n">
-        <v>-88466.24235054664</v>
+        <v>-491787.116225426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,68 +1150,82 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>84.03</v>
+        <v>82.72</v>
       </c>
       <c r="C21" t="n">
-        <v>84.03</v>
+        <v>82.64</v>
       </c>
       <c r="D21" t="n">
-        <v>84.03</v>
+        <v>82.72</v>
       </c>
       <c r="E21" t="n">
-        <v>84.03</v>
+        <v>82.64</v>
       </c>
       <c r="F21" t="n">
-        <v>3862.5147</v>
+        <v>1165.7231</v>
       </c>
       <c r="G21" t="n">
-        <v>-92328.75705054664</v>
+        <v>-492952.839325426</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>84.03</v>
+        <v>82.87</v>
       </c>
       <c r="C22" t="n">
-        <v>82.64</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>84.03</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>82.64</v>
+        <v>82.87</v>
       </c>
       <c r="F22" t="n">
-        <v>304028.3907</v>
+        <v>33621.8299</v>
       </c>
       <c r="G22" t="n">
-        <v>-396357.1477505466</v>
+        <v>-459331.009425426</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,68 +1234,82 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>84.22</v>
+        <v>84.06</v>
       </c>
       <c r="C23" t="n">
-        <v>85.09</v>
+        <v>82.64</v>
       </c>
       <c r="D23" t="n">
-        <v>85.09</v>
+        <v>84.06</v>
       </c>
       <c r="E23" t="n">
-        <v>84.22</v>
+        <v>82.64</v>
       </c>
       <c r="F23" t="n">
-        <v>13309.11128974793</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>-383048.0364607987</v>
+        <v>-459351.009425426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83.03</v>
+        <v>84.05</v>
       </c>
       <c r="C24" t="n">
-        <v>83.03</v>
+        <v>84.05</v>
       </c>
       <c r="D24" t="n">
-        <v>83.03</v>
+        <v>84.05</v>
       </c>
       <c r="E24" t="n">
-        <v>83.03</v>
+        <v>84.05</v>
       </c>
       <c r="F24" t="n">
-        <v>15652.391</v>
+        <v>118.9767995240928</v>
       </c>
       <c r="G24" t="n">
-        <v>-398700.4274607987</v>
+        <v>-459232.0326259019</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1318,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83.03</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>83.03</v>
+        <v>82.75</v>
       </c>
       <c r="D25" t="n">
-        <v>83.03</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>83.03</v>
+        <v>82.75</v>
       </c>
       <c r="F25" t="n">
-        <v>13550.6619</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>-398700.4274607987</v>
+        <v>-459268.0326259019</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1360,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83.93000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>84.89</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>84.89</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>83.93000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>4748.391</v>
+        <v>118.9909566872918</v>
       </c>
       <c r="G26" t="n">
-        <v>-393952.0364607987</v>
+        <v>-459149.0416692146</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1402,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>84.8</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>84.8</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>84.8</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>84.8</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>6.415</v>
+        <v>2282.5436</v>
       </c>
       <c r="G27" t="n">
-        <v>-393958.4514607987</v>
+        <v>-461431.5852692146</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1444,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84</v>
+        <v>84.03</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>84.03</v>
       </c>
       <c r="E28" t="n">
-        <v>84</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>3572.6004</v>
+        <v>115646.8576</v>
       </c>
       <c r="G28" t="n">
-        <v>-397531.0518607987</v>
+        <v>-577078.4428692146</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1486,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83.98999999999999</v>
+        <v>82.73</v>
       </c>
       <c r="C29" t="n">
-        <v>83.22</v>
+        <v>82.73</v>
       </c>
       <c r="D29" t="n">
-        <v>83.98999999999999</v>
+        <v>82.73</v>
       </c>
       <c r="E29" t="n">
-        <v>83.22</v>
+        <v>82.73</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>1494</v>
       </c>
       <c r="G29" t="n">
-        <v>-397567.0518607987</v>
+        <v>-575584.4428692146</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1528,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83.98</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>83.98</v>
+        <v>84.05</v>
       </c>
       <c r="D30" t="n">
-        <v>83.98</v>
+        <v>84.05</v>
       </c>
       <c r="E30" t="n">
-        <v>83.98</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>23189.1941</v>
       </c>
       <c r="G30" t="n">
-        <v>-397517.0518607987</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1570,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83.23</v>
+        <v>84.05</v>
       </c>
       <c r="C31" t="n">
-        <v>83.23</v>
+        <v>84.05</v>
       </c>
       <c r="D31" t="n">
-        <v>83.23</v>
+        <v>84.05</v>
       </c>
       <c r="E31" t="n">
-        <v>83.23</v>
+        <v>84.05</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>26000</v>
       </c>
       <c r="G31" t="n">
-        <v>-397542.0518607987</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1612,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83.97</v>
+        <v>84.05</v>
       </c>
       <c r="C32" t="n">
-        <v>83.98</v>
+        <v>84.05</v>
       </c>
       <c r="D32" t="n">
-        <v>83.98</v>
+        <v>84.05</v>
       </c>
       <c r="E32" t="n">
-        <v>83.97</v>
+        <v>84.05</v>
       </c>
       <c r="F32" t="n">
-        <v>5790.8762</v>
+        <v>385.0259</v>
       </c>
       <c r="G32" t="n">
-        <v>-391751.1756607987</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1654,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83.97</v>
+        <v>84.37</v>
       </c>
       <c r="C33" t="n">
-        <v>83.97</v>
+        <v>84.37</v>
       </c>
       <c r="D33" t="n">
-        <v>83.97</v>
+        <v>84.37</v>
       </c>
       <c r="E33" t="n">
-        <v>83.97</v>
+        <v>84.37</v>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="n">
-        <v>-391951.1756607987</v>
+        <v>-550895.2487692146</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1696,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83.98999999999999</v>
+        <v>84.05</v>
       </c>
       <c r="C34" t="n">
-        <v>83.98999999999999</v>
+        <v>84.05</v>
       </c>
       <c r="D34" t="n">
-        <v>83.98999999999999</v>
+        <v>84.05</v>
       </c>
       <c r="E34" t="n">
-        <v>83.98999999999999</v>
+        <v>84.05</v>
       </c>
       <c r="F34" t="n">
-        <v>415.0013</v>
+        <v>425.78</v>
       </c>
       <c r="G34" t="n">
-        <v>-391536.1743607987</v>
+        <v>-551321.0287692146</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1738,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83.98</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>83.26000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>83.98</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>83.26000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>36</v>
+        <v>594.9548</v>
       </c>
       <c r="G35" t="n">
-        <v>-391572.1743607987</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1780,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83.98999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>83.98999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>83.98999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>83.98999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>3386.4612</v>
+        <v>4008</v>
       </c>
       <c r="G36" t="n">
-        <v>-388185.7131607987</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1822,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1493</v>
+        <v>3917.8359</v>
       </c>
       <c r="G37" t="n">
-        <v>-389678.7131607987</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1682,37 +1864,42 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.98999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>83.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83.51000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>83.51000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>2986</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>-386692.7131607987</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1721,41 +1908,42 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>1493</v>
+        <v>8059.7963</v>
       </c>
       <c r="G39" t="n">
-        <v>-386692.7131607987</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1764,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1777,28 +1965,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>6182.2606</v>
+        <v>1314.9615</v>
       </c>
       <c r="G40" t="n">
-        <v>-392874.9737607986</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1807,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.52</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1820,28 +2009,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>84.64</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>84.64</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>84</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>237.8356347826087</v>
+        <v>1777.7695</v>
       </c>
       <c r="G41" t="n">
-        <v>-392637.138126016</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1850,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1863,38 +2053,41 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.58</v>
+        <v>84.05</v>
       </c>
       <c r="C42" t="n">
-        <v>84.58</v>
+        <v>84.05</v>
       </c>
       <c r="D42" t="n">
-        <v>84.58</v>
+        <v>84.05</v>
       </c>
       <c r="E42" t="n">
-        <v>84.58</v>
+        <v>84.05</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>75.59610000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-392643.138126016</v>
+        <v>-551840.3874692146</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="K42" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1904,28 +2097,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.75</v>
+        <v>84.38</v>
       </c>
       <c r="C43" t="n">
-        <v>84.75</v>
+        <v>85</v>
       </c>
       <c r="D43" t="n">
-        <v>84.75</v>
+        <v>85</v>
       </c>
       <c r="E43" t="n">
-        <v>84.75</v>
+        <v>84.38</v>
       </c>
       <c r="F43" t="n">
-        <v>235.9882005899705</v>
+        <v>45526.7258</v>
       </c>
       <c r="G43" t="n">
-        <v>-392407.1499254261</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1935,7 +2129,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -1945,28 +2139,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83.58</v>
+        <v>85</v>
       </c>
       <c r="C44" t="n">
-        <v>84.3</v>
+        <v>85</v>
       </c>
       <c r="D44" t="n">
-        <v>84.3</v>
+        <v>85</v>
       </c>
       <c r="E44" t="n">
-        <v>83.58</v>
+        <v>85</v>
       </c>
       <c r="F44" t="n">
-        <v>2193</v>
+        <v>6955.5909</v>
       </c>
       <c r="G44" t="n">
-        <v>-394600.1499254261</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1976,7 +2171,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -1986,28 +2181,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83.58</v>
+        <v>85</v>
       </c>
       <c r="C45" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="D45" t="n">
-        <v>83.58</v>
+        <v>85</v>
       </c>
       <c r="E45" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="F45" t="n">
-        <v>63605.2143</v>
+        <v>2440.2029</v>
       </c>
       <c r="G45" t="n">
-        <v>-458205.364225426</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2017,7 +2213,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2027,28 +2223,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83.89</v>
+        <v>85.09</v>
       </c>
       <c r="C46" t="n">
-        <v>83.89</v>
+        <v>85</v>
       </c>
       <c r="D46" t="n">
-        <v>83.89</v>
+        <v>85.09</v>
       </c>
       <c r="E46" t="n">
-        <v>83.89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="n">
-        <v>3162.8935</v>
+        <v>9403.5399</v>
       </c>
       <c r="G46" t="n">
-        <v>-455042.470725426</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,7 +2255,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2068,28 +2265,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="C47" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="E47" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="F47" t="n">
-        <v>2986</v>
+        <v>1669.2134</v>
       </c>
       <c r="G47" t="n">
-        <v>-458028.470725426</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2099,7 +2297,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2109,28 +2307,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83.56999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>83.56999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>83.56999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>83.56999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>8958</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>-458028.470725426</v>
+        <v>-506305.6616692146</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2140,7 +2339,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2150,28 +2349,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="C49" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="E49" t="n">
-        <v>83.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="F49" t="n">
-        <v>1425.9086</v>
+        <v>62.8928</v>
       </c>
       <c r="G49" t="n">
-        <v>-458028.470725426</v>
+        <v>-506368.5544692146</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2181,7 +2381,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2191,28 +2391,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83.54000000000001</v>
+        <v>85</v>
       </c>
       <c r="C50" t="n">
-        <v>83.54000000000001</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>83.54000000000001</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>83.54000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="F50" t="n">
-        <v>1493</v>
+        <v>47985.8381</v>
       </c>
       <c r="G50" t="n">
-        <v>-459521.470725426</v>
+        <v>-554354.3925692146</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2222,7 +2423,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2232,28 +2433,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83.54000000000001</v>
+        <v>86.39</v>
       </c>
       <c r="C51" t="n">
-        <v>83.54000000000001</v>
+        <v>86.78</v>
       </c>
       <c r="D51" t="n">
-        <v>83.54000000000001</v>
+        <v>86.78</v>
       </c>
       <c r="E51" t="n">
-        <v>83.54000000000001</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>10850.7904</v>
+        <v>6560.6954</v>
       </c>
       <c r="G51" t="n">
-        <v>-459521.470725426</v>
+        <v>-547793.6971692146</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2263,7 +2465,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2273,40 +2475,39 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83.54000000000001</v>
+        <v>86.39</v>
       </c>
       <c r="C52" t="n">
-        <v>83.54000000000001</v>
+        <v>86.78</v>
       </c>
       <c r="D52" t="n">
-        <v>83.54000000000001</v>
+        <v>87.48</v>
       </c>
       <c r="E52" t="n">
-        <v>83.54000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>1493</v>
+        <v>12960.7919</v>
       </c>
       <c r="G52" t="n">
-        <v>-459521.470725426</v>
+        <v>-547793.6971692146</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>83.54000000000001</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2316,28 +2517,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83.54000000000001</v>
+        <v>86.78</v>
       </c>
       <c r="C53" t="n">
-        <v>83.5</v>
+        <v>87.38</v>
       </c>
       <c r="D53" t="n">
-        <v>83.54000000000001</v>
+        <v>87.38</v>
       </c>
       <c r="E53" t="n">
-        <v>83.5</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>1585.4435</v>
+        <v>50495.321</v>
       </c>
       <c r="G53" t="n">
-        <v>-461106.914225426</v>
+        <v>-497298.3761692146</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2347,7 +2549,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2357,28 +2559,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83.5</v>
+        <v>87.3</v>
       </c>
       <c r="C54" t="n">
-        <v>83.5</v>
+        <v>87.19</v>
       </c>
       <c r="D54" t="n">
-        <v>83.5</v>
+        <v>87.3</v>
       </c>
       <c r="E54" t="n">
-        <v>83.5</v>
+        <v>87.19</v>
       </c>
       <c r="F54" t="n">
-        <v>954.0246</v>
+        <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>-461106.914225426</v>
+        <v>-497318.3761692146</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2388,7 +2591,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2398,28 +2601,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="C55" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="D55" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="E55" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="F55" t="n">
-        <v>324.9576</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>-461431.8718254261</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2429,7 +2633,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2439,28 +2643,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="C56" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="D56" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="E56" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="F56" t="n">
-        <v>421.711</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>-461431.8718254261</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2470,7 +2675,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2480,28 +2685,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="C57" t="n">
-        <v>83.12</v>
+        <v>86.75</v>
       </c>
       <c r="D57" t="n">
-        <v>83.2</v>
+        <v>86.75</v>
       </c>
       <c r="E57" t="n">
-        <v>83.12</v>
+        <v>86.75</v>
       </c>
       <c r="F57" t="n">
-        <v>6781.3992</v>
+        <v>7766.4107</v>
       </c>
       <c r="G57" t="n">
-        <v>-468213.271025426</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2511,7 +2717,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2521,28 +2727,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83.12</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>83.12</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>83.12</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>83.12</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>319.4393</v>
+        <v>15.789</v>
       </c>
       <c r="G58" t="n">
-        <v>-468213.271025426</v>
+        <v>-497342.1651692146</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2552,7 +2759,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2562,28 +2769,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83.05</v>
+        <v>86.64</v>
       </c>
       <c r="C59" t="n">
-        <v>83.05</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>83.05</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>83.05</v>
+        <v>86.64</v>
       </c>
       <c r="F59" t="n">
-        <v>1493</v>
+        <v>48.677</v>
       </c>
       <c r="G59" t="n">
-        <v>-469706.271025426</v>
+        <v>-497293.4881692146</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2593,7 +2801,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2603,28 +2811,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83.05</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>83.05</v>
+        <v>86.8</v>
       </c>
       <c r="D60" t="n">
-        <v>83.05</v>
+        <v>86.8</v>
       </c>
       <c r="E60" t="n">
-        <v>83.05</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>4479</v>
+        <v>55387.3084</v>
       </c>
       <c r="G60" t="n">
-        <v>-469706.271025426</v>
+        <v>-441906.1797692146</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2634,7 +2843,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2644,69 +2853,71 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83.05</v>
+        <v>86.8</v>
       </c>
       <c r="C61" t="n">
-        <v>83.05</v>
+        <v>85.73</v>
       </c>
       <c r="D61" t="n">
-        <v>83.05</v>
+        <v>86.8</v>
       </c>
       <c r="E61" t="n">
-        <v>83.05</v>
+        <v>85.73</v>
       </c>
       <c r="F61" t="n">
-        <v>13242.96</v>
+        <v>1555.1935</v>
       </c>
       <c r="G61" t="n">
-        <v>-469706.271025426</v>
+        <v>-443461.3732692146</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>83.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
-      </c>
+        <v>1.021706586826348</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83.05</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>82.88</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>83.05</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>82.88</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>22080.8452</v>
+        <v>189.8829</v>
       </c>
       <c r="G62" t="n">
-        <v>-491787.116225426</v>
+        <v>-443271.4903692146</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2715,123 +2926,106 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>82.72</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>82.64</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>82.72</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>82.64</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>1165.7231</v>
+        <v>14.9743</v>
       </c>
       <c r="G63" t="n">
-        <v>-492952.839325426</v>
+        <v>-443256.5160692146</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>82.87</v>
+        <v>85.27</v>
       </c>
       <c r="C64" t="n">
-        <v>84.06999999999999</v>
+        <v>85.27</v>
       </c>
       <c r="D64" t="n">
-        <v>84.06999999999999</v>
+        <v>85.27</v>
       </c>
       <c r="E64" t="n">
-        <v>82.87</v>
+        <v>85.27</v>
       </c>
       <c r="F64" t="n">
-        <v>33621.8299</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-459331.009425426</v>
+        <v>-443266.5160692146</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K64" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>84.06</v>
+        <v>85.27</v>
       </c>
       <c r="C65" t="n">
-        <v>82.64</v>
+        <v>87.2</v>
       </c>
       <c r="D65" t="n">
-        <v>84.06</v>
+        <v>87.2</v>
       </c>
       <c r="E65" t="n">
-        <v>82.64</v>
+        <v>85.27</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>1270.2613</v>
       </c>
       <c r="G65" t="n">
-        <v>-459351.009425426</v>
+        <v>-441996.2547692145</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2840,39 +3034,34 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>84.05</v>
+        <v>87</v>
       </c>
       <c r="C66" t="n">
-        <v>84.05</v>
+        <v>87</v>
       </c>
       <c r="D66" t="n">
-        <v>84.05</v>
+        <v>87</v>
       </c>
       <c r="E66" t="n">
-        <v>84.05</v>
+        <v>87</v>
       </c>
       <c r="F66" t="n">
-        <v>118.9767995240928</v>
+        <v>2167.5956</v>
       </c>
       <c r="G66" t="n">
-        <v>-459232.0326259019</v>
+        <v>-444163.8503692145</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2881,39 +3070,34 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84.04000000000001</v>
+        <v>85.66</v>
       </c>
       <c r="C67" t="n">
-        <v>82.75</v>
+        <v>84.03</v>
       </c>
       <c r="D67" t="n">
-        <v>84.04000000000001</v>
+        <v>85.66</v>
       </c>
       <c r="E67" t="n">
-        <v>82.75</v>
+        <v>84.03</v>
       </c>
       <c r="F67" t="n">
-        <v>36</v>
+        <v>168246.9495</v>
       </c>
       <c r="G67" t="n">
-        <v>-459268.0326259019</v>
+        <v>-612410.7998692145</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2922,39 +3106,34 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>84.04000000000001</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>84.04000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="D68" t="n">
-        <v>84.04000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="E68" t="n">
-        <v>84.04000000000001</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>118.9909566872918</v>
+        <v>2986</v>
       </c>
       <c r="G68" t="n">
-        <v>-459149.0416692146</v>
+        <v>-609424.7998692145</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2963,39 +3142,34 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.81999999999999</v>
+        <v>85.83</v>
       </c>
       <c r="C69" t="n">
-        <v>82.81999999999999</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>82.81999999999999</v>
+        <v>85.83</v>
       </c>
       <c r="E69" t="n">
-        <v>82.81999999999999</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>2282.5436</v>
+        <v>16205.9388</v>
       </c>
       <c r="G69" t="n">
-        <v>-461431.5852692146</v>
+        <v>-625630.7386692145</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3004,39 +3178,34 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>84.03</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>82.59999999999999</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>84.03</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>82.59999999999999</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>115646.8576</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>-577078.4428692146</v>
+        <v>-625630.7386692145</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3045,39 +3214,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>82.73</v>
+        <v>85</v>
       </c>
       <c r="C71" t="n">
-        <v>82.73</v>
+        <v>85.53</v>
       </c>
       <c r="D71" t="n">
-        <v>82.73</v>
+        <v>85.53</v>
       </c>
       <c r="E71" t="n">
-        <v>82.73</v>
+        <v>85</v>
       </c>
       <c r="F71" t="n">
-        <v>1494</v>
+        <v>7446.613</v>
       </c>
       <c r="G71" t="n">
-        <v>-575584.4428692146</v>
+        <v>-633077.3516692145</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3086,39 +3250,34 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>84.04000000000001</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>84.05</v>
+        <v>85.53</v>
       </c>
       <c r="D72" t="n">
-        <v>84.05</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>84.04000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="F72" t="n">
-        <v>23189.1941</v>
+        <v>4883.9061</v>
       </c>
       <c r="G72" t="n">
-        <v>-552395.2487692146</v>
+        <v>-633077.3516692145</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3127,39 +3286,34 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>84.05</v>
+        <v>85.11</v>
       </c>
       <c r="C73" t="n">
-        <v>84.05</v>
+        <v>85.84</v>
       </c>
       <c r="D73" t="n">
-        <v>84.05</v>
+        <v>85.84</v>
       </c>
       <c r="E73" t="n">
-        <v>84.05</v>
+        <v>85.11</v>
       </c>
       <c r="F73" t="n">
-        <v>26000</v>
+        <v>14071.3647</v>
       </c>
       <c r="G73" t="n">
-        <v>-552395.2487692146</v>
+        <v>-619005.9869692145</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3168,39 +3322,34 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>84.05</v>
+        <v>85.78</v>
       </c>
       <c r="C74" t="n">
-        <v>84.05</v>
+        <v>86</v>
       </c>
       <c r="D74" t="n">
-        <v>84.05</v>
+        <v>86</v>
       </c>
       <c r="E74" t="n">
-        <v>84.05</v>
+        <v>85.78</v>
       </c>
       <c r="F74" t="n">
-        <v>385.0259</v>
+        <v>20902.4258</v>
       </c>
       <c r="G74" t="n">
-        <v>-552395.2487692146</v>
+        <v>-598103.5611692145</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3209,39 +3358,34 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>84.37</v>
+        <v>86</v>
       </c>
       <c r="C75" t="n">
-        <v>84.37</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>84.37</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>84.37</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1500</v>
+        <v>4824.9177</v>
       </c>
       <c r="G75" t="n">
-        <v>-550895.2487692146</v>
+        <v>-593278.6434692146</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3250,39 +3394,34 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>84.05</v>
+        <v>86.45</v>
       </c>
       <c r="C76" t="n">
-        <v>84.05</v>
+        <v>86.44</v>
       </c>
       <c r="D76" t="n">
-        <v>84.05</v>
+        <v>86.56</v>
       </c>
       <c r="E76" t="n">
-        <v>84.05</v>
+        <v>86.44</v>
       </c>
       <c r="F76" t="n">
-        <v>425.78</v>
+        <v>11469.2305</v>
       </c>
       <c r="G76" t="n">
-        <v>-551321.0287692146</v>
+        <v>-581809.4129692146</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3291,39 +3430,34 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>84.04000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="C77" t="n">
-        <v>84.04000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="D77" t="n">
-        <v>84.04000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="E77" t="n">
-        <v>84.04000000000001</v>
+        <v>86.44</v>
       </c>
       <c r="F77" t="n">
-        <v>594.9548</v>
+        <v>1428.6336</v>
       </c>
       <c r="G77" t="n">
-        <v>-551915.9835692146</v>
+        <v>-581809.4129692146</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3332,39 +3466,34 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>84.04000000000001</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>84.04000000000001</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>84.04000000000001</v>
+        <v>86.39</v>
       </c>
       <c r="E78" t="n">
-        <v>84.04000000000001</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>4008</v>
+        <v>5071.0864</v>
       </c>
       <c r="G78" t="n">
-        <v>-551915.9835692146</v>
+        <v>-586880.4993692146</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3373,39 +3502,34 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="C79" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="D79" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="E79" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="F79" t="n">
-        <v>3917.8359</v>
+        <v>3400</v>
       </c>
       <c r="G79" t="n">
-        <v>-551915.9835692146</v>
+        <v>-583480.4993692146</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3414,39 +3538,34 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="C80" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="D80" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="E80" t="n">
-        <v>84.04000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>2244.2176</v>
       </c>
       <c r="G80" t="n">
-        <v>-551915.9835692146</v>
+        <v>-583480.4993692146</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3455,80 +3574,70 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>84.04000000000001</v>
+        <v>86.22</v>
       </c>
       <c r="C81" t="n">
-        <v>84.04000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="D81" t="n">
-        <v>84.04000000000001</v>
+        <v>86.22</v>
       </c>
       <c r="E81" t="n">
-        <v>84.04000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="F81" t="n">
-        <v>8059.7963</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>-551915.9835692146</v>
+        <v>-583520.4993692146</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>84.04000000000001</v>
+        <v>86</v>
       </c>
       <c r="C82" t="n">
-        <v>84.04000000000001</v>
+        <v>86</v>
       </c>
       <c r="D82" t="n">
-        <v>84.04000000000001</v>
+        <v>86</v>
       </c>
       <c r="E82" t="n">
-        <v>84.04000000000001</v>
+        <v>86</v>
       </c>
       <c r="F82" t="n">
-        <v>1314.9615</v>
+        <v>1400</v>
       </c>
       <c r="G82" t="n">
-        <v>-551915.9835692146</v>
+        <v>-584920.4993692146</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3537,39 +3646,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>84.04000000000001</v>
+        <v>86</v>
       </c>
       <c r="C83" t="n">
-        <v>84.04000000000001</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>84.04000000000001</v>
+        <v>86</v>
       </c>
       <c r="E83" t="n">
-        <v>84.04000000000001</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>1777.7695</v>
+        <v>43.3061</v>
       </c>
       <c r="G83" t="n">
-        <v>-551915.9835692146</v>
+        <v>-584963.8054692147</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3578,39 +3682,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84.05</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>84.05</v>
+        <v>86.16</v>
       </c>
       <c r="D84" t="n">
-        <v>84.05</v>
+        <v>86.16</v>
       </c>
       <c r="E84" t="n">
-        <v>84.05</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>75.59610000000001</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>-551840.3874692146</v>
+        <v>-564963.8054692147</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3619,39 +3718,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>84.38</v>
+        <v>86.17</v>
       </c>
       <c r="C85" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="D85" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="E85" t="n">
-        <v>84.38</v>
+        <v>86.17</v>
       </c>
       <c r="F85" t="n">
-        <v>45526.7258</v>
+        <v>766.0612</v>
       </c>
       <c r="G85" t="n">
-        <v>-506313.6616692146</v>
+        <v>-564197.7442692147</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3660,39 +3754,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="C86" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="D86" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="E86" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="F86" t="n">
-        <v>6955.5909</v>
+        <v>1436.3764</v>
       </c>
       <c r="G86" t="n">
-        <v>-506313.6616692146</v>
+        <v>-564197.7442692147</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3701,39 +3790,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="C87" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="D87" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="E87" t="n">
-        <v>85</v>
+        <v>86.17</v>
       </c>
       <c r="F87" t="n">
-        <v>2440.2029</v>
+        <v>861.8422</v>
       </c>
       <c r="G87" t="n">
-        <v>-506313.6616692146</v>
+        <v>-564197.7442692147</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3742,39 +3826,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>85.09</v>
+        <v>85.61</v>
       </c>
       <c r="C88" t="n">
-        <v>85</v>
+        <v>85.61</v>
       </c>
       <c r="D88" t="n">
-        <v>85.09</v>
+        <v>86.39</v>
       </c>
       <c r="E88" t="n">
-        <v>85</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>9403.5399</v>
+        <v>53652.3736</v>
       </c>
       <c r="G88" t="n">
-        <v>-506313.6616692146</v>
+        <v>-617850.1178692147</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3783,39 +3862,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>85</v>
+        <v>86.38</v>
       </c>
       <c r="C89" t="n">
-        <v>85</v>
+        <v>86.38</v>
       </c>
       <c r="D89" t="n">
-        <v>85</v>
+        <v>86.38</v>
       </c>
       <c r="E89" t="n">
-        <v>85</v>
+        <v>86.38</v>
       </c>
       <c r="F89" t="n">
-        <v>1669.2134</v>
+        <v>6527</v>
       </c>
       <c r="G89" t="n">
-        <v>-506313.6616692146</v>
+        <v>-611323.1178692147</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3824,572 +3898,502 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>85.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>85.90000000000001</v>
+        <v>85.91</v>
       </c>
       <c r="D90" t="n">
-        <v>85.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>85.90000000000001</v>
+        <v>85.91</v>
       </c>
       <c r="F90" t="n">
-        <v>8</v>
+        <v>11785.279</v>
       </c>
       <c r="G90" t="n">
-        <v>-506305.6616692146</v>
+        <v>-623108.3968692147</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>85</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>85</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>85</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>85</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>62.8928</v>
+        <v>2248.1654</v>
       </c>
       <c r="G91" t="n">
-        <v>-506368.5544692146</v>
+        <v>-625356.5622692148</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>85</v>
+        <v>85.75</v>
       </c>
       <c r="C92" t="n">
-        <v>84.20999999999999</v>
+        <v>85.75</v>
       </c>
       <c r="D92" t="n">
-        <v>86.68000000000001</v>
+        <v>85.75</v>
       </c>
       <c r="E92" t="n">
-        <v>84.2</v>
+        <v>85.75</v>
       </c>
       <c r="F92" t="n">
-        <v>47985.8381</v>
+        <v>105.5622</v>
       </c>
       <c r="G92" t="n">
-        <v>-554354.3925692146</v>
+        <v>-625462.1244692148</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86.39</v>
+        <v>85.75</v>
       </c>
       <c r="C93" t="n">
-        <v>86.78</v>
+        <v>85.75</v>
       </c>
       <c r="D93" t="n">
-        <v>86.78</v>
+        <v>85.75</v>
       </c>
       <c r="E93" t="n">
-        <v>84.20999999999999</v>
+        <v>85.75</v>
       </c>
       <c r="F93" t="n">
-        <v>6560.6954</v>
+        <v>8754</v>
       </c>
       <c r="G93" t="n">
-        <v>-547793.6971692146</v>
+        <v>-625462.1244692148</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86.39</v>
+        <v>85.75</v>
       </c>
       <c r="C94" t="n">
-        <v>86.78</v>
+        <v>85.62</v>
       </c>
       <c r="D94" t="n">
-        <v>87.48</v>
+        <v>85.75</v>
       </c>
       <c r="E94" t="n">
-        <v>84.26000000000001</v>
+        <v>85.62</v>
       </c>
       <c r="F94" t="n">
-        <v>12960.7919</v>
+        <v>2874.4367</v>
       </c>
       <c r="G94" t="n">
-        <v>-547793.6971692146</v>
+        <v>-628336.5611692148</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>86.78</v>
+        <v>85.62</v>
       </c>
       <c r="C95" t="n">
-        <v>87.38</v>
+        <v>85.62</v>
       </c>
       <c r="D95" t="n">
-        <v>87.38</v>
+        <v>85.62</v>
       </c>
       <c r="E95" t="n">
-        <v>84.29000000000001</v>
+        <v>85.62</v>
       </c>
       <c r="F95" t="n">
-        <v>50495.321</v>
+        <v>1107.6401</v>
       </c>
       <c r="G95" t="n">
-        <v>-497298.3761692146</v>
+        <v>-628336.5611692148</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>87.3</v>
+        <v>85.62</v>
       </c>
       <c r="C96" t="n">
-        <v>87.19</v>
+        <v>85.62</v>
       </c>
       <c r="D96" t="n">
-        <v>87.3</v>
+        <v>85.62</v>
       </c>
       <c r="E96" t="n">
-        <v>87.19</v>
+        <v>85.62</v>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>9.3599</v>
       </c>
       <c r="G96" t="n">
-        <v>-497318.3761692146</v>
+        <v>-628336.5611692148</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="C97" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="D97" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="E97" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>497.6193</v>
       </c>
       <c r="G97" t="n">
-        <v>-497326.3761692146</v>
+        <v>-627838.9418692148</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="C98" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="D98" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="E98" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="F98" t="n">
-        <v>6</v>
+        <v>619</v>
       </c>
       <c r="G98" t="n">
-        <v>-497326.3761692146</v>
+        <v>-627838.9418692148</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="C99" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="D99" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="E99" t="n">
-        <v>86.75</v>
+        <v>85.72</v>
       </c>
       <c r="F99" t="n">
-        <v>7766.4107</v>
+        <v>558</v>
       </c>
       <c r="G99" t="n">
-        <v>-497326.3761692146</v>
+        <v>-627838.9418692148</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>86.65000000000001</v>
+        <v>85.72</v>
       </c>
       <c r="C100" t="n">
-        <v>86.65000000000001</v>
+        <v>85.72</v>
       </c>
       <c r="D100" t="n">
-        <v>86.65000000000001</v>
+        <v>85.72</v>
       </c>
       <c r="E100" t="n">
-        <v>86.65000000000001</v>
+        <v>85.72</v>
       </c>
       <c r="F100" t="n">
-        <v>15.789</v>
+        <v>558</v>
       </c>
       <c r="G100" t="n">
-        <v>-497342.1651692146</v>
+        <v>-627838.9418692148</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>86.64</v>
+        <v>85.62</v>
       </c>
       <c r="C101" t="n">
-        <v>86.76000000000001</v>
+        <v>85.62</v>
       </c>
       <c r="D101" t="n">
-        <v>86.76000000000001</v>
+        <v>85.62</v>
       </c>
       <c r="E101" t="n">
-        <v>86.64</v>
+        <v>85.62</v>
       </c>
       <c r="F101" t="n">
-        <v>48.677</v>
+        <v>1252.5294</v>
       </c>
       <c r="G101" t="n">
-        <v>-497293.4881692146</v>
+        <v>-629091.4712692148</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>86.76000000000001</v>
+        <v>85.52</v>
       </c>
       <c r="C102" t="n">
-        <v>86.8</v>
+        <v>84.62</v>
       </c>
       <c r="D102" t="n">
-        <v>86.8</v>
+        <v>85.52</v>
       </c>
       <c r="E102" t="n">
-        <v>86.76000000000001</v>
+        <v>84.62</v>
       </c>
       <c r="F102" t="n">
-        <v>55387.3084</v>
+        <v>1533.9901</v>
       </c>
       <c r="G102" t="n">
-        <v>-441906.1797692146</v>
+        <v>-630625.4613692148</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>86.8</v>
+        <v>84.38</v>
       </c>
       <c r="C103" t="n">
-        <v>85.73</v>
+        <v>84.38</v>
       </c>
       <c r="D103" t="n">
-        <v>86.8</v>
+        <v>84.38</v>
       </c>
       <c r="E103" t="n">
-        <v>85.73</v>
+        <v>84.38</v>
       </c>
       <c r="F103" t="n">
-        <v>1555.1935</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-443461.3732692146</v>
+        <v>-631625.4613692148</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4398,39 +4402,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87.29000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>86.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>87.29000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>86.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>189.8829</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-443271.4903692146</v>
+        <v>-631615.4613692148</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4439,39 +4438,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>87.29000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>87.29000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>87.29000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>87.29000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>14.9743</v>
+        <v>3903.7535</v>
       </c>
       <c r="G105" t="n">
-        <v>-443256.5160692146</v>
+        <v>-631615.4613692148</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4480,80 +4474,70 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>85.27</v>
+        <v>86.39</v>
       </c>
       <c r="C106" t="n">
-        <v>85.27</v>
+        <v>85.16</v>
       </c>
       <c r="D106" t="n">
-        <v>85.27</v>
+        <v>86.39</v>
       </c>
       <c r="E106" t="n">
-        <v>85.27</v>
+        <v>85.16</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>13184</v>
       </c>
       <c r="G106" t="n">
-        <v>-443266.5160692146</v>
+        <v>-644799.4613692148</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>83.98999999999999</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1.010239909513037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>85.27</v>
+        <v>85.63</v>
       </c>
       <c r="C107" t="n">
-        <v>87.2</v>
+        <v>85.62</v>
       </c>
       <c r="D107" t="n">
-        <v>87.2</v>
+        <v>85.63</v>
       </c>
       <c r="E107" t="n">
-        <v>85.27</v>
+        <v>85.62</v>
       </c>
       <c r="F107" t="n">
-        <v>1270.2613</v>
+        <v>2167.5956</v>
       </c>
       <c r="G107" t="n">
-        <v>-441996.2547692145</v>
+        <v>-642631.8657692148</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4567,28 +4551,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>87</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>87</v>
+        <v>85.39</v>
       </c>
       <c r="D108" t="n">
-        <v>87</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>87</v>
+        <v>85.39</v>
       </c>
       <c r="F108" t="n">
-        <v>2167.5956</v>
+        <v>5093.8586</v>
       </c>
       <c r="G108" t="n">
-        <v>-444163.8503692145</v>
+        <v>-647725.7243692148</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4602,34 +4587,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>85.66</v>
+        <v>85.48</v>
       </c>
       <c r="C109" t="n">
-        <v>84.03</v>
+        <v>85.48</v>
       </c>
       <c r="D109" t="n">
-        <v>85.66</v>
+        <v>85.48</v>
       </c>
       <c r="E109" t="n">
-        <v>84.03</v>
+        <v>85.48</v>
       </c>
       <c r="F109" t="n">
-        <v>168246.9495</v>
+        <v>570</v>
       </c>
       <c r="G109" t="n">
-        <v>-612410.7998692145</v>
+        <v>-647155.7243692148</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4637,28 +4623,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>85.81999999999999</v>
+        <v>86.34</v>
       </c>
       <c r="C110" t="n">
-        <v>85.83</v>
+        <v>86.34</v>
       </c>
       <c r="D110" t="n">
-        <v>85.83</v>
+        <v>86.34</v>
       </c>
       <c r="E110" t="n">
-        <v>85.81999999999999</v>
+        <v>86.34</v>
       </c>
       <c r="F110" t="n">
-        <v>2986</v>
+        <v>81.07482047718322</v>
       </c>
       <c r="G110" t="n">
-        <v>-609424.7998692145</v>
+        <v>-647074.6495487377</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4672,28 +4659,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>85.83</v>
+        <v>85.61</v>
       </c>
       <c r="C111" t="n">
-        <v>85.76000000000001</v>
+        <v>85.17</v>
       </c>
       <c r="D111" t="n">
-        <v>85.83</v>
+        <v>85.61</v>
       </c>
       <c r="E111" t="n">
-        <v>85.76000000000001</v>
+        <v>85.17</v>
       </c>
       <c r="F111" t="n">
-        <v>16205.9388</v>
+        <v>50589.4092</v>
       </c>
       <c r="G111" t="n">
-        <v>-625630.7386692145</v>
+        <v>-697664.0587487377</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4707,28 +4695,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>85.76000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>85.76000000000001</v>
+        <v>85.97</v>
       </c>
       <c r="D112" t="n">
-        <v>85.76000000000001</v>
+        <v>85.97</v>
       </c>
       <c r="E112" t="n">
-        <v>85.76000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="n">
-        <v>-625630.7386692145</v>
+        <v>-695664.0587487377</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4742,28 +4731,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>85.53</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>85.53</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>85</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>7446.613</v>
+        <v>7455.4851</v>
       </c>
       <c r="G113" t="n">
-        <v>-633077.3516692145</v>
+        <v>-688208.5736487376</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4777,28 +4767,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>85.68000000000001</v>
+        <v>85.27</v>
       </c>
       <c r="C114" t="n">
-        <v>85.53</v>
+        <v>85.27</v>
       </c>
       <c r="D114" t="n">
-        <v>85.68000000000001</v>
+        <v>85.27</v>
       </c>
       <c r="E114" t="n">
-        <v>85.53</v>
+        <v>85.27</v>
       </c>
       <c r="F114" t="n">
-        <v>4883.9061</v>
+        <v>6081.3766</v>
       </c>
       <c r="G114" t="n">
-        <v>-633077.3516692145</v>
+        <v>-694289.9502487376</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4812,28 +4803,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>85.11</v>
+        <v>86</v>
       </c>
       <c r="C115" t="n">
-        <v>85.84</v>
+        <v>86</v>
       </c>
       <c r="D115" t="n">
-        <v>85.84</v>
+        <v>86</v>
       </c>
       <c r="E115" t="n">
-        <v>85.11</v>
+        <v>86</v>
       </c>
       <c r="F115" t="n">
-        <v>14071.3647</v>
+        <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>-619005.9869692145</v>
+        <v>-684289.9502487376</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4847,34 +4839,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>85.78</v>
+        <v>85.3</v>
       </c>
       <c r="C116" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="D116" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="E116" t="n">
-        <v>85.78</v>
+        <v>85.3</v>
       </c>
       <c r="F116" t="n">
-        <v>20902.4258</v>
+        <v>7455.4851</v>
       </c>
       <c r="G116" t="n">
-        <v>-598103.5611692145</v>
+        <v>-691745.4353487376</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4882,34 +4875,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="C117" t="n">
-        <v>86.18000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="D117" t="n">
-        <v>86.18000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="E117" t="n">
-        <v>85.98999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="F117" t="n">
-        <v>4824.9177</v>
+        <v>1600</v>
       </c>
       <c r="G117" t="n">
-        <v>-593278.6434692146</v>
+        <v>-691745.4353487376</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4917,28 +4911,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>86.45</v>
+        <v>85.3</v>
       </c>
       <c r="C118" t="n">
-        <v>86.44</v>
+        <v>85</v>
       </c>
       <c r="D118" t="n">
-        <v>86.56</v>
+        <v>85.3</v>
       </c>
       <c r="E118" t="n">
-        <v>86.44</v>
+        <v>85</v>
       </c>
       <c r="F118" t="n">
-        <v>11469.2305</v>
+        <v>26086.0757</v>
       </c>
       <c r="G118" t="n">
-        <v>-581809.4129692146</v>
+        <v>-717831.5110487377</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4952,28 +4947,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>86.44</v>
+        <v>86</v>
       </c>
       <c r="C119" t="n">
-        <v>86.44</v>
+        <v>86</v>
       </c>
       <c r="D119" t="n">
-        <v>86.44</v>
+        <v>86</v>
       </c>
       <c r="E119" t="n">
-        <v>86.44</v>
+        <v>86</v>
       </c>
       <c r="F119" t="n">
-        <v>1428.6336</v>
+        <v>1971</v>
       </c>
       <c r="G119" t="n">
-        <v>-581809.4129692146</v>
+        <v>-715860.5110487377</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4987,34 +4983,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>86.34999999999999</v>
+        <v>86</v>
       </c>
       <c r="C120" t="n">
-        <v>86.18000000000001</v>
+        <v>86.12</v>
       </c>
       <c r="D120" t="n">
-        <v>86.39</v>
+        <v>86.12</v>
       </c>
       <c r="E120" t="n">
-        <v>86.18000000000001</v>
+        <v>86</v>
       </c>
       <c r="F120" t="n">
-        <v>5071.0864</v>
+        <v>7026.1832</v>
       </c>
       <c r="G120" t="n">
-        <v>-586880.4993692146</v>
+        <v>-708834.3278487377</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5022,28 +5019,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>86.23</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>86.23</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>86.23</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>86.23</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>3400</v>
+        <v>6144.0743</v>
       </c>
       <c r="G121" t="n">
-        <v>-583480.4993692146</v>
+        <v>-714978.4021487377</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5057,6 +5055,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5075,10 +5074,10 @@
         <v>86.23</v>
       </c>
       <c r="F122" t="n">
-        <v>2244.2176</v>
+        <v>115.9689203293517</v>
       </c>
       <c r="G122" t="n">
-        <v>-583480.4993692146</v>
+        <v>-714862.4332284083</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5092,34 +5091,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>86.22</v>
+        <v>85.09</v>
       </c>
       <c r="C123" t="n">
-        <v>86.2</v>
+        <v>85.3</v>
       </c>
       <c r="D123" t="n">
-        <v>86.22</v>
+        <v>85.3</v>
       </c>
       <c r="E123" t="n">
-        <v>86.2</v>
+        <v>85.09</v>
       </c>
       <c r="F123" t="n">
-        <v>40</v>
+        <v>8077.1347</v>
       </c>
       <c r="G123" t="n">
-        <v>-583520.4993692146</v>
+        <v>-722939.5679284084</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5127,34 +5127,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="C124" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="D124" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="E124" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="F124" t="n">
-        <v>1400</v>
+        <v>3800.711475612602</v>
       </c>
       <c r="G124" t="n">
-        <v>-584920.4993692146</v>
+        <v>-719138.8564527958</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5162,34 +5163,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>86</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>85.98999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>86</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>85.98999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>43.3061</v>
+        <v>1811.7953</v>
       </c>
       <c r="G125" t="n">
-        <v>-584963.8054692147</v>
+        <v>-720950.6517527958</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5197,34 +5199,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>85.98999999999999</v>
+        <v>85.53</v>
       </c>
       <c r="C126" t="n">
-        <v>86.16</v>
+        <v>85.53</v>
       </c>
       <c r="D126" t="n">
-        <v>86.16</v>
+        <v>85.53</v>
       </c>
       <c r="E126" t="n">
-        <v>85.98999999999999</v>
+        <v>85.53</v>
       </c>
       <c r="F126" t="n">
-        <v>20000</v>
+        <v>11037.947</v>
       </c>
       <c r="G126" t="n">
-        <v>-564963.8054692147</v>
+        <v>-709912.7047527957</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5232,34 +5235,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>86.17</v>
+        <v>85.53</v>
       </c>
       <c r="C127" t="n">
-        <v>86.17</v>
+        <v>85.53</v>
       </c>
       <c r="D127" t="n">
-        <v>86.17</v>
+        <v>85.53</v>
       </c>
       <c r="E127" t="n">
-        <v>86.17</v>
+        <v>85.53</v>
       </c>
       <c r="F127" t="n">
-        <v>766.0612</v>
+        <v>5629.5192</v>
       </c>
       <c r="G127" t="n">
-        <v>-564197.7442692147</v>
+        <v>-709912.7047527957</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5267,1492 +5271,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="C128" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="D128" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="E128" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1436.3764</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="C129" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="D129" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="E129" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="F129" t="n">
-        <v>861.8422</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="C130" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="D130" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="E130" t="n">
-        <v>85.51000000000001</v>
-      </c>
-      <c r="F130" t="n">
-        <v>53652.3736</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-617850.1178692147</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="C131" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="D131" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="E131" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="F131" t="n">
-        <v>6527</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-611323.1178692147</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C132" t="n">
-        <v>85.91</v>
-      </c>
-      <c r="D132" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E132" t="n">
-        <v>85.91</v>
-      </c>
-      <c r="F132" t="n">
-        <v>11785.279</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-623108.3968692147</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="C133" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="D133" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="E133" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2248.1654</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-625356.5622692148</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C134" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="D134" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E134" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="F134" t="n">
-        <v>105.5622</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-625462.1244692148</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C135" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="D135" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E135" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8754</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-625462.1244692148</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C136" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D136" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E136" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2874.4367</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="C137" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D137" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E137" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1107.6401</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="C138" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D138" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E138" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F138" t="n">
-        <v>9.3599</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C139" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D139" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E139" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F139" t="n">
-        <v>497.6193</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C140" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D140" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E140" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F140" t="n">
-        <v>619</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C141" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D141" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E141" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F141" t="n">
-        <v>558</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C142" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D142" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E142" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F142" t="n">
-        <v>558</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="C143" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D143" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E143" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1252.5294</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-629091.4712692148</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>85.52</v>
-      </c>
-      <c r="C144" t="n">
-        <v>84.62</v>
-      </c>
-      <c r="D144" t="n">
-        <v>85.52</v>
-      </c>
-      <c r="E144" t="n">
-        <v>84.62</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1533.9901</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-630625.4613692148</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="C145" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="D145" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="E145" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-631625.4613692148</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C146" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="D146" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E146" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-631615.4613692148</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="K146" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C147" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="D147" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E147" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3903.7535</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-631615.4613692148</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="C148" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="D148" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="E148" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="F148" t="n">
-        <v>13184</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-644799.4613692148</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>85.63</v>
-      </c>
-      <c r="C149" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D149" t="n">
-        <v>85.63</v>
-      </c>
-      <c r="E149" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2167.5956</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-642631.8657692148</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="C150" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="D150" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E150" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5093.8586</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-647725.7243692148</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="C151" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="D151" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="E151" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="F151" t="n">
-        <v>570</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-647155.7243692148</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="C152" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="D152" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="E152" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="F152" t="n">
-        <v>81.07482047718322</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-647074.6495487377</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="C153" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="D153" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="E153" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="F153" t="n">
-        <v>50589.4092</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-697664.0587487377</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>85.95999999999999</v>
-      </c>
-      <c r="C154" t="n">
-        <v>85.97</v>
-      </c>
-      <c r="D154" t="n">
-        <v>85.97</v>
-      </c>
-      <c r="E154" t="n">
-        <v>85.95999999999999</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-695664.0587487377</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="D155" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="E155" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7455.4851</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-688208.5736487376</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="C156" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="D156" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="E156" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="F156" t="n">
-        <v>6081.3766</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-694289.9502487376</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>86</v>
-      </c>
-      <c r="C157" t="n">
-        <v>86</v>
-      </c>
-      <c r="D157" t="n">
-        <v>86</v>
-      </c>
-      <c r="E157" t="n">
-        <v>86</v>
-      </c>
-      <c r="F157" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-684289.9502487376</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C158" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E158" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7455.4851</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-691745.4353487376</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-691745.4353487376</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C160" t="n">
-        <v>85</v>
-      </c>
-      <c r="D160" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>85</v>
-      </c>
-      <c r="F160" t="n">
-        <v>26086.0757</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-717831.5110487377</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>86</v>
-      </c>
-      <c r="C161" t="n">
-        <v>86</v>
-      </c>
-      <c r="D161" t="n">
-        <v>86</v>
-      </c>
-      <c r="E161" t="n">
-        <v>86</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1971</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-715860.5110487377</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>86</v>
-      </c>
-      <c r="C162" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="D162" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="E162" t="n">
-        <v>86</v>
-      </c>
-      <c r="F162" t="n">
-        <v>7026.1832</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-708834.3278487377</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="C163" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="D163" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="E163" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6144.0743</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-714978.4021487377</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="C164" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="D164" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="E164" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="F164" t="n">
-        <v>115.9689203293517</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-714862.4332284083</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="C165" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="F165" t="n">
-        <v>8077.1347</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-722939.5679284084</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3800.711475612602</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-719138.8564527958</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="D167" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="E167" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1811.7953</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-720950.6517527958</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="C168" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="D168" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="E168" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="F168" t="n">
-        <v>11037.947</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-709912.7047527957</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="C169" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="D169" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="E169" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5629.5192</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-709912.7047527957</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
+      <c r="N127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.58</v>
+        <v>84.31</v>
       </c>
       <c r="C2" t="n">
-        <v>84.3</v>
+        <v>84.09</v>
       </c>
       <c r="D2" t="n">
-        <v>84.3</v>
+        <v>84.31</v>
       </c>
       <c r="E2" t="n">
-        <v>83.58</v>
+        <v>84.09</v>
       </c>
       <c r="F2" t="n">
-        <v>2193</v>
+        <v>5288.8228</v>
       </c>
       <c r="G2" t="n">
-        <v>-394600.1499254261</v>
+        <v>38363.01458912837</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.58</v>
+        <v>84.2</v>
       </c>
       <c r="C3" t="n">
-        <v>83.56999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="D3" t="n">
-        <v>83.58</v>
+        <v>84.2</v>
       </c>
       <c r="E3" t="n">
-        <v>83.56999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="F3" t="n">
-        <v>63605.2143</v>
+        <v>324.0504</v>
       </c>
       <c r="G3" t="n">
-        <v>-458205.364225426</v>
+        <v>38687.06498912837</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.89</v>
+        <v>84.31</v>
       </c>
       <c r="C4" t="n">
-        <v>83.89</v>
+        <v>84.31</v>
       </c>
       <c r="D4" t="n">
-        <v>83.89</v>
+        <v>84.31</v>
       </c>
       <c r="E4" t="n">
-        <v>83.89</v>
+        <v>84.31</v>
       </c>
       <c r="F4" t="n">
-        <v>3162.8935</v>
+        <v>593.0494603249911</v>
       </c>
       <c r="G4" t="n">
-        <v>-455042.470725426</v>
+        <v>39280.11444945336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="C5" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="D5" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="E5" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="F5" t="n">
-        <v>2986</v>
+        <v>5942.1234</v>
       </c>
       <c r="G5" t="n">
-        <v>-458028.470725426</v>
+        <v>33337.99104945335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="C6" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="D6" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="E6" t="n">
-        <v>83.56999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="F6" t="n">
-        <v>8958</v>
+        <v>1688.8503</v>
       </c>
       <c r="G6" t="n">
-        <v>-458028.470725426</v>
+        <v>33337.99104945335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83.56999999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>83.56999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>83.56999999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>83.56999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1425.9086</v>
+        <v>34688.0818</v>
       </c>
       <c r="G7" t="n">
-        <v>-458028.470725426</v>
+        <v>-1350.090750546646</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83.54000000000001</v>
+        <v>83.83</v>
       </c>
       <c r="C8" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>83.54000000000001</v>
+        <v>83.83</v>
       </c>
       <c r="E8" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1493</v>
+        <v>22912.7061</v>
       </c>
       <c r="G8" t="n">
-        <v>-459521.470725426</v>
+        <v>-1350.090750546646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83.54000000000001</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>83.54000000000001</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>10850.7904</v>
+        <v>17184.5296</v>
       </c>
       <c r="G9" t="n">
-        <v>-459521.470725426</v>
+        <v>-1350.090750546646</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83.54000000000001</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>83.54000000000001</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1493</v>
+        <v>12888.3972</v>
       </c>
       <c r="G10" t="n">
-        <v>-459521.470725426</v>
+        <v>-1350.090750546646</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>83.5</v>
+        <v>82.53</v>
       </c>
       <c r="D11" t="n">
-        <v>83.54000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>83.5</v>
+        <v>82.53</v>
       </c>
       <c r="F11" t="n">
-        <v>1585.4435</v>
+        <v>5664.7312</v>
       </c>
       <c r="G11" t="n">
-        <v>-461106.914225426</v>
+        <v>-7014.821950546646</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83.5</v>
+        <v>82.53</v>
       </c>
       <c r="C12" t="n">
-        <v>83.5</v>
+        <v>82.52</v>
       </c>
       <c r="D12" t="n">
-        <v>83.5</v>
+        <v>82.53</v>
       </c>
       <c r="E12" t="n">
-        <v>83.5</v>
+        <v>82.52</v>
       </c>
       <c r="F12" t="n">
-        <v>954.0246</v>
+        <v>81133.42849999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-461106.914225426</v>
+        <v>-88148.25045054663</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,35 +834,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83.2</v>
+        <v>82.52</v>
       </c>
       <c r="C13" t="n">
-        <v>83.2</v>
+        <v>82.52</v>
       </c>
       <c r="D13" t="n">
-        <v>83.2</v>
+        <v>82.52</v>
       </c>
       <c r="E13" t="n">
-        <v>83.2</v>
+        <v>82.52</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9576</v>
+        <v>1325.8325</v>
       </c>
       <c r="G13" t="n">
-        <v>-461431.8718254261</v>
+        <v>-88148.25045054663</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>83.5</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -874,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.2</v>
+        <v>82.53</v>
       </c>
       <c r="C14" t="n">
-        <v>83.2</v>
+        <v>82.48</v>
       </c>
       <c r="D14" t="n">
-        <v>83.2</v>
+        <v>82.53</v>
       </c>
       <c r="E14" t="n">
-        <v>83.2</v>
+        <v>82.48</v>
       </c>
       <c r="F14" t="n">
-        <v>421.711</v>
+        <v>9666.2979</v>
       </c>
       <c r="G14" t="n">
-        <v>-461431.8718254261</v>
+        <v>-97814.54835054664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -916,38 +906,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83.2</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>83.12</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>83.2</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>83.12</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>6781.3992</v>
+        <v>7249.7234</v>
       </c>
       <c r="G15" t="n">
-        <v>-468213.271025426</v>
+        <v>-90564.82495054664</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>82.48</v>
+      </c>
       <c r="K15" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>82.48</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -958,36 +946,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83.12</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>83.12</v>
+        <v>82.48</v>
       </c>
       <c r="D16" t="n">
-        <v>83.12</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>83.12</v>
+        <v>82.48</v>
       </c>
       <c r="F16" t="n">
-        <v>319.4393</v>
+        <v>5437.2925</v>
       </c>
       <c r="G16" t="n">
-        <v>-468213.271025426</v>
+        <v>-96002.11745054663</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>82.48999999999999</v>
+      </c>
       <c r="K16" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1000,32 +990,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83.05</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>83.05</v>
+        <v>82.48</v>
       </c>
       <c r="D17" t="n">
-        <v>83.05</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>83.05</v>
+        <v>82.48</v>
       </c>
       <c r="F17" t="n">
-        <v>1493</v>
+        <v>4077.9694</v>
       </c>
       <c r="G17" t="n">
-        <v>-469706.271025426</v>
+        <v>-96002.11745054663</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>82.48</v>
+      </c>
       <c r="K17" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1042,32 +1034,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83.05</v>
+        <v>82.61</v>
       </c>
       <c r="C18" t="n">
-        <v>83.05</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>83.05</v>
+        <v>82.61</v>
       </c>
       <c r="E18" t="n">
-        <v>83.05</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>4479</v>
+        <v>3079.231</v>
       </c>
       <c r="G18" t="n">
-        <v>-469706.271025426</v>
+        <v>-92922.88645054663</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>82.48</v>
+      </c>
       <c r="K18" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1084,32 +1078,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83.05</v>
+        <v>82.64</v>
       </c>
       <c r="C19" t="n">
-        <v>83.05</v>
+        <v>82.64</v>
       </c>
       <c r="D19" t="n">
-        <v>83.05</v>
+        <v>82.64</v>
       </c>
       <c r="E19" t="n">
-        <v>83.05</v>
+        <v>82.64</v>
       </c>
       <c r="F19" t="n">
-        <v>13242.96</v>
+        <v>1344.3946</v>
       </c>
       <c r="G19" t="n">
-        <v>-469706.271025426</v>
+        <v>-91578.49185054663</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>82.59999999999999</v>
+      </c>
       <c r="K19" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1126,32 +1122,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83.05</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>82.88</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>83.05</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>82.88</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>22080.8452</v>
+        <v>9354.2608</v>
       </c>
       <c r="G20" t="n">
-        <v>-491787.116225426</v>
+        <v>-82224.23105054663</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>82.64</v>
+      </c>
       <c r="K20" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1168,32 +1166,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82.72</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>82.64</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>82.72</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>82.64</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>1165.7231</v>
+        <v>27027.0252</v>
       </c>
       <c r="G21" t="n">
-        <v>-492952.839325426</v>
+        <v>-82224.23105054663</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>82.65000000000001</v>
+      </c>
       <c r="K21" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1210,32 +1210,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82.87</v>
+        <v>82.64</v>
       </c>
       <c r="C22" t="n">
-        <v>84.06999999999999</v>
+        <v>82.62</v>
       </c>
       <c r="D22" t="n">
-        <v>84.06999999999999</v>
+        <v>82.64</v>
       </c>
       <c r="E22" t="n">
-        <v>82.87</v>
+        <v>82.62</v>
       </c>
       <c r="F22" t="n">
-        <v>33621.8299</v>
+        <v>4650.9391</v>
       </c>
       <c r="G22" t="n">
-        <v>-459331.009425426</v>
+        <v>-86875.17015054663</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>82.65000000000001</v>
+      </c>
       <c r="K22" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1252,32 +1254,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>84.06</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>82.64</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>84.06</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>82.64</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>26883.6042</v>
       </c>
       <c r="G23" t="n">
-        <v>-459351.009425426</v>
+        <v>-59991.56595054663</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>82.62</v>
+      </c>
       <c r="K23" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1294,22 +1298,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>84.05</v>
+        <v>83.64</v>
       </c>
       <c r="C24" t="n">
-        <v>84.05</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>84.05</v>
+        <v>83.64</v>
       </c>
       <c r="E24" t="n">
-        <v>84.05</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>118.9767995240928</v>
+        <v>13441.8021</v>
       </c>
       <c r="G24" t="n">
-        <v>-459232.0326259019</v>
+        <v>-73433.36805054663</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1319,7 +1323,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1336,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>84.04000000000001</v>
+        <v>84.45</v>
       </c>
       <c r="C25" t="n">
-        <v>82.75</v>
+        <v>84.45</v>
       </c>
       <c r="D25" t="n">
-        <v>84.04000000000001</v>
+        <v>84.45</v>
       </c>
       <c r="E25" t="n">
-        <v>82.75</v>
+        <v>84.45</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>8591.9118</v>
       </c>
       <c r="G25" t="n">
-        <v>-459268.0326259019</v>
+        <v>-64841.45625054663</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1361,7 +1365,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1378,22 +1382,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>84.04000000000001</v>
+        <v>84.44</v>
       </c>
       <c r="C26" t="n">
-        <v>84.04000000000001</v>
+        <v>84.44</v>
       </c>
       <c r="D26" t="n">
-        <v>84.04000000000001</v>
+        <v>84.44</v>
       </c>
       <c r="E26" t="n">
-        <v>84.04000000000001</v>
+        <v>84.44</v>
       </c>
       <c r="F26" t="n">
-        <v>118.9909566872918</v>
+        <v>34537.6989</v>
       </c>
       <c r="G26" t="n">
-        <v>-459149.0416692146</v>
+        <v>-99379.15515054663</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1403,7 +1407,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1420,22 +1424,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82.81999999999999</v>
+        <v>83.77</v>
       </c>
       <c r="C27" t="n">
-        <v>82.81999999999999</v>
+        <v>83.77</v>
       </c>
       <c r="D27" t="n">
-        <v>82.81999999999999</v>
+        <v>83.77</v>
       </c>
       <c r="E27" t="n">
-        <v>82.81999999999999</v>
+        <v>83.77</v>
       </c>
       <c r="F27" t="n">
-        <v>2282.5436</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="n">
-        <v>-461431.5852692146</v>
+        <v>-109379.1551505466</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1445,7 +1449,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1462,22 +1466,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84.03</v>
+        <v>83.44</v>
       </c>
       <c r="C28" t="n">
-        <v>82.59999999999999</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>84.03</v>
+        <v>83.44</v>
       </c>
       <c r="E28" t="n">
-        <v>82.59999999999999</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>115646.8576</v>
+        <v>21755.5301</v>
       </c>
       <c r="G28" t="n">
-        <v>-577078.4428692146</v>
+        <v>-131134.6852505466</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1504,22 +1508,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82.73</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>82.73</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>82.73</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>82.73</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1494</v>
+        <v>144.5065</v>
       </c>
       <c r="G29" t="n">
-        <v>-575584.4428692146</v>
+        <v>-131134.6852505466</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1529,7 +1533,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1546,22 +1550,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>84.04000000000001</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>84.04000000000001</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>23189.1941</v>
+        <v>373</v>
       </c>
       <c r="G30" t="n">
-        <v>-552395.2487692146</v>
+        <v>-130761.6852505466</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1571,7 +1575,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1588,22 +1592,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>26000</v>
+        <v>3524.672</v>
       </c>
       <c r="G31" t="n">
-        <v>-552395.2487692146</v>
+        <v>-130761.6852505466</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1613,7 +1617,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1630,22 +1634,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="C32" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="D32" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="E32" t="n">
-        <v>84.05</v>
+        <v>83.5</v>
       </c>
       <c r="F32" t="n">
-        <v>385.0259</v>
+        <v>39440.699</v>
       </c>
       <c r="G32" t="n">
-        <v>-552395.2487692146</v>
+        <v>-170202.3842505466</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1655,7 +1659,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1672,22 +1676,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84.37</v>
+        <v>83.5</v>
       </c>
       <c r="C33" t="n">
-        <v>84.37</v>
+        <v>83.5</v>
       </c>
       <c r="D33" t="n">
-        <v>84.37</v>
+        <v>83.5</v>
       </c>
       <c r="E33" t="n">
-        <v>84.37</v>
+        <v>83.5</v>
       </c>
       <c r="F33" t="n">
-        <v>1500</v>
+        <v>559.301</v>
       </c>
       <c r="G33" t="n">
-        <v>-550895.2487692146</v>
+        <v>-170202.3842505466</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1697,7 +1701,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1714,22 +1718,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>84.05</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>425.78</v>
+        <v>1240.9936</v>
       </c>
       <c r="G34" t="n">
-        <v>-551321.0287692146</v>
+        <v>-168961.3906505466</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1739,7 +1743,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1756,22 +1760,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="C35" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D35" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="E35" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F35" t="n">
-        <v>594.9548</v>
+        <v>769.9395</v>
       </c>
       <c r="G35" t="n">
-        <v>-551915.9835692146</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1781,7 +1785,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1798,22 +1802,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84.04000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D36" t="n">
-        <v>84.04000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F36" t="n">
-        <v>4008</v>
+        <v>18357.9715</v>
       </c>
       <c r="G36" t="n">
-        <v>-551915.9835692146</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1823,7 +1827,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1840,34 +1844,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="C37" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D37" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="E37" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F37" t="n">
-        <v>3917.8359</v>
+        <v>5864.8565</v>
       </c>
       <c r="G37" t="n">
-        <v>-551915.9835692146</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>84.04000000000001</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1884,34 +1886,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="C38" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D38" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="E38" t="n">
-        <v>84.04000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>252.0977</v>
       </c>
       <c r="G38" t="n">
-        <v>-551915.9835692146</v>
+        <v>-169731.3301505467</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>84.04000000000001</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1928,34 +1928,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="C39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="D39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="E39" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="F39" t="n">
-        <v>8059.7963</v>
+        <v>4768.176</v>
       </c>
       <c r="G39" t="n">
-        <v>-551915.9835692146</v>
+        <v>-174499.5061505467</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>84.04000000000001</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1972,34 +1970,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="C40" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="D40" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="E40" t="n">
-        <v>84.04000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1314.9615</v>
+        <v>1348.7782</v>
       </c>
       <c r="G40" t="n">
-        <v>-551915.9835692146</v>
+        <v>-174499.5061505467</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>84.04000000000001</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2016,34 +2012,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.04000000000001</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>84.04000000000001</v>
+        <v>84.22</v>
       </c>
       <c r="D41" t="n">
-        <v>84.04000000000001</v>
+        <v>84.22</v>
       </c>
       <c r="E41" t="n">
-        <v>84.04000000000001</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1777.7695</v>
+        <v>47112.9947</v>
       </c>
       <c r="G41" t="n">
-        <v>-551915.9835692146</v>
+        <v>-127386.5114505466</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>84.04000000000001</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2060,34 +2054,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.05</v>
+        <v>84.22</v>
       </c>
       <c r="C42" t="n">
-        <v>84.05</v>
+        <v>84.22</v>
       </c>
       <c r="D42" t="n">
-        <v>84.05</v>
+        <v>84.22</v>
       </c>
       <c r="E42" t="n">
-        <v>84.05</v>
+        <v>84.22</v>
       </c>
       <c r="F42" t="n">
-        <v>75.59610000000001</v>
+        <v>2610.0865</v>
       </c>
       <c r="G42" t="n">
-        <v>-551840.3874692146</v>
+        <v>-127386.5114505466</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>84.04000000000001</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2104,22 +2096,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.38</v>
+        <v>84.42</v>
       </c>
       <c r="C43" t="n">
-        <v>85</v>
+        <v>84.44</v>
       </c>
       <c r="D43" t="n">
-        <v>85</v>
+        <v>84.44</v>
       </c>
       <c r="E43" t="n">
-        <v>84.38</v>
+        <v>84.42</v>
       </c>
       <c r="F43" t="n">
-        <v>45526.7258</v>
+        <v>6533.9251</v>
       </c>
       <c r="G43" t="n">
-        <v>-506313.6616692146</v>
+        <v>-120852.5863505467</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2129,7 +2121,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2146,22 +2138,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85</v>
+        <v>84.44</v>
       </c>
       <c r="C44" t="n">
-        <v>85</v>
+        <v>84.48</v>
       </c>
       <c r="D44" t="n">
-        <v>85</v>
+        <v>84.48</v>
       </c>
       <c r="E44" t="n">
-        <v>85</v>
+        <v>84.44</v>
       </c>
       <c r="F44" t="n">
-        <v>6955.5909</v>
+        <v>14999.2296</v>
       </c>
       <c r="G44" t="n">
-        <v>-506313.6616692146</v>
+        <v>-105853.3567505466</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2171,7 +2163,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2188,7 +2180,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85</v>
+        <v>84.94</v>
       </c>
       <c r="C45" t="n">
         <v>85</v>
@@ -2197,13 +2189,13 @@
         <v>85</v>
       </c>
       <c r="E45" t="n">
-        <v>85</v>
+        <v>84.94</v>
       </c>
       <c r="F45" t="n">
-        <v>2440.2029</v>
+        <v>16521.3601</v>
       </c>
       <c r="G45" t="n">
-        <v>-506313.6616692146</v>
+        <v>-89331.99665054664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2213,7 +2205,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2230,22 +2222,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>85.09</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>85.09</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>9403.5399</v>
+        <v>3803.9872</v>
       </c>
       <c r="G46" t="n">
-        <v>-506313.6616692146</v>
+        <v>-93135.98385054665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2255,7 +2247,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2272,7 +2264,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C47" t="n">
         <v>85</v>
@@ -2281,13 +2273,13 @@
         <v>85</v>
       </c>
       <c r="E47" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1669.2134</v>
+        <v>6162.7415</v>
       </c>
       <c r="G47" t="n">
-        <v>-506313.6616692146</v>
+        <v>-86973.24235054664</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2297,7 +2289,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2314,22 +2306,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>85.90000000000001</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>85.90000000000001</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>85.90000000000001</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>85.90000000000001</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>1493</v>
       </c>
       <c r="G48" t="n">
-        <v>-506305.6616692146</v>
+        <v>-88466.24235054664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2339,7 +2331,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2356,22 +2348,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>85</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>62.8928</v>
+        <v>552.7134</v>
       </c>
       <c r="G49" t="n">
-        <v>-506368.5544692146</v>
+        <v>-88466.24235054664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2381,7 +2373,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2398,22 +2390,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85</v>
+        <v>84.03</v>
       </c>
       <c r="C50" t="n">
-        <v>84.20999999999999</v>
+        <v>84.03</v>
       </c>
       <c r="D50" t="n">
-        <v>86.68000000000001</v>
+        <v>84.03</v>
       </c>
       <c r="E50" t="n">
-        <v>84.2</v>
+        <v>84.03</v>
       </c>
       <c r="F50" t="n">
-        <v>47985.8381</v>
+        <v>3862.5147</v>
       </c>
       <c r="G50" t="n">
-        <v>-554354.3925692146</v>
+        <v>-92328.75705054664</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2423,7 +2415,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2440,22 +2432,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>86.39</v>
+        <v>84.03</v>
       </c>
       <c r="C51" t="n">
-        <v>86.78</v>
+        <v>82.64</v>
       </c>
       <c r="D51" t="n">
-        <v>86.78</v>
+        <v>84.03</v>
       </c>
       <c r="E51" t="n">
-        <v>84.20999999999999</v>
+        <v>82.64</v>
       </c>
       <c r="F51" t="n">
-        <v>6560.6954</v>
+        <v>304028.3907</v>
       </c>
       <c r="G51" t="n">
-        <v>-547793.6971692146</v>
+        <v>-396357.1477505466</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2465,7 +2457,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2482,22 +2474,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>86.39</v>
+        <v>84.22</v>
       </c>
       <c r="C52" t="n">
-        <v>86.78</v>
+        <v>85.09</v>
       </c>
       <c r="D52" t="n">
-        <v>87.48</v>
+        <v>85.09</v>
       </c>
       <c r="E52" t="n">
-        <v>84.26000000000001</v>
+        <v>84.22</v>
       </c>
       <c r="F52" t="n">
-        <v>12960.7919</v>
+        <v>13309.11128974793</v>
       </c>
       <c r="G52" t="n">
-        <v>-547793.6971692146</v>
+        <v>-383048.0364607987</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2507,7 +2499,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2524,22 +2516,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>86.78</v>
+        <v>83.03</v>
       </c>
       <c r="C53" t="n">
-        <v>87.38</v>
+        <v>83.03</v>
       </c>
       <c r="D53" t="n">
-        <v>87.38</v>
+        <v>83.03</v>
       </c>
       <c r="E53" t="n">
-        <v>84.29000000000001</v>
+        <v>83.03</v>
       </c>
       <c r="F53" t="n">
-        <v>50495.321</v>
+        <v>15652.391</v>
       </c>
       <c r="G53" t="n">
-        <v>-497298.3761692146</v>
+        <v>-398700.4274607987</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2549,7 +2541,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2566,22 +2558,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>87.3</v>
+        <v>83.03</v>
       </c>
       <c r="C54" t="n">
-        <v>87.19</v>
+        <v>83.03</v>
       </c>
       <c r="D54" t="n">
-        <v>87.3</v>
+        <v>83.03</v>
       </c>
       <c r="E54" t="n">
-        <v>87.19</v>
+        <v>83.03</v>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>13550.6619</v>
       </c>
       <c r="G54" t="n">
-        <v>-497318.3761692146</v>
+        <v>-398700.4274607987</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2591,7 +2583,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2608,22 +2600,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>86.75</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>86.75</v>
+        <v>84.89</v>
       </c>
       <c r="D55" t="n">
-        <v>86.75</v>
+        <v>84.89</v>
       </c>
       <c r="E55" t="n">
-        <v>86.75</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>4748.391</v>
       </c>
       <c r="G55" t="n">
-        <v>-497326.3761692146</v>
+        <v>-393952.0364607987</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2633,7 +2625,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2650,22 +2642,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>86.75</v>
+        <v>84.8</v>
       </c>
       <c r="C56" t="n">
-        <v>86.75</v>
+        <v>84.8</v>
       </c>
       <c r="D56" t="n">
-        <v>86.75</v>
+        <v>84.8</v>
       </c>
       <c r="E56" t="n">
-        <v>86.75</v>
+        <v>84.8</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>6.415</v>
       </c>
       <c r="G56" t="n">
-        <v>-497326.3761692146</v>
+        <v>-393958.4514607987</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2675,7 +2667,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2692,22 +2684,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>86.75</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>86.75</v>
+        <v>84</v>
       </c>
       <c r="D57" t="n">
-        <v>86.75</v>
+        <v>84</v>
       </c>
       <c r="E57" t="n">
-        <v>86.75</v>
+        <v>84</v>
       </c>
       <c r="F57" t="n">
-        <v>7766.4107</v>
+        <v>3572.6004</v>
       </c>
       <c r="G57" t="n">
-        <v>-497326.3761692146</v>
+        <v>-397531.0518607987</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2717,7 +2709,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2734,22 +2726,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>86.65000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>86.65000000000001</v>
+        <v>83.22</v>
       </c>
       <c r="D58" t="n">
-        <v>86.65000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>86.65000000000001</v>
+        <v>83.22</v>
       </c>
       <c r="F58" t="n">
-        <v>15.789</v>
+        <v>36</v>
       </c>
       <c r="G58" t="n">
-        <v>-497342.1651692146</v>
+        <v>-397567.0518607987</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2759,7 +2751,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2776,22 +2768,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>86.64</v>
+        <v>83.98</v>
       </c>
       <c r="C59" t="n">
-        <v>86.76000000000001</v>
+        <v>83.98</v>
       </c>
       <c r="D59" t="n">
-        <v>86.76000000000001</v>
+        <v>83.98</v>
       </c>
       <c r="E59" t="n">
-        <v>86.64</v>
+        <v>83.98</v>
       </c>
       <c r="F59" t="n">
-        <v>48.677</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>-497293.4881692146</v>
+        <v>-397517.0518607987</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2801,7 +2793,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2818,32 +2810,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>86.76000000000001</v>
+        <v>83.23</v>
       </c>
       <c r="C60" t="n">
-        <v>86.8</v>
+        <v>83.23</v>
       </c>
       <c r="D60" t="n">
-        <v>86.8</v>
+        <v>83.23</v>
       </c>
       <c r="E60" t="n">
-        <v>86.76000000000001</v>
+        <v>83.23</v>
       </c>
       <c r="F60" t="n">
-        <v>55387.3084</v>
+        <v>25</v>
       </c>
       <c r="G60" t="n">
-        <v>-441906.1797692146</v>
+        <v>-397542.0518607987</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>83.98</v>
+      </c>
       <c r="K60" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2860,40 +2854,42 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>86.8</v>
+        <v>83.97</v>
       </c>
       <c r="C61" t="n">
-        <v>85.73</v>
+        <v>83.98</v>
       </c>
       <c r="D61" t="n">
-        <v>86.8</v>
+        <v>83.98</v>
       </c>
       <c r="E61" t="n">
-        <v>85.73</v>
+        <v>83.97</v>
       </c>
       <c r="F61" t="n">
-        <v>1555.1935</v>
+        <v>5790.8762</v>
       </c>
       <c r="G61" t="n">
-        <v>-443461.3732692146</v>
+        <v>-391751.1756607987</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>83.23</v>
+      </c>
       <c r="K61" t="n">
-        <v>83.5</v>
+        <v>82.48</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1.021706586826348</v>
+        <v>1</v>
       </c>
       <c r="N61" t="inlineStr"/>
     </row>
@@ -2902,32 +2898,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>87.29000000000001</v>
+        <v>83.97</v>
       </c>
       <c r="C62" t="n">
-        <v>86.09999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="D62" t="n">
-        <v>87.29000000000001</v>
+        <v>83.97</v>
       </c>
       <c r="E62" t="n">
-        <v>86.09999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="F62" t="n">
-        <v>189.8829</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>-443271.4903692146</v>
+        <v>-391951.1756607987</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="K62" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2938,32 +2942,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>87.29000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>87.29000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>87.29000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>87.29000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>14.9743</v>
+        <v>415.0013</v>
       </c>
       <c r="G63" t="n">
-        <v>-443256.5160692146</v>
+        <v>-391536.1743607987</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>83.97</v>
+      </c>
+      <c r="K63" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2974,32 +2986,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>85.27</v>
+        <v>83.98</v>
       </c>
       <c r="C64" t="n">
-        <v>85.27</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>85.27</v>
+        <v>83.98</v>
       </c>
       <c r="E64" t="n">
-        <v>85.27</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G64" t="n">
-        <v>-443266.5160692146</v>
+        <v>-391572.1743607987</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="K64" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3010,32 +3030,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>85.27</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>87.2</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>87.2</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>85.27</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>1270.2613</v>
+        <v>3386.4612</v>
       </c>
       <c r="G65" t="n">
-        <v>-441996.2547692145</v>
+        <v>-388185.7131607987</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>83.26000000000001</v>
+      </c>
+      <c r="K65" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3046,32 +3074,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="C66" t="n">
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="D66" t="n">
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="E66" t="n">
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="F66" t="n">
-        <v>2167.5956</v>
+        <v>1493</v>
       </c>
       <c r="G66" t="n">
-        <v>-444163.8503692145</v>
+        <v>-389678.7131607987</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3082,32 +3118,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>85.66</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>84.03</v>
+        <v>83.52</v>
       </c>
       <c r="D67" t="n">
-        <v>85.66</v>
+        <v>83.52</v>
       </c>
       <c r="E67" t="n">
-        <v>84.03</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>168246.9495</v>
+        <v>2986</v>
       </c>
       <c r="G67" t="n">
-        <v>-612410.7998692145</v>
+        <v>-386692.7131607987</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3118,32 +3162,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>85.81999999999999</v>
+        <v>83.52</v>
       </c>
       <c r="C68" t="n">
-        <v>85.83</v>
+        <v>83.52</v>
       </c>
       <c r="D68" t="n">
-        <v>85.83</v>
+        <v>83.52</v>
       </c>
       <c r="E68" t="n">
-        <v>85.81999999999999</v>
+        <v>83.52</v>
       </c>
       <c r="F68" t="n">
-        <v>2986</v>
+        <v>1493</v>
       </c>
       <c r="G68" t="n">
-        <v>-609424.7998692145</v>
+        <v>-386692.7131607987</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3154,32 +3206,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>85.83</v>
+        <v>83.5</v>
       </c>
       <c r="C69" t="n">
-        <v>85.76000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D69" t="n">
-        <v>85.83</v>
+        <v>83.5</v>
       </c>
       <c r="E69" t="n">
-        <v>85.76000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F69" t="n">
-        <v>16205.9388</v>
+        <v>6182.2606</v>
       </c>
       <c r="G69" t="n">
-        <v>-625630.7386692145</v>
+        <v>-392874.9737607986</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="K69" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3190,32 +3250,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>85.76000000000001</v>
+        <v>84</v>
       </c>
       <c r="C70" t="n">
-        <v>85.76000000000001</v>
+        <v>84.64</v>
       </c>
       <c r="D70" t="n">
-        <v>85.76000000000001</v>
+        <v>84.64</v>
       </c>
       <c r="E70" t="n">
-        <v>85.76000000000001</v>
+        <v>84</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>237.8356347826087</v>
       </c>
       <c r="G70" t="n">
-        <v>-625630.7386692145</v>
+        <v>-392637.138126016</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3226,32 +3294,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>85</v>
+        <v>84.58</v>
       </c>
       <c r="C71" t="n">
-        <v>85.53</v>
+        <v>84.58</v>
       </c>
       <c r="D71" t="n">
-        <v>85.53</v>
+        <v>84.58</v>
       </c>
       <c r="E71" t="n">
-        <v>85</v>
+        <v>84.58</v>
       </c>
       <c r="F71" t="n">
-        <v>7446.613</v>
+        <v>6</v>
       </c>
       <c r="G71" t="n">
-        <v>-633077.3516692145</v>
+        <v>-392643.138126016</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>84.64</v>
+      </c>
+      <c r="K71" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +3338,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>85.68000000000001</v>
+        <v>84.75</v>
       </c>
       <c r="C72" t="n">
-        <v>85.53</v>
+        <v>84.75</v>
       </c>
       <c r="D72" t="n">
-        <v>85.68000000000001</v>
+        <v>84.75</v>
       </c>
       <c r="E72" t="n">
-        <v>85.53</v>
+        <v>84.75</v>
       </c>
       <c r="F72" t="n">
-        <v>4883.9061</v>
+        <v>235.9882005899705</v>
       </c>
       <c r="G72" t="n">
-        <v>-633077.3516692145</v>
+        <v>-392407.1499254261</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3286,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3380,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>85.11</v>
+        <v>83.58</v>
       </c>
       <c r="C73" t="n">
-        <v>85.84</v>
+        <v>84.3</v>
       </c>
       <c r="D73" t="n">
-        <v>85.84</v>
+        <v>84.3</v>
       </c>
       <c r="E73" t="n">
-        <v>85.11</v>
+        <v>83.58</v>
       </c>
       <c r="F73" t="n">
-        <v>14071.3647</v>
+        <v>2193</v>
       </c>
       <c r="G73" t="n">
-        <v>-619005.9869692145</v>
+        <v>-394600.1499254261</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3322,8 +3404,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3334,22 +3422,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>85.78</v>
+        <v>83.58</v>
       </c>
       <c r="C74" t="n">
-        <v>86</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>86</v>
+        <v>83.58</v>
       </c>
       <c r="E74" t="n">
-        <v>85.78</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>20902.4258</v>
+        <v>63605.2143</v>
       </c>
       <c r="G74" t="n">
-        <v>-598103.5611692145</v>
+        <v>-458205.364225426</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3358,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3464,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>86</v>
+        <v>83.89</v>
       </c>
       <c r="C75" t="n">
-        <v>86.18000000000001</v>
+        <v>83.89</v>
       </c>
       <c r="D75" t="n">
-        <v>86.18000000000001</v>
+        <v>83.89</v>
       </c>
       <c r="E75" t="n">
-        <v>85.98999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="F75" t="n">
-        <v>4824.9177</v>
+        <v>3162.8935</v>
       </c>
       <c r="G75" t="n">
-        <v>-593278.6434692146</v>
+        <v>-455042.470725426</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3394,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3406,22 +3506,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>86.45</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>86.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>86.56</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>86.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>11469.2305</v>
+        <v>2986</v>
       </c>
       <c r="G76" t="n">
-        <v>-581809.4129692146</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3430,8 +3530,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3548,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>86.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>86.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>86.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>86.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>1428.6336</v>
+        <v>8958</v>
       </c>
       <c r="G77" t="n">
-        <v>-581809.4129692146</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3466,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3590,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>86.34999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>86.18000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>86.39</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>86.18000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>5071.0864</v>
+        <v>1425.9086</v>
       </c>
       <c r="G78" t="n">
-        <v>-586880.4993692146</v>
+        <v>-458028.470725426</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3502,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3632,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>3400</v>
+        <v>1493</v>
       </c>
       <c r="G79" t="n">
-        <v>-583480.4993692146</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3538,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3550,22 +3674,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>86.23</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>2244.2176</v>
+        <v>10850.7904</v>
       </c>
       <c r="G80" t="n">
-        <v>-583480.4993692146</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3574,8 +3698,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3586,32 +3716,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>86.22</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>86.2</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>86.22</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>86.2</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>40</v>
+        <v>1493</v>
       </c>
       <c r="G81" t="n">
-        <v>-583520.4993692146</v>
+        <v>-459521.470725426</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3622,22 +3758,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>86</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>86</v>
+        <v>83.5</v>
       </c>
       <c r="D82" t="n">
-        <v>86</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>86</v>
+        <v>83.5</v>
       </c>
       <c r="F82" t="n">
-        <v>1400</v>
+        <v>1585.4435</v>
       </c>
       <c r="G82" t="n">
-        <v>-584920.4993692146</v>
+        <v>-461106.914225426</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3646,8 +3782,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3800,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>86</v>
+        <v>83.5</v>
       </c>
       <c r="C83" t="n">
-        <v>85.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="D83" t="n">
-        <v>86</v>
+        <v>83.5</v>
       </c>
       <c r="E83" t="n">
-        <v>85.98999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F83" t="n">
-        <v>43.3061</v>
+        <v>954.0246</v>
       </c>
       <c r="G83" t="n">
-        <v>-584963.8054692147</v>
+        <v>-461106.914225426</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3682,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3694,22 +3842,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>85.98999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="C84" t="n">
-        <v>86.16</v>
+        <v>83.2</v>
       </c>
       <c r="D84" t="n">
-        <v>86.16</v>
+        <v>83.2</v>
       </c>
       <c r="E84" t="n">
-        <v>85.98999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>324.9576</v>
       </c>
       <c r="G84" t="n">
-        <v>-564963.8054692147</v>
+        <v>-461431.8718254261</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3718,8 +3866,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3730,22 +3884,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>86.17</v>
+        <v>83.2</v>
       </c>
       <c r="C85" t="n">
-        <v>86.17</v>
+        <v>83.2</v>
       </c>
       <c r="D85" t="n">
-        <v>86.17</v>
+        <v>83.2</v>
       </c>
       <c r="E85" t="n">
-        <v>86.17</v>
+        <v>83.2</v>
       </c>
       <c r="F85" t="n">
-        <v>766.0612</v>
+        <v>421.711</v>
       </c>
       <c r="G85" t="n">
-        <v>-564197.7442692147</v>
+        <v>-461431.8718254261</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3754,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3766,32 +3926,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>86.17</v>
+        <v>83.2</v>
       </c>
       <c r="C86" t="n">
-        <v>86.17</v>
+        <v>83.12</v>
       </c>
       <c r="D86" t="n">
-        <v>86.17</v>
+        <v>83.2</v>
       </c>
       <c r="E86" t="n">
-        <v>86.17</v>
+        <v>83.12</v>
       </c>
       <c r="F86" t="n">
-        <v>1436.3764</v>
+        <v>6781.3992</v>
       </c>
       <c r="G86" t="n">
-        <v>-564197.7442692147</v>
+        <v>-468213.271025426</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3802,32 +3970,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>86.17</v>
+        <v>83.12</v>
       </c>
       <c r="C87" t="n">
-        <v>86.17</v>
+        <v>83.12</v>
       </c>
       <c r="D87" t="n">
-        <v>86.17</v>
+        <v>83.12</v>
       </c>
       <c r="E87" t="n">
-        <v>86.17</v>
+        <v>83.12</v>
       </c>
       <c r="F87" t="n">
-        <v>861.8422</v>
+        <v>319.4393</v>
       </c>
       <c r="G87" t="n">
-        <v>-564197.7442692147</v>
+        <v>-468213.271025426</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>83.12</v>
+      </c>
+      <c r="K87" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3838,32 +4014,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>85.61</v>
+        <v>83.05</v>
       </c>
       <c r="C88" t="n">
-        <v>85.61</v>
+        <v>83.05</v>
       </c>
       <c r="D88" t="n">
-        <v>86.39</v>
+        <v>83.05</v>
       </c>
       <c r="E88" t="n">
-        <v>85.51000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="F88" t="n">
-        <v>53652.3736</v>
+        <v>1493</v>
       </c>
       <c r="G88" t="n">
-        <v>-617850.1178692147</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>83.12</v>
+      </c>
+      <c r="K88" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3874,32 +4058,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>86.38</v>
+        <v>83.05</v>
       </c>
       <c r="C89" t="n">
-        <v>86.38</v>
+        <v>83.05</v>
       </c>
       <c r="D89" t="n">
-        <v>86.38</v>
+        <v>83.05</v>
       </c>
       <c r="E89" t="n">
-        <v>86.38</v>
+        <v>83.05</v>
       </c>
       <c r="F89" t="n">
-        <v>6527</v>
+        <v>4479</v>
       </c>
       <c r="G89" t="n">
-        <v>-611323.1178692147</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="K89" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3910,32 +4102,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>86.40000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="C90" t="n">
-        <v>85.91</v>
+        <v>83.05</v>
       </c>
       <c r="D90" t="n">
-        <v>86.40000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="E90" t="n">
-        <v>85.91</v>
+        <v>83.05</v>
       </c>
       <c r="F90" t="n">
-        <v>11785.279</v>
+        <v>13242.96</v>
       </c>
       <c r="G90" t="n">
-        <v>-623108.3968692147</v>
+        <v>-469706.271025426</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3946,32 +4146,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>85.84999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="C91" t="n">
-        <v>85.84999999999999</v>
+        <v>82.88</v>
       </c>
       <c r="D91" t="n">
-        <v>85.84999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="E91" t="n">
-        <v>85.84999999999999</v>
+        <v>82.88</v>
       </c>
       <c r="F91" t="n">
-        <v>2248.1654</v>
+        <v>22080.8452</v>
       </c>
       <c r="G91" t="n">
-        <v>-625356.5622692148</v>
+        <v>-491787.116225426</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="K91" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3982,32 +4190,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>85.75</v>
+        <v>82.72</v>
       </c>
       <c r="C92" t="n">
-        <v>85.75</v>
+        <v>82.64</v>
       </c>
       <c r="D92" t="n">
-        <v>85.75</v>
+        <v>82.72</v>
       </c>
       <c r="E92" t="n">
-        <v>85.75</v>
+        <v>82.64</v>
       </c>
       <c r="F92" t="n">
-        <v>105.5622</v>
+        <v>1165.7231</v>
       </c>
       <c r="G92" t="n">
-        <v>-625462.1244692148</v>
+        <v>-492952.839325426</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="K92" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4018,32 +4234,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>85.75</v>
+        <v>82.87</v>
       </c>
       <c r="C93" t="n">
-        <v>85.75</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>85.75</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>85.75</v>
+        <v>82.87</v>
       </c>
       <c r="F93" t="n">
-        <v>8754</v>
+        <v>33621.8299</v>
       </c>
       <c r="G93" t="n">
-        <v>-625462.1244692148</v>
+        <v>-459331.009425426</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K93" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4054,32 +4278,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>85.75</v>
+        <v>84.06</v>
       </c>
       <c r="C94" t="n">
-        <v>85.62</v>
+        <v>82.64</v>
       </c>
       <c r="D94" t="n">
-        <v>85.75</v>
+        <v>84.06</v>
       </c>
       <c r="E94" t="n">
-        <v>85.62</v>
+        <v>82.64</v>
       </c>
       <c r="F94" t="n">
-        <v>2874.4367</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>-628336.5611692148</v>
+        <v>-459351.009425426</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4090,32 +4320,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>85.62</v>
+        <v>84.05</v>
       </c>
       <c r="C95" t="n">
-        <v>85.62</v>
+        <v>84.05</v>
       </c>
       <c r="D95" t="n">
-        <v>85.62</v>
+        <v>84.05</v>
       </c>
       <c r="E95" t="n">
-        <v>85.62</v>
+        <v>84.05</v>
       </c>
       <c r="F95" t="n">
-        <v>1107.6401</v>
+        <v>118.9767995240928</v>
       </c>
       <c r="G95" t="n">
-        <v>-628336.5611692148</v>
+        <v>-459232.0326259019</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4126,32 +4362,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>85.62</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>85.62</v>
+        <v>82.75</v>
       </c>
       <c r="D96" t="n">
-        <v>85.62</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>85.62</v>
+        <v>82.75</v>
       </c>
       <c r="F96" t="n">
-        <v>9.3599</v>
+        <v>36</v>
       </c>
       <c r="G96" t="n">
-        <v>-628336.5611692148</v>
+        <v>-459268.0326259019</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4162,32 +4404,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>85.72</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>85.72</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>85.72</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>85.72</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>497.6193</v>
+        <v>118.9909566872918</v>
       </c>
       <c r="G97" t="n">
-        <v>-627838.9418692148</v>
+        <v>-459149.0416692146</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4198,32 +4446,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>85.72</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>85.72</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>85.72</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>85.72</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>619</v>
+        <v>2282.5436</v>
       </c>
       <c r="G98" t="n">
-        <v>-627838.9418692148</v>
+        <v>-461431.5852692146</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4234,32 +4488,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>85.72</v>
+        <v>84.03</v>
       </c>
       <c r="C99" t="n">
-        <v>85.72</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>85.72</v>
+        <v>84.03</v>
       </c>
       <c r="E99" t="n">
-        <v>85.72</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>558</v>
+        <v>115646.8576</v>
       </c>
       <c r="G99" t="n">
-        <v>-627838.9418692148</v>
+        <v>-577078.4428692146</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4270,32 +4530,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>85.72</v>
+        <v>82.73</v>
       </c>
       <c r="C100" t="n">
-        <v>85.72</v>
+        <v>82.73</v>
       </c>
       <c r="D100" t="n">
-        <v>85.72</v>
+        <v>82.73</v>
       </c>
       <c r="E100" t="n">
-        <v>85.72</v>
+        <v>82.73</v>
       </c>
       <c r="F100" t="n">
-        <v>558</v>
+        <v>1494</v>
       </c>
       <c r="G100" t="n">
-        <v>-627838.9418692148</v>
+        <v>-575584.4428692146</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4306,32 +4572,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>85.62</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>85.62</v>
+        <v>84.05</v>
       </c>
       <c r="D101" t="n">
-        <v>85.62</v>
+        <v>84.05</v>
       </c>
       <c r="E101" t="n">
-        <v>85.62</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1252.5294</v>
+        <v>23189.1941</v>
       </c>
       <c r="G101" t="n">
-        <v>-629091.4712692148</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4342,32 +4614,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>85.52</v>
+        <v>84.05</v>
       </c>
       <c r="C102" t="n">
-        <v>84.62</v>
+        <v>84.05</v>
       </c>
       <c r="D102" t="n">
-        <v>85.52</v>
+        <v>84.05</v>
       </c>
       <c r="E102" t="n">
-        <v>84.62</v>
+        <v>84.05</v>
       </c>
       <c r="F102" t="n">
-        <v>1533.9901</v>
+        <v>26000</v>
       </c>
       <c r="G102" t="n">
-        <v>-630625.4613692148</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +4656,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>84.38</v>
+        <v>84.05</v>
       </c>
       <c r="C103" t="n">
-        <v>84.38</v>
+        <v>84.05</v>
       </c>
       <c r="D103" t="n">
-        <v>84.38</v>
+        <v>84.05</v>
       </c>
       <c r="E103" t="n">
-        <v>84.38</v>
+        <v>84.05</v>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>385.0259</v>
       </c>
       <c r="G103" t="n">
-        <v>-631625.4613692148</v>
+        <v>-552395.2487692146</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4402,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4414,22 +4698,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>86.40000000000001</v>
+        <v>84.37</v>
       </c>
       <c r="C104" t="n">
-        <v>86.40000000000001</v>
+        <v>84.37</v>
       </c>
       <c r="D104" t="n">
-        <v>86.40000000000001</v>
+        <v>84.37</v>
       </c>
       <c r="E104" t="n">
-        <v>86.40000000000001</v>
+        <v>84.37</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G104" t="n">
-        <v>-631615.4613692148</v>
+        <v>-550895.2487692146</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4438,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4740,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>86.40000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="C105" t="n">
-        <v>86.40000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="D105" t="n">
-        <v>86.40000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="E105" t="n">
-        <v>86.40000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F105" t="n">
-        <v>3903.7535</v>
+        <v>425.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-631615.4613692148</v>
+        <v>-551321.0287692146</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4474,8 +4764,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4486,22 +4782,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>86.39</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>85.16</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>86.39</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>85.16</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>13184</v>
+        <v>594.9548</v>
       </c>
       <c r="G106" t="n">
-        <v>-644799.4613692148</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4510,8 +4806,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4522,22 +4824,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>85.63</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>85.62</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>85.63</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>85.62</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>2167.5956</v>
+        <v>4008</v>
       </c>
       <c r="G107" t="n">
-        <v>-642631.8657692148</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4546,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4558,22 +4866,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>85.59999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>85.39</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>85.59999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>85.39</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>5093.8586</v>
+        <v>3917.8359</v>
       </c>
       <c r="G108" t="n">
-        <v>-647725.7243692148</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4582,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4594,22 +4908,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>85.48</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>85.48</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>85.48</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>85.48</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-647155.7243692148</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4618,8 +4932,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4630,22 +4950,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>86.34</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>86.34</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>86.34</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>86.34</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>81.07482047718322</v>
+        <v>8059.7963</v>
       </c>
       <c r="G110" t="n">
-        <v>-647074.6495487377</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4654,8 +4974,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4666,32 +4992,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>85.61</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>85.17</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>85.61</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>85.17</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>50589.4092</v>
+        <v>1314.9615</v>
       </c>
       <c r="G111" t="n">
-        <v>-697664.0587487377</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="K111" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4702,32 +5036,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>85.95999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>85.97</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>85.97</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>85.95999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1777.7695</v>
       </c>
       <c r="G112" t="n">
-        <v>-695664.0587487377</v>
+        <v>-551915.9835692146</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="K112" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4738,32 +5080,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>86.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="C113" t="n">
-        <v>86.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="D113" t="n">
-        <v>86.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="E113" t="n">
-        <v>86.29000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F113" t="n">
-        <v>7455.4851</v>
+        <v>75.59610000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-688208.5736487376</v>
+        <v>-551840.3874692146</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="K113" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4774,32 +5124,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>85.27</v>
+        <v>84.38</v>
       </c>
       <c r="C114" t="n">
-        <v>85.27</v>
+        <v>85</v>
       </c>
       <c r="D114" t="n">
-        <v>85.27</v>
+        <v>85</v>
       </c>
       <c r="E114" t="n">
-        <v>85.27</v>
+        <v>84.38</v>
       </c>
       <c r="F114" t="n">
-        <v>6081.3766</v>
+        <v>45526.7258</v>
       </c>
       <c r="G114" t="n">
-        <v>-694289.9502487376</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="K114" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4810,22 +5168,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D115" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E115" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F115" t="n">
-        <v>10000</v>
+        <v>6955.5909</v>
       </c>
       <c r="G115" t="n">
-        <v>-684289.9502487376</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4834,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4846,32 +5210,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="C116" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="D116" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="E116" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="F116" t="n">
-        <v>7455.4851</v>
+        <v>2440.2029</v>
       </c>
       <c r="G116" t="n">
-        <v>-691745.4353487376</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4882,32 +5252,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>85.3</v>
+        <v>85.09</v>
       </c>
       <c r="C117" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="D117" t="n">
-        <v>85.3</v>
+        <v>85.09</v>
       </c>
       <c r="E117" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="F117" t="n">
-        <v>1600</v>
+        <v>9403.5399</v>
       </c>
       <c r="G117" t="n">
-        <v>-691745.4353487376</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4918,22 +5294,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="C118" t="n">
         <v>85</v>
       </c>
       <c r="D118" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="E118" t="n">
         <v>85</v>
       </c>
       <c r="F118" t="n">
-        <v>26086.0757</v>
+        <v>1669.2134</v>
       </c>
       <c r="G118" t="n">
-        <v>-717831.5110487377</v>
+        <v>-506313.6616692146</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4942,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4954,22 +5336,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>1971</v>
+        <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>-715860.5110487377</v>
+        <v>-506305.6616692146</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4978,8 +5360,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4990,32 +5378,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C120" t="n">
-        <v>86.12</v>
+        <v>85</v>
       </c>
       <c r="D120" t="n">
-        <v>86.12</v>
+        <v>85</v>
       </c>
       <c r="E120" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120" t="n">
-        <v>7026.1832</v>
+        <v>62.8928</v>
       </c>
       <c r="G120" t="n">
-        <v>-708834.3278487377</v>
+        <v>-506368.5544692146</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5026,22 +5420,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>84.56999999999999</v>
+        <v>85</v>
       </c>
       <c r="C121" t="n">
-        <v>84.56999999999999</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>84.56999999999999</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>84.56999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="F121" t="n">
-        <v>6144.0743</v>
+        <v>47985.8381</v>
       </c>
       <c r="G121" t="n">
-        <v>-714978.4021487377</v>
+        <v>-554354.3925692146</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5050,8 +5444,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5062,22 +5462,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>86.23</v>
+        <v>86.39</v>
       </c>
       <c r="C122" t="n">
-        <v>86.23</v>
+        <v>86.78</v>
       </c>
       <c r="D122" t="n">
-        <v>86.23</v>
+        <v>86.78</v>
       </c>
       <c r="E122" t="n">
-        <v>86.23</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>115.9689203293517</v>
+        <v>6560.6954</v>
       </c>
       <c r="G122" t="n">
-        <v>-714862.4332284083</v>
+        <v>-547793.6971692146</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5086,8 +5486,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5098,22 +5504,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>85.09</v>
+        <v>86.39</v>
       </c>
       <c r="C123" t="n">
-        <v>85.3</v>
+        <v>86.78</v>
       </c>
       <c r="D123" t="n">
-        <v>85.3</v>
+        <v>87.48</v>
       </c>
       <c r="E123" t="n">
-        <v>85.09</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>8077.1347</v>
+        <v>12960.7919</v>
       </c>
       <c r="G123" t="n">
-        <v>-722939.5679284084</v>
+        <v>-547793.6971692146</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5122,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5134,22 +5546,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>85.3</v>
+        <v>86.78</v>
       </c>
       <c r="C124" t="n">
-        <v>85.7</v>
+        <v>87.38</v>
       </c>
       <c r="D124" t="n">
-        <v>85.7</v>
+        <v>87.38</v>
       </c>
       <c r="E124" t="n">
-        <v>85.3</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>3800.711475612602</v>
+        <v>50495.321</v>
       </c>
       <c r="G124" t="n">
-        <v>-719138.8564527958</v>
+        <v>-497298.3761692146</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5158,8 +5570,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5170,22 +5588,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>85.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="C125" t="n">
-        <v>85.09999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="D125" t="n">
-        <v>85.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="E125" t="n">
-        <v>85.09999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="F125" t="n">
-        <v>1811.7953</v>
+        <v>20</v>
       </c>
       <c r="G125" t="n">
-        <v>-720950.6517527958</v>
+        <v>-497318.3761692146</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5194,8 +5612,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5206,34 +5630,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="C126" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="D126" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="E126" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="F126" t="n">
-        <v>11037.947</v>
+        <v>8</v>
       </c>
       <c r="G126" t="n">
-        <v>-709912.7047527957</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>1.046770126091174</v>
       </c>
       <c r="N126" t="inlineStr"/>
     </row>
@@ -5242,22 +5672,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="C127" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="D127" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="E127" t="n">
-        <v>85.53</v>
+        <v>86.75</v>
       </c>
       <c r="F127" t="n">
-        <v>5629.5192</v>
+        <v>6</v>
       </c>
       <c r="G127" t="n">
-        <v>-709912.7047527957</v>
+        <v>-497326.3761692146</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5273,6 +5703,2562 @@
       </c>
       <c r="N127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="C128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="D128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="E128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7766.4107</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-497326.3761692146</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15.789</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-497342.1651692146</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>86.64</v>
+      </c>
+      <c r="C130" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>86.64</v>
+      </c>
+      <c r="F130" t="n">
+        <v>48.677</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-497293.4881692146</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>55387.3084</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-441906.1797692146</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="D132" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1555.1935</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-443461.3732692146</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>189.8829</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-443271.4903692146</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14.9743</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-443256.5160692146</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="D135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="E135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-443266.5160692146</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C136" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1270.2613</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-441996.2547692145</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>87</v>
+      </c>
+      <c r="C137" t="n">
+        <v>87</v>
+      </c>
+      <c r="D137" t="n">
+        <v>87</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2167.5956</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-444163.8503692145</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="C138" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="D138" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="E138" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="F138" t="n">
+        <v>168246.9495</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-612410.7998692145</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="D139" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="E139" t="n">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2986</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-609424.7998692145</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="C140" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="E140" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16205.9388</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-625630.7386692145</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-625630.7386692145</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>85</v>
+      </c>
+      <c r="C142" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D142" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E142" t="n">
+        <v>85</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7446.613</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-633077.3516692145</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4883.9061</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-633077.3516692145</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="C144" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="D144" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="E144" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14071.3647</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-619005.9869692145</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>85.78</v>
+      </c>
+      <c r="C145" t="n">
+        <v>86</v>
+      </c>
+      <c r="D145" t="n">
+        <v>86</v>
+      </c>
+      <c r="E145" t="n">
+        <v>85.78</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20902.4258</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-598103.5611692145</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>86</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4824.9177</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-593278.6434692146</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="C147" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="D147" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11469.2305</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-581809.4129692146</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="C148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="D148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="E148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1428.6336</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-581809.4129692146</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5071.0864</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-586880.4993692146</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-583480.4993692146</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2244.2176</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-583480.4993692146</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.22</v>
+      </c>
+      <c r="C152" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>86.22</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>40</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-583520.4993692146</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>86</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86</v>
+      </c>
+      <c r="E153" t="n">
+        <v>86</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-584920.4993692146</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86</v>
+      </c>
+      <c r="C154" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>86</v>
+      </c>
+      <c r="E154" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43.3061</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-584963.8054692147</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="D155" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="E155" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-564963.8054692147</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="D156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="E156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F156" t="n">
+        <v>766.0612</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-564197.7442692147</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="D157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="E157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1436.3764</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-564197.7442692147</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="D158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="E158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>861.8422</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-564197.7442692147</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="C159" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="D159" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E159" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>53652.3736</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-617850.1178692147</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="C160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="E160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6527</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-611323.1178692147</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>85.91</v>
+      </c>
+      <c r="D161" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E161" t="n">
+        <v>85.91</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11785.279</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-623108.3968692147</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2248.1654</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-625356.5622692148</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="C163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="F163" t="n">
+        <v>105.5622</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-625462.1244692148</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="C164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8754</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-625462.1244692148</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="C165" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D165" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E165" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2874.4367</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-628336.5611692148</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1107.6401</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-628336.5611692148</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9.3599</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-628336.5611692148</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F168" t="n">
+        <v>497.6193</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F169" t="n">
+        <v>619</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F170" t="n">
+        <v>558</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F171" t="n">
+        <v>558</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1252.5294</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-629091.4712692148</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="C173" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="D173" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="E173" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1533.9901</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-630625.4613692148</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="C174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="D174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="E174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-631625.4613692148</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-631615.4613692148</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3903.7535</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-631615.4613692148</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="C177" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="D177" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E177" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13184</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-644799.4613692148</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="C178" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D178" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="E178" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2167.5956</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-642631.8657692148</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="D179" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5093.8586</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-647725.7243692148</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="C180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="D180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="E180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="F180" t="n">
+        <v>570</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-647155.7243692148</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="C181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="D181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="E181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F181" t="n">
+        <v>81.07482047718322</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-647074.6495487377</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="C182" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="D182" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="E182" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="F182" t="n">
+        <v>50589.4092</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-697664.0587487377</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="D183" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="E183" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-695664.0587487377</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7455.4851</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-688208.5736487376</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="D185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="E185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6081.3766</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-694289.9502487376</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>86</v>
+      </c>
+      <c r="C186" t="n">
+        <v>86</v>
+      </c>
+      <c r="D186" t="n">
+        <v>86</v>
+      </c>
+      <c r="E186" t="n">
+        <v>86</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-684289.9502487376</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7455.4851</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-691745.4353487376</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-691745.4353487376</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>85</v>
+      </c>
+      <c r="D189" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>85</v>
+      </c>
+      <c r="F189" t="n">
+        <v>26086.0757</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-717831.5110487377</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>86</v>
+      </c>
+      <c r="C190" t="n">
+        <v>86</v>
+      </c>
+      <c r="D190" t="n">
+        <v>86</v>
+      </c>
+      <c r="E190" t="n">
+        <v>86</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-715860.5110487377</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>86</v>
+      </c>
+      <c r="C191" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="D191" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="E191" t="n">
+        <v>86</v>
+      </c>
+      <c r="F191" t="n">
+        <v>7026.1832</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-708834.3278487377</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6144.0743</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-714978.4021487377</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F193" t="n">
+        <v>115.9689203293517</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-714862.4332284083</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="C194" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8077.1347</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-722939.5679284084</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3800.711475612602</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-719138.8564527958</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1811.7953</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-720950.6517527958</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="C197" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D197" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E197" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11037.947</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-709912.7047527957</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="C198" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D198" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E198" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5629.5192</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-709912.7047527957</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>38363.01458912837</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>38687.06498912837</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>39280.11444945336</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>33337.99104945335</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-7014.821950546646</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-88148.25045054663</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-88148.25045054663</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-97814.54835054664</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-90564.82495054664</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -915,15 +915,9 @@
       <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>82.48999999999999</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -954,15 +948,9 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>82.48</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -991,17 +979,11 @@
         <v>-92922.88645054663</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>82.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,15 +1014,9 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>82.59999999999999</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +1045,11 @@
         <v>-82224.23105054663</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>82.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1078,11 @@
         <v>-82224.23105054663</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>82.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1111,11 @@
         <v>-86875.17015054663</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>82.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1188,15 +1146,9 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>82.62</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1225,15 +1177,11 @@
         <v>-73433.36805054663</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1262,15 +1210,11 @@
         <v>-64841.45625054663</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1299,15 +1243,11 @@
         <v>-99379.15515054663</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1336,15 +1276,11 @@
         <v>-109379.1551505466</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1373,16 +1309,14 @@
         <v>-131134.6852505466</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1408,7 +1342,7 @@
         <v>-131134.6852505466</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1375,7 @@
         <v>-130761.6852505466</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1408,7 @@
         <v>-130761.6852505466</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1441,7 @@
         <v>-170202.3842505466</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1474,7 @@
         <v>-170202.3842505466</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1507,7 @@
         <v>-168961.3906505466</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1540,7 @@
         <v>-169731.3301505467</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1573,7 @@
         <v>-169731.3301505467</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1606,7 @@
         <v>-169731.3301505467</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2002,7 +1936,7 @@
         <v>-86973.24235054664</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +1969,7 @@
         <v>-88466.24235054664</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2002,7 @@
         <v>-88466.24235054664</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2101,7 @@
         <v>-383048.0364607987</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2134,7 @@
         <v>-398700.4274607987</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2167,7 @@
         <v>-398700.4274607987</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2662,14 +2596,10 @@
         <v>-386692.7131607987</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>83.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2699,19 +2629,11 @@
         <v>-386692.7131607987</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="J68" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2743,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +3157,10 @@
         <v>-461431.8718254261</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>83.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3281,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3320,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3359,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3398,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3437,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3476,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3515,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3554,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3593,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3632,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3710,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3749,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3788,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3827,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3866,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3905,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3944,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3983,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4022,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4061,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4097,17 +3883,15 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>84.05</v>
+      </c>
       <c r="J106" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>84.05</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4136,15 +3920,17 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J107" t="n">
-        <v>83.5</v>
+        <v>84.05</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4175,15 +3961,17 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J108" t="n">
-        <v>83.5</v>
+        <v>84.05</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4214,17 +4002,15 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J109" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>84.04000000000001</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4253,15 +4039,17 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J110" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4292,15 +4080,17 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J111" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4331,17 +4121,15 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J112" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>84.04000000000001</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4370,15 +4158,17 @@
         <v>-551840.3874692146</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>84.04000000000001</v>
+      </c>
       <c r="J113" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4409,15 +4199,17 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>84.05</v>
+      </c>
       <c r="J114" t="n">
-        <v>83.5</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4450,15 +4242,13 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>85</v>
+      </c>
       <c r="J115" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4489,13 +4279,15 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>85</v>
+      </c>
       <c r="J116" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4528,13 +4320,15 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>85</v>
+      </c>
       <c r="J117" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4565,11 +4359,13 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>85</v>
+      </c>
       <c r="J118" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4606,9 +4402,11 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>85</v>
+      </c>
       <c r="J119" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4645,9 +4443,11 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J120" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4684,9 +4484,11 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>85</v>
+      </c>
       <c r="J121" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4721,11 +4523,11 @@
         <v>-547793.6971692146</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4764,7 +4566,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4803,7 +4605,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4842,7 +4644,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4881,7 +4683,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4920,7 +4722,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4959,7 +4761,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4994,19 +4796,19 @@
         <v>-497342.1651692146</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.032724550898204</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -5033,11 +4835,17 @@
         <v>-497293.4881692146</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>85</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5066,11 +4874,17 @@
         <v>-441906.1797692146</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>85</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5099,11 +4913,17 @@
         <v>-443461.3732692146</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>85</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5132,11 +4952,17 @@
         <v>-443271.4903692146</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>85</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +4991,17 @@
         <v>-443256.5160692146</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>85</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5198,11 +5030,17 @@
         <v>-443266.5160692146</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>85</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +5069,17 @@
         <v>-441996.2547692145</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>85</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5108,17 @@
         <v>-444163.8503692145</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>85</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5300,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>85</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5330,11 +5186,17 @@
         <v>-609424.7998692145</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>85</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5366,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>85</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5399,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>85</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5432,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>85</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5465,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>85</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>85</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5531,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>85</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5564,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>85</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5597,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>85</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5630,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>85</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5663,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>85</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5696,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>85</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5729,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>85</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5762,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>85</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5795,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>85</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5828,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>85</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5861,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>85</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5894,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>85</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5927,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>85</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5960,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>85</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5993,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>85</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6026,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>85</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>85</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>85</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6125,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>85</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6158,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>85</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6191,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>85</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6224,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>85</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6257,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>85</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6290,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>85</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6323,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>85</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6356,8 +6398,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>85</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6389,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>85</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6422,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>85</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6455,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>85</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6488,8 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>85</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6521,8 +6593,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>85</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6554,8 +6632,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>85</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6587,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>85</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6620,8 +6710,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>85</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6653,8 +6749,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>85</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6686,8 +6788,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>85</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6719,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>85</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6752,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>85</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6785,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>85</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6818,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>85</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6851,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>85</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6884,8 +7022,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>85</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6917,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>85</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6950,8 +7100,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>85</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6983,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>85</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7016,8 +7178,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>85</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7049,8 +7217,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>85</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7082,8 +7256,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>85</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7115,8 +7295,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>85</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7148,8 +7334,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>85</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7181,8 +7373,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>85</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7214,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>85</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7451,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>85</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7280,14 +7490,20 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>85</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
       <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>38363.01458912837</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>38687.06498912837</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>39280.11444945336</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>33337.99104945335</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1350.090750546646</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-7014.821950546646</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-88148.25045054663</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-88148.25045054663</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-97814.54835054664</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-90564.82495054664</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-96002.11745054663</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-96002.11745054663</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-91578.49185054663</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-59991.56595054663</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73433.36805054663</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-64841.45625054663</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-99379.15515054663</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-109379.1551505466</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-131134.6852505466</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-131134.6852505466</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-130761.6852505466</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-130761.6852505466</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-170202.3842505466</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-170202.3842505466</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-168961.3906505466</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-169731.3301505467</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-169731.3301505467</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-169731.3301505467</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-86973.24235054664</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-88466.24235054664</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-88466.24235054664</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3883,14 +3883,10 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="J106" t="n">
-        <v>84.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3920,2960 +3916,2508 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>84.04000000000001</v>
       </c>
-      <c r="J107" t="n">
+      <c r="C108" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3917.8359</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-551915.9835692146</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D109" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-551915.9835692146</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8059.7963</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-551915.9835692146</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1314.9615</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-551915.9835692146</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1777.7695</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-551915.9835692146</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>84.05</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="C113" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="D113" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="F113" t="n">
+        <v>75.59610000000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-551840.3874692146</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="C114" t="n">
+        <v>85</v>
+      </c>
+      <c r="D114" t="n">
+        <v>85</v>
+      </c>
+      <c r="E114" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="F114" t="n">
+        <v>45526.7258</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-506313.6616692146</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>85</v>
+      </c>
+      <c r="C115" t="n">
+        <v>85</v>
+      </c>
+      <c r="D115" t="n">
+        <v>85</v>
+      </c>
+      <c r="E115" t="n">
+        <v>85</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6955.5909</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-506313.6616692146</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>85</v>
+      </c>
+      <c r="C116" t="n">
+        <v>85</v>
+      </c>
+      <c r="D116" t="n">
+        <v>85</v>
+      </c>
+      <c r="E116" t="n">
+        <v>85</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2440.2029</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-506313.6616692146</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="C117" t="n">
+        <v>85</v>
+      </c>
+      <c r="D117" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="E117" t="n">
+        <v>85</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9403.5399</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-506313.6616692146</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>85</v>
+      </c>
+      <c r="C118" t="n">
+        <v>85</v>
+      </c>
+      <c r="D118" t="n">
+        <v>85</v>
+      </c>
+      <c r="E118" t="n">
+        <v>85</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1669.2134</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-506313.6616692146</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-506305.6616692146</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>85</v>
+      </c>
+      <c r="D120" t="n">
+        <v>85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>85</v>
+      </c>
+      <c r="F120" t="n">
+        <v>62.8928</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-506368.5544692146</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>85</v>
+      </c>
+      <c r="C121" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>86.68000000000001</v>
+      </c>
+      <c r="E121" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>47985.8381</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-554354.3925692146</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="C122" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="D122" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="E122" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6560.6954</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-547793.6971692146</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="C123" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="D123" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="E123" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12960.7919</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-547793.6971692146</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="C124" t="n">
+        <v>87.38</v>
+      </c>
+      <c r="D124" t="n">
+        <v>87.38</v>
+      </c>
+      <c r="E124" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>50495.321</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-497298.3761692146</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="D125" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="F125" t="n">
+        <v>20</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-497318.3761692146</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="C126" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="D126" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="E126" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-497326.3761692146</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="C127" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="D127" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="E127" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-497326.3761692146</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="C128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="D128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="E128" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7766.4107</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-497326.3761692146</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>86.65000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15.789</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-497342.1651692146</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>86.64</v>
+      </c>
+      <c r="C130" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>86.64</v>
+      </c>
+      <c r="F130" t="n">
+        <v>48.677</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-497293.4881692146</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>55387.3084</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-441906.1797692146</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="D132" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1555.1935</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-443461.3732692146</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>189.8829</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-443271.4903692146</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14.9743</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-443256.5160692146</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="D135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="E135" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-443266.5160692146</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C136" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1270.2613</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-441996.2547692145</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>87</v>
+      </c>
+      <c r="C137" t="n">
+        <v>87</v>
+      </c>
+      <c r="D137" t="n">
+        <v>87</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2167.5956</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-444163.8503692145</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="C138" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="D138" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="E138" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="F138" t="n">
+        <v>168246.9495</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-612410.7998692145</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="D139" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="E139" t="n">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2986</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-609424.7998692145</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="C140" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="E140" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16205.9388</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-625630.7386692145</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-625630.7386692145</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>85</v>
+      </c>
+      <c r="C142" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D142" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="E142" t="n">
+        <v>85</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7446.613</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-633077.3516692145</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4883.9061</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-633077.3516692145</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="C144" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="D144" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="E144" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14071.3647</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-619005.9869692145</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>85.78</v>
+      </c>
+      <c r="C145" t="n">
+        <v>86</v>
+      </c>
+      <c r="D145" t="n">
+        <v>86</v>
+      </c>
+      <c r="E145" t="n">
+        <v>85.78</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20902.4258</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-598103.5611692145</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>86</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4824.9177</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-593278.6434692146</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="C147" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="D147" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11469.2305</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-581809.4129692146</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="C148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="D148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="E148" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1428.6336</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-581809.4129692146</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5071.0864</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-586880.4993692146</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E150" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-583480.4993692146</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2244.2176</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-583480.4993692146</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.22</v>
+      </c>
+      <c r="C152" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>86.22</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>40</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-583520.4993692146</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>86</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86</v>
+      </c>
+      <c r="E153" t="n">
+        <v>86</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-584920.4993692146</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86</v>
+      </c>
+      <c r="C154" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>86</v>
+      </c>
+      <c r="E154" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43.3061</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-584963.8054692147</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="D155" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="E155" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-564963.8054692147</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="D156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="E156" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F156" t="n">
+        <v>766.0612</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-564197.7442692147</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="D157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="E157" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1436.3764</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-564197.7442692147</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="D158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="E158" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>861.8422</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-564197.7442692147</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="C159" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="D159" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E159" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>53652.3736</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-617850.1178692147</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="C160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="E160" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6527</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-611323.1178692147</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>85.91</v>
+      </c>
+      <c r="D161" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E161" t="n">
+        <v>85.91</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11785.279</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-623108.3968692147</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2248.1654</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-625356.5622692148</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="C163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E163" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="F163" t="n">
+        <v>105.5622</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-625462.1244692148</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="C164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8754</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-625462.1244692148</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="C165" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D165" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E165" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2874.4367</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-628336.5611692148</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1107.6401</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-628336.5611692148</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9.3599</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-628336.5611692148</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E168" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F168" t="n">
+        <v>497.6193</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F169" t="n">
+        <v>619</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F170" t="n">
+        <v>558</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="C171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="E171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="F171" t="n">
+        <v>558</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-627838.9418692148</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="C172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E172" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1252.5294</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-629091.4712692148</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="C173" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="D173" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="E173" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1533.9901</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-630625.4613692148</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="C174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="D174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="E174" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-631625.4613692148</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-631615.4613692148</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3903.7535</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-631615.4613692148</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="C177" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="D177" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="E177" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13184</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-644799.4613692148</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="C178" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="D178" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="E178" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2167.5956</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-642631.8657692148</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="J178" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="D179" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5093.8586</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-647725.7243692148</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C108" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D108" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3917.8359</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J108" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="C180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="D180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="E180" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="F180" t="n">
+        <v>570</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-647155.7243692148</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8059.7963</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1314.9615</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="C112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="D112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="E112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1777.7695</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="C113" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="D113" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="E113" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="F113" t="n">
-        <v>75.59610000000001</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-551840.3874692146</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="C114" t="n">
-        <v>85</v>
-      </c>
-      <c r="D114" t="n">
-        <v>85</v>
-      </c>
-      <c r="E114" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="F114" t="n">
-        <v>45526.7258</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="J114" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>85</v>
-      </c>
-      <c r="C115" t="n">
-        <v>85</v>
-      </c>
-      <c r="D115" t="n">
-        <v>85</v>
-      </c>
-      <c r="E115" t="n">
-        <v>85</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6955.5909</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>85</v>
-      </c>
-      <c r="J115" t="n">
-        <v>85</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>85</v>
-      </c>
-      <c r="C116" t="n">
-        <v>85</v>
-      </c>
-      <c r="D116" t="n">
-        <v>85</v>
-      </c>
-      <c r="E116" t="n">
-        <v>85</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2440.2029</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>85</v>
-      </c>
-      <c r="J116" t="n">
-        <v>85</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="C117" t="n">
-        <v>85</v>
-      </c>
-      <c r="D117" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="E117" t="n">
-        <v>85</v>
-      </c>
-      <c r="F117" t="n">
-        <v>9403.5399</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>85</v>
-      </c>
-      <c r="J117" t="n">
-        <v>85</v>
-      </c>
-      <c r="K117" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="C181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="D181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="E181" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F181" t="n">
+        <v>81.07482047718322</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-647074.6495487377</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="C182" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="D182" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="E182" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="F182" t="n">
+        <v>50589.4092</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-697664.0587487377</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>85</v>
-      </c>
-      <c r="C118" t="n">
-        <v>85</v>
-      </c>
-      <c r="D118" t="n">
-        <v>85</v>
-      </c>
-      <c r="E118" t="n">
-        <v>85</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1669.2134</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>85</v>
-      </c>
-      <c r="J118" t="n">
-        <v>85</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="C119" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D119" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-506305.6616692146</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>85</v>
-      </c>
-      <c r="J119" t="n">
-        <v>85</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>85</v>
-      </c>
-      <c r="C120" t="n">
-        <v>85</v>
-      </c>
-      <c r="D120" t="n">
-        <v>85</v>
-      </c>
-      <c r="E120" t="n">
-        <v>85</v>
-      </c>
-      <c r="F120" t="n">
-        <v>62.8928</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-506368.5544692146</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J120" t="n">
-        <v>85</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>85</v>
-      </c>
-      <c r="C121" t="n">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="D121" t="n">
-        <v>86.68000000000001</v>
-      </c>
-      <c r="E121" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>47985.8381</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-554354.3925692146</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>85</v>
-      </c>
-      <c r="J121" t="n">
-        <v>85</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="C122" t="n">
-        <v>86.78</v>
-      </c>
-      <c r="D122" t="n">
-        <v>86.78</v>
-      </c>
-      <c r="E122" t="n">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6560.6954</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-547793.6971692146</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>85</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="C123" t="n">
-        <v>86.78</v>
-      </c>
-      <c r="D123" t="n">
-        <v>87.48</v>
-      </c>
-      <c r="E123" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="F123" t="n">
-        <v>12960.7919</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-547793.6971692146</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>85</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>86.78</v>
-      </c>
-      <c r="C124" t="n">
-        <v>87.38</v>
-      </c>
-      <c r="D124" t="n">
-        <v>87.38</v>
-      </c>
-      <c r="E124" t="n">
-        <v>84.29000000000001</v>
-      </c>
-      <c r="F124" t="n">
-        <v>50495.321</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-497298.3761692146</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>85</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>87.19</v>
-      </c>
-      <c r="D125" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>87.19</v>
-      </c>
-      <c r="F125" t="n">
-        <v>20</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-497318.3761692146</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>85</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="C126" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="D126" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="E126" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="F126" t="n">
-        <v>8</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-497326.3761692146</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>85</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="C127" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="D127" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="E127" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-497326.3761692146</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>85</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="C128" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="D128" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="E128" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7766.4107</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-497326.3761692146</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>85</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>86.65000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>86.65000000000001</v>
-      </c>
-      <c r="D129" t="n">
-        <v>86.65000000000001</v>
-      </c>
-      <c r="E129" t="n">
-        <v>86.65000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15.789</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-497342.1651692146</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>85</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>86.64</v>
-      </c>
-      <c r="C130" t="n">
-        <v>86.76000000000001</v>
-      </c>
-      <c r="D130" t="n">
-        <v>86.76000000000001</v>
-      </c>
-      <c r="E130" t="n">
-        <v>86.64</v>
-      </c>
-      <c r="F130" t="n">
-        <v>48.677</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-497293.4881692146</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>85</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>86.76000000000001</v>
-      </c>
-      <c r="C131" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>86.76000000000001</v>
-      </c>
-      <c r="F131" t="n">
-        <v>55387.3084</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-441906.1797692146</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>85</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>85.73</v>
-      </c>
-      <c r="D132" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>85.73</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1555.1935</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-443461.3732692146</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>85</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="D133" t="n">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>189.8829</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-443271.4903692146</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>85</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>87.29000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14.9743</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-443256.5160692146</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>85</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="C135" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="D135" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="E135" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-443266.5160692146</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>85</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="C136" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1270.2613</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-441996.2547692145</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>85</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>87</v>
-      </c>
-      <c r="C137" t="n">
-        <v>87</v>
-      </c>
-      <c r="D137" t="n">
-        <v>87</v>
-      </c>
-      <c r="E137" t="n">
-        <v>87</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2167.5956</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-444163.8503692145</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>85</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>85.66</v>
-      </c>
-      <c r="C138" t="n">
-        <v>84.03</v>
-      </c>
-      <c r="D138" t="n">
-        <v>85.66</v>
-      </c>
-      <c r="E138" t="n">
-        <v>84.03</v>
-      </c>
-      <c r="F138" t="n">
-        <v>168246.9495</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-612410.7998692145</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>85</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>85.81999999999999</v>
-      </c>
-      <c r="C139" t="n">
-        <v>85.83</v>
-      </c>
-      <c r="D139" t="n">
-        <v>85.83</v>
-      </c>
-      <c r="E139" t="n">
-        <v>85.81999999999999</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2986</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-609424.7998692145</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>85</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>85.83</v>
-      </c>
-      <c r="C140" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="D140" t="n">
-        <v>85.83</v>
-      </c>
-      <c r="E140" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="F140" t="n">
-        <v>16205.9388</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-625630.7386692145</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>85</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="C141" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="D141" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="E141" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-625630.7386692145</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>85</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>85</v>
-      </c>
-      <c r="C142" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="D142" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="E142" t="n">
-        <v>85</v>
-      </c>
-      <c r="F142" t="n">
-        <v>7446.613</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-633077.3516692145</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>85</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>85.68000000000001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="D143" t="n">
-        <v>85.68000000000001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4883.9061</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-633077.3516692145</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>85</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="C144" t="n">
-        <v>85.84</v>
-      </c>
-      <c r="D144" t="n">
-        <v>85.84</v>
-      </c>
-      <c r="E144" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="F144" t="n">
-        <v>14071.3647</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-619005.9869692145</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>85</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>85.78</v>
-      </c>
-      <c r="C145" t="n">
-        <v>86</v>
-      </c>
-      <c r="D145" t="n">
-        <v>86</v>
-      </c>
-      <c r="E145" t="n">
-        <v>85.78</v>
-      </c>
-      <c r="F145" t="n">
-        <v>20902.4258</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-598103.5611692145</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>85</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>86</v>
-      </c>
-      <c r="C146" t="n">
-        <v>86.18000000000001</v>
-      </c>
-      <c r="D146" t="n">
-        <v>86.18000000000001</v>
-      </c>
-      <c r="E146" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4824.9177</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-593278.6434692146</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>85</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>86.45</v>
-      </c>
-      <c r="C147" t="n">
-        <v>86.44</v>
-      </c>
-      <c r="D147" t="n">
-        <v>86.56</v>
-      </c>
-      <c r="E147" t="n">
-        <v>86.44</v>
-      </c>
-      <c r="F147" t="n">
-        <v>11469.2305</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-581809.4129692146</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>85</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>86.44</v>
-      </c>
-      <c r="C148" t="n">
-        <v>86.44</v>
-      </c>
-      <c r="D148" t="n">
-        <v>86.44</v>
-      </c>
-      <c r="E148" t="n">
-        <v>86.44</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1428.6336</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-581809.4129692146</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>85</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>86.34999999999999</v>
-      </c>
-      <c r="C149" t="n">
-        <v>86.18000000000001</v>
-      </c>
-      <c r="D149" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="E149" t="n">
-        <v>86.18000000000001</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5071.0864</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-586880.4993692146</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>85</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="C150" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="D150" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="E150" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-583480.4993692146</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>85</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="C151" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="D151" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="E151" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2244.2176</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-583480.4993692146</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>85</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>86.22</v>
-      </c>
-      <c r="C152" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="D152" t="n">
-        <v>86.22</v>
-      </c>
-      <c r="E152" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="F152" t="n">
-        <v>40</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-583520.4993692146</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>85</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>86</v>
-      </c>
-      <c r="C153" t="n">
-        <v>86</v>
-      </c>
-      <c r="D153" t="n">
-        <v>86</v>
-      </c>
-      <c r="E153" t="n">
-        <v>86</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-584920.4993692146</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>85</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>86</v>
-      </c>
-      <c r="C154" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="D154" t="n">
-        <v>86</v>
-      </c>
-      <c r="E154" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="F154" t="n">
-        <v>43.3061</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-584963.8054692147</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>85</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>86.16</v>
-      </c>
-      <c r="D155" t="n">
-        <v>86.16</v>
-      </c>
-      <c r="E155" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-564963.8054692147</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>85</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="C156" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="D156" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="E156" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="F156" t="n">
-        <v>766.0612</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>85</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="C157" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="D157" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="E157" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1436.3764</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>85</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="C158" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="D158" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="E158" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="F158" t="n">
-        <v>861.8422</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>85</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="C159" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="D159" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="E159" t="n">
-        <v>85.51000000000001</v>
-      </c>
-      <c r="F159" t="n">
-        <v>53652.3736</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-617850.1178692147</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>85</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="C160" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="D160" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="E160" t="n">
-        <v>86.38</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6527</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-611323.1178692147</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>85</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>85.91</v>
-      </c>
-      <c r="D161" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>85.91</v>
-      </c>
-      <c r="F161" t="n">
-        <v>11785.279</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-623108.3968692147</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>85</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="C162" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="D162" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="E162" t="n">
-        <v>85.84999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2248.1654</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-625356.5622692148</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>85</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C163" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="D163" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E163" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="F163" t="n">
-        <v>105.5622</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-625462.1244692148</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>85</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C164" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="D164" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E164" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8754</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-625462.1244692148</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>85</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C165" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D165" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E165" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2874.4367</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>85</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="C166" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D166" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E166" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1107.6401</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>85</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="C167" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D167" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E167" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9.3599</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>85</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C168" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D168" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E168" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F168" t="n">
-        <v>497.6193</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>85</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C169" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D169" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E169" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F169" t="n">
-        <v>619</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>85</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C170" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D170" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E170" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F170" t="n">
-        <v>558</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>85</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="C171" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D171" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="E171" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="F171" t="n">
-        <v>558</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>85</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="C172" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D172" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E172" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1252.5294</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-629091.4712692148</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>85</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>85.52</v>
-      </c>
-      <c r="C173" t="n">
-        <v>84.62</v>
-      </c>
-      <c r="D173" t="n">
-        <v>85.52</v>
-      </c>
-      <c r="E173" t="n">
-        <v>84.62</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1533.9901</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-630625.4613692148</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>85</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="C174" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="D174" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="E174" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-631625.4613692148</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>85</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C175" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E175" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-631615.4613692148</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>85</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="C176" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="D176" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E176" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="F176" t="n">
-        <v>3903.7535</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-631615.4613692148</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>85</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="C177" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="D177" t="n">
-        <v>86.39</v>
-      </c>
-      <c r="E177" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="F177" t="n">
-        <v>13184</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-644799.4613692148</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>85</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>85.63</v>
-      </c>
-      <c r="C178" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="D178" t="n">
-        <v>85.63</v>
-      </c>
-      <c r="E178" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2167.5956</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-642631.8657692148</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>85</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="C179" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="D179" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E179" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5093.8586</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-647725.7243692148</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>85</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="C180" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="D180" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="E180" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="F180" t="n">
-        <v>570</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-647155.7243692148</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>85</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="C181" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="D181" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="E181" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="F181" t="n">
-        <v>81.07482047718322</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-647074.6495487377</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>85</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="C182" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="D182" t="n">
-        <v>85.61</v>
-      </c>
-      <c r="E182" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="F182" t="n">
-        <v>50589.4092</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-697664.0587487377</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>85</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6905,9 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>85</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,9 +6486,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>85</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6983,9 +6523,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>85</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,9 +6560,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>85</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7061,9 +6597,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>85</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,9 +6634,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>85</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7139,9 +6671,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>85</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,9 +6708,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>85</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,9 +6745,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>85</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,9 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>85</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,9 +6819,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>85</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,9 +6856,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>85</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,9 +6893,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>85</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,9 +6930,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>85</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,9 +6967,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>85</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,9 +7004,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>85</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,6 +7016,6 @@
       <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -3454,10 +3454,14 @@
         <v>-459331.009425426</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="J93" t="n">
+        <v>82.64</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3490,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3998,19 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J107" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4039,19 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J108" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4080,19 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J109" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4121,19 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J110" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4162,19 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J111" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4203,19 @@
         <v>-551915.9835692146</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J112" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4244,19 @@
         <v>-551840.3874692146</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="J113" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4285,19 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="J114" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4326,19 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>85</v>
+      </c>
+      <c r="J115" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4367,19 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>85</v>
+      </c>
+      <c r="J116" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4408,19 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>85</v>
+      </c>
+      <c r="J117" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4449,19 @@
         <v>-506313.6616692146</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>85</v>
+      </c>
+      <c r="J118" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4490,19 @@
         <v>-506305.6616692146</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>85</v>
+      </c>
+      <c r="J119" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4531,19 @@
         <v>-506368.5544692146</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4572,19 @@
         <v>-554354.3925692146</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>85</v>
+      </c>
+      <c r="J121" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4613,19 @@
         <v>-547793.6971692146</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,15 +4693,23 @@
         <v>-497298.3761692146</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>1.052357212003872</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.031644034917556</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4543,7 +4767,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4800,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4833,7 @@
         <v>-497326.3761692146</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4866,7 @@
         <v>-497342.1651692146</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4932,7 @@
         <v>-441906.1797692146</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4965,7 @@
         <v>-443461.3732692146</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,10 +4998,14 @@
         <v>-443271.4903692146</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="J133" t="n">
+        <v>85.73</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4807,11 +5035,17 @@
         <v>-443256.5160692146</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5074,17 @@
         <v>-443266.5160692146</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4939,7 +5179,7 @@
         <v>-612410.7998692145</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5797,10 +6037,14 @@
         <v>-625462.1244692148</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="J164" t="n">
+        <v>85.75</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5830,11 +6074,19 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="J165" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6115,19 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="J166" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6156,19 @@
         <v>-628336.5611692148</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="J167" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6197,19 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="J168" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6238,19 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="J169" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6279,19 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="J170" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6320,19 @@
         <v>-627838.9418692148</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="J171" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6361,19 @@
         <v>-629091.4712692148</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="J172" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6402,19 @@
         <v>-630625.4613692148</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="J173" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6443,19 @@
         <v>-631625.4613692148</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="J174" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6484,19 @@
         <v>-631615.4613692148</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="J175" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6528,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,13 +6564,19 @@
         <v>-644799.4613692148</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>0.9881195335276968</v>
       </c>
       <c r="M177" t="inlineStr"/>
     </row>
@@ -6259,14 +6603,10 @@
         <v>-642631.8657692148</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="J178" t="n">
-        <v>85.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6299,14 +6639,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6338,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>85.16</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6407,461 +6735,427 @@
         <v>-697664.0587487377</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>86.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="D183" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="E183" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-695664.0587487377</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7455.4851</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-688208.5736487376</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="C185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="D185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="E185" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6081.3766</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-694289.9502487376</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>86</v>
+      </c>
+      <c r="C186" t="n">
+        <v>86</v>
+      </c>
+      <c r="D186" t="n">
+        <v>86</v>
+      </c>
+      <c r="E186" t="n">
+        <v>86</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-684289.9502487376</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7455.4851</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-691745.4353487376</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-691745.4353487376</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>85</v>
+      </c>
+      <c r="D189" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>85</v>
+      </c>
+      <c r="F189" t="n">
+        <v>26086.0757</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-717831.5110487377</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>86</v>
+      </c>
+      <c r="C190" t="n">
+        <v>86</v>
+      </c>
+      <c r="D190" t="n">
+        <v>86</v>
+      </c>
+      <c r="E190" t="n">
+        <v>86</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-715860.5110487377</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>86</v>
+      </c>
+      <c r="C191" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="D191" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="E191" t="n">
+        <v>86</v>
+      </c>
+      <c r="F191" t="n">
+        <v>7026.1832</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-708834.3278487377</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6144.0743</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-714978.4021487377</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="J192" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="C193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="D193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="E193" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="F193" t="n">
+        <v>115.9689203293517</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-714862.4332284083</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="C194" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8077.1347</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-722939.5679284084</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="J194" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>85.95999999999999</v>
-      </c>
-      <c r="C183" t="n">
-        <v>85.97</v>
-      </c>
-      <c r="D183" t="n">
-        <v>85.97</v>
-      </c>
-      <c r="E183" t="n">
-        <v>85.95999999999999</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-695664.0587487377</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="C184" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="D184" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="E184" t="n">
-        <v>86.29000000000001</v>
-      </c>
-      <c r="F184" t="n">
-        <v>7455.4851</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-688208.5736487376</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="C185" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="D185" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="E185" t="n">
-        <v>85.27</v>
-      </c>
-      <c r="F185" t="n">
-        <v>6081.3766</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-694289.9502487376</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>86</v>
-      </c>
-      <c r="C186" t="n">
-        <v>86</v>
-      </c>
-      <c r="D186" t="n">
-        <v>86</v>
-      </c>
-      <c r="E186" t="n">
-        <v>86</v>
-      </c>
-      <c r="F186" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-684289.9502487376</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D187" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="F187" t="n">
-        <v>7455.4851</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-691745.4353487376</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C188" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D188" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E188" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-691745.4353487376</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="C189" t="n">
-        <v>85</v>
-      </c>
-      <c r="D189" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E189" t="n">
-        <v>85</v>
-      </c>
-      <c r="F189" t="n">
-        <v>26086.0757</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-717831.5110487377</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>86</v>
-      </c>
-      <c r="C190" t="n">
-        <v>86</v>
-      </c>
-      <c r="D190" t="n">
-        <v>86</v>
-      </c>
-      <c r="E190" t="n">
-        <v>86</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1971</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-715860.5110487377</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>86</v>
-      </c>
-      <c r="C191" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="D191" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="E191" t="n">
-        <v>86</v>
-      </c>
-      <c r="F191" t="n">
-        <v>7026.1832</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-708834.3278487377</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="D192" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="E192" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="F192" t="n">
-        <v>6144.0743</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-714978.4021487377</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="C193" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="D193" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="E193" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="F193" t="n">
-        <v>115.9689203293517</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-714862.4332284083</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="C194" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D194" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="E194" t="n">
-        <v>85.09</v>
-      </c>
-      <c r="F194" t="n">
-        <v>8077.1347</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-722939.5679284084</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6890,10 +7184,14 @@
         <v>-719138.8564527958</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="J195" t="n">
+        <v>86.12</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,10 +7225,14 @@
         <v>-720950.6517527958</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="J196" t="n">
+        <v>86.12</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,10 +7266,14 @@
         <v>-709912.7047527957</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="J197" t="n">
+        <v>86.12</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7001,10 +7307,14 @@
         <v>-709912.7047527957</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="J198" t="n">
+        <v>86.12</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-19 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-19 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5288.8228</v>
       </c>
       <c r="G2" t="n">
-        <v>38363.01458912837</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>324.0504</v>
       </c>
       <c r="G3" t="n">
-        <v>38687.06498912837</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>593.0494603249911</v>
       </c>
       <c r="G4" t="n">
-        <v>39280.11444945336</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5942.1234</v>
       </c>
       <c r="G5" t="n">
-        <v>33337.99104945335</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1688.8503</v>
       </c>
       <c r="G6" t="n">
-        <v>33337.99104945335</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>34688.0818</v>
       </c>
       <c r="G7" t="n">
-        <v>-1350.090750546646</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>22912.7061</v>
       </c>
       <c r="G8" t="n">
-        <v>-1350.090750546646</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>17184.5296</v>
       </c>
       <c r="G9" t="n">
-        <v>-1350.090750546646</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>12888.3972</v>
       </c>
       <c r="G10" t="n">
-        <v>-1350.090750546646</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5664.7312</v>
       </c>
       <c r="G11" t="n">
-        <v>-7014.821950546646</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>81133.42849999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-88148.25045054663</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1325.8325</v>
       </c>
       <c r="G13" t="n">
-        <v>-88148.25045054663</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9666.2979</v>
       </c>
       <c r="G14" t="n">
-        <v>-97814.54835054664</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>7249.7234</v>
       </c>
       <c r="G15" t="n">
-        <v>-90564.82495054664</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5437.2925</v>
       </c>
       <c r="G16" t="n">
-        <v>-96002.11745054663</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4077.9694</v>
       </c>
       <c r="G17" t="n">
-        <v>-96002.11745054663</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3079.231</v>
       </c>
       <c r="G18" t="n">
-        <v>-92922.88645054663</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1344.3946</v>
       </c>
       <c r="G19" t="n">
-        <v>-91578.49185054663</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>9354.2608</v>
       </c>
       <c r="G20" t="n">
-        <v>-82224.23105054663</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>27027.0252</v>
       </c>
       <c r="G21" t="n">
-        <v>-82224.23105054663</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,21 @@
         <v>4650.9391</v>
       </c>
       <c r="G22" t="n">
-        <v>-86875.17015054663</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1079,21 @@
         <v>26883.6042</v>
       </c>
       <c r="G23" t="n">
-        <v>-59991.56595054663</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>82.62</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1115,19 @@
         <v>13441.8021</v>
       </c>
       <c r="G24" t="n">
-        <v>-73433.36805054663</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,19 @@
         <v>8591.9118</v>
       </c>
       <c r="G25" t="n">
-        <v>-64841.45625054663</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1183,19 @@
         <v>34537.6989</v>
       </c>
       <c r="G26" t="n">
-        <v>-99379.15515054663</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1217,19 @@
         <v>10000</v>
       </c>
       <c r="G27" t="n">
-        <v>-109379.1551505466</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1251,19 @@
         <v>21755.5301</v>
       </c>
       <c r="G28" t="n">
-        <v>-131134.6852505466</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1285,19 @@
         <v>144.5065</v>
       </c>
       <c r="G29" t="n">
-        <v>-131134.6852505466</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1319,19 @@
         <v>373</v>
       </c>
       <c r="G30" t="n">
-        <v>-130761.6852505466</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1353,19 @@
         <v>3524.672</v>
       </c>
       <c r="G31" t="n">
-        <v>-130761.6852505466</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1387,19 @@
         <v>39440.699</v>
       </c>
       <c r="G32" t="n">
-        <v>-170202.3842505466</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1421,19 @@
         <v>559.301</v>
       </c>
       <c r="G33" t="n">
-        <v>-170202.3842505466</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1455,19 @@
         <v>1240.9936</v>
       </c>
       <c r="G34" t="n">
-        <v>-168961.3906505466</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1489,19 @@
         <v>769.9395</v>
       </c>
       <c r="G35" t="n">
-        <v>-169731.3301505467</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1523,19 @@
         <v>18357.9715</v>
       </c>
       <c r="G36" t="n">
-        <v>-169731.3301505467</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1557,19 @@
         <v>5864.8565</v>
       </c>
       <c r="G37" t="n">
-        <v>-169731.3301505467</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1591,19 @@
         <v>252.0977</v>
       </c>
       <c r="G38" t="n">
-        <v>-169731.3301505467</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1625,19 @@
         <v>4768.176</v>
       </c>
       <c r="G39" t="n">
-        <v>-174499.5061505467</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1659,19 @@
         <v>1348.7782</v>
       </c>
       <c r="G40" t="n">
-        <v>-174499.5061505467</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1693,19 @@
         <v>47112.9947</v>
       </c>
       <c r="G41" t="n">
-        <v>-127386.5114505466</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1727,19 @@
         <v>2610.0865</v>
       </c>
       <c r="G42" t="n">
-        <v>-127386.5114505466</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1761,19 @@
         <v>6533.9251</v>
       </c>
       <c r="G43" t="n">
-        <v>-120852.5863505467</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1795,19 @@
         <v>14999.2296</v>
       </c>
       <c r="G44" t="n">
-        <v>-105853.3567505466</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1829,19 @@
         <v>16521.3601</v>
       </c>
       <c r="G45" t="n">
-        <v>-89331.99665054664</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1863,19 @@
         <v>3803.9872</v>
       </c>
       <c r="G46" t="n">
-        <v>-93135.98385054665</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1897,19 @@
         <v>6162.7415</v>
       </c>
       <c r="G47" t="n">
-        <v>-86973.24235054664</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1931,19 @@
         <v>1493</v>
       </c>
       <c r="G48" t="n">
-        <v>-88466.24235054664</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1965,19 @@
         <v>552.7134</v>
       </c>
       <c r="G49" t="n">
-        <v>-88466.24235054664</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1999,19 @@
         <v>3862.5147</v>
       </c>
       <c r="G50" t="n">
-        <v>-92328.75705054664</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2033,19 @@
         <v>304028.3907</v>
       </c>
       <c r="G51" t="n">
-        <v>-396357.1477505466</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2067,19 @@
         <v>13309.11128974793</v>
       </c>
       <c r="G52" t="n">
-        <v>-383048.0364607987</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2101,19 @@
         <v>15652.391</v>
       </c>
       <c r="G53" t="n">
-        <v>-398700.4274607987</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2135,19 @@
         <v>13550.6619</v>
       </c>
       <c r="G54" t="n">
-        <v>-398700.4274607987</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2169,19 @@
         <v>4748.391</v>
       </c>
       <c r="G55" t="n">
-        <v>-393952.0364607987</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2203,19 @@
         <v>6.415</v>
       </c>
       <c r="G56" t="n">
-        <v>-393958.4514607987</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2237,19 @@
         <v>3572.6004</v>
       </c>
       <c r="G57" t="n">
-        <v>-397531.0518607987</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2271,19 @@
         <v>36</v>
       </c>
       <c r="G58" t="n">
-        <v>-397567.0518607987</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2305,19 @@
         <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>-397517.0518607987</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2339,19 @@
         <v>25</v>
       </c>
       <c r="G60" t="n">
-        <v>-397542.0518607987</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2373,19 @@
         <v>5790.8762</v>
       </c>
       <c r="G61" t="n">
-        <v>-391751.1756607987</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2407,19 @@
         <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>-391951.1756607987</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2441,19 @@
         <v>415.0013</v>
       </c>
       <c r="G63" t="n">
-        <v>-391536.1743607987</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2475,19 @@
         <v>36</v>
       </c>
       <c r="G64" t="n">
-        <v>-391572.1743607987</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2509,19 @@
         <v>3386.4612</v>
       </c>
       <c r="G65" t="n">
-        <v>-388185.7131607987</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2543,19 @@
         <v>1493</v>
       </c>
       <c r="G66" t="n">
-        <v>-389678.7131607987</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2577,19 @@
         <v>2986</v>
       </c>
       <c r="G67" t="n">
-        <v>-386692.7131607987</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2611,19 @@
         <v>1493</v>
       </c>
       <c r="G68" t="n">
-        <v>-386692.7131607987</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2645,19 @@
         <v>6182.2606</v>
       </c>
       <c r="G69" t="n">
-        <v>-392874.9737607986</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2679,19 @@
         <v>237.8356347826087</v>
       </c>
       <c r="G70" t="n">
-        <v>-392637.138126016</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2713,19 @@
         <v>6</v>
       </c>
       <c r="G71" t="n">
-        <v>-392643.138126016</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2747,19 @@
         <v>235.9882005899705</v>
       </c>
       <c r="G72" t="n">
-        <v>-392407.1499254261</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2781,19 @@
         <v>2193</v>
       </c>
       <c r="G73" t="n">
-        <v>-394600.1499254261</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2815,19 @@
         <v>63605.2143</v>
       </c>
       <c r="G74" t="n">
-        <v>-458205.364225426</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2849,19 @@
         <v>3162.8935</v>
       </c>
       <c r="G75" t="n">
-        <v>-455042.470725426</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2883,19 @@
         <v>2986</v>
       </c>
       <c r="G76" t="n">
-        <v>-458028.470725426</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2917,19 @@
         <v>8958</v>
       </c>
       <c r="G77" t="n">
-        <v>-458028.470725426</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2951,19 @@
         <v>1425.9086</v>
       </c>
       <c r="G78" t="n">
-        <v>-458028.470725426</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2985,19 @@
         <v>1493</v>
       </c>
       <c r="G79" t="n">
-        <v>-459521.470725426</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3019,19 @@
         <v>10850.7904</v>
       </c>
       <c r="G80" t="n">
-        <v>-459521.470725426</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3053,19 @@
         <v>1493</v>
       </c>
       <c r="G81" t="n">
-        <v>-459521.470725426</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3087,19 @@
         <v>1585.4435</v>
       </c>
       <c r="G82" t="n">
-        <v>-461106.914225426</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3121,19 @@
         <v>954.0246</v>
       </c>
       <c r="G83" t="n">
-        <v>-461106.914225426</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3155,19 @@
         <v>324.9576</v>
       </c>
       <c r="G84" t="n">
-        <v>-461431.8718254261</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3189,19 @@
         <v>421.711</v>
       </c>
       <c r="G85" t="n">
-        <v>-461431.8718254261</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3223,19 @@
         <v>6781.3992</v>
       </c>
       <c r="G86" t="n">
-        <v>-468213.271025426</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3257,19 @@
         <v>319.4393</v>
       </c>
       <c r="G87" t="n">
-        <v>-468213.271025426</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3291,19 @@
         <v>1493</v>
       </c>
       <c r="G88" t="n">
-        <v>-469706.271025426</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3325,19 @@
         <v>4479</v>
       </c>
       <c r="G89" t="n">
-        <v>-469706.271025426</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3359,19 @@
         <v>13242.96</v>
       </c>
       <c r="G90" t="n">
-        <v>-469706.271025426</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3393,19 @@
         <v>22080.8452</v>
       </c>
       <c r="G91" t="n">
-        <v>-491787.116225426</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3427,19 @@
         <v>1165.7231</v>
       </c>
       <c r="G92" t="n">
-        <v>-492952.839325426</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,22 +3461,19 @@
         <v>33621.8299</v>
       </c>
       <c r="G93" t="n">
-        <v>-459331.009425426</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="J93" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3488,24 +3495,19 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>-459351.009425426</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3527,24 +3529,19 @@
         <v>118.9767995240928</v>
       </c>
       <c r="G95" t="n">
-        <v>-459232.0326259019</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,24 +3563,19 @@
         <v>36</v>
       </c>
       <c r="G96" t="n">
-        <v>-459268.0326259019</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3605,24 +3597,19 @@
         <v>118.9909566872918</v>
       </c>
       <c r="G97" t="n">
-        <v>-459149.0416692146</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3644,24 +3631,19 @@
         <v>2282.5436</v>
       </c>
       <c r="G98" t="n">
-        <v>-461431.5852692146</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3683,24 +3665,19 @@
         <v>115646.8576</v>
       </c>
       <c r="G99" t="n">
-        <v>-577078.4428692146</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,24 +3699,19 @@
         <v>1494</v>
       </c>
       <c r="G100" t="n">
-        <v>-575584.4428692146</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3761,24 +3733,19 @@
         <v>23189.1941</v>
       </c>
       <c r="G101" t="n">
-        <v>-552395.2487692146</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3800,24 +3767,19 @@
         <v>26000</v>
       </c>
       <c r="G102" t="n">
-        <v>-552395.2487692146</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3839,24 +3801,19 @@
         <v>385.0259</v>
       </c>
       <c r="G103" t="n">
-        <v>-552395.2487692146</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3878,24 +3835,19 @@
         <v>1500</v>
       </c>
       <c r="G104" t="n">
-        <v>-550895.2487692146</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3917,24 +3869,19 @@
         <v>425.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-551321.0287692146</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3956,24 +3903,19 @@
         <v>594.9548</v>
       </c>
       <c r="G106" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3995,26 +3937,19 @@
         <v>4008</v>
       </c>
       <c r="G107" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J107" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4036,26 +3971,19 @@
         <v>3917.8359</v>
       </c>
       <c r="G108" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J108" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4077,26 +4005,19 @@
         <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J109" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4118,26 +4039,19 @@
         <v>8059.7963</v>
       </c>
       <c r="G110" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J110" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4159,26 +4073,19 @@
         <v>1314.9615</v>
       </c>
       <c r="G111" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J111" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4200,26 +4107,19 @@
         <v>1777.7695</v>
       </c>
       <c r="G112" t="n">
-        <v>-551915.9835692146</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J112" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4241,26 +4141,19 @@
         <v>75.59610000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-551840.3874692146</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4282,26 +4175,19 @@
         <v>45526.7258</v>
       </c>
       <c r="G114" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>84.05</v>
-      </c>
-      <c r="J114" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4323,26 +4209,19 @@
         <v>6955.5909</v>
       </c>
       <c r="G115" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>85</v>
-      </c>
-      <c r="J115" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4364,26 +4243,19 @@
         <v>2440.2029</v>
       </c>
       <c r="G116" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>85</v>
-      </c>
-      <c r="J116" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4405,26 +4277,19 @@
         <v>9403.5399</v>
       </c>
       <c r="G117" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>85</v>
-      </c>
-      <c r="J117" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4446,26 +4311,19 @@
         <v>1669.2134</v>
       </c>
       <c r="G118" t="n">
-        <v>-506313.6616692146</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>85</v>
-      </c>
-      <c r="J118" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4487,26 +4345,19 @@
         <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>-506305.6616692146</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>85</v>
-      </c>
-      <c r="J119" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4528,26 +4379,19 @@
         <v>62.8928</v>
       </c>
       <c r="G120" t="n">
-        <v>-506368.5544692146</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J120" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4569,26 +4413,19 @@
         <v>47985.8381</v>
       </c>
       <c r="G121" t="n">
-        <v>-554354.3925692146</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>85</v>
-      </c>
-      <c r="J121" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4610,26 +4447,19 @@
         <v>6560.6954</v>
       </c>
       <c r="G122" t="n">
-        <v>-547793.6971692146</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4651,24 +4481,19 @@
         <v>12960.7919</v>
       </c>
       <c r="G123" t="n">
-        <v>-547793.6971692146</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4690,26 +4515,19 @@
         <v>50495.321</v>
       </c>
       <c r="G124" t="n">
-        <v>-497298.3761692146</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>82.64</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1.052357212003872</v>
-      </c>
-      <c r="M124" t="n">
-        <v>1.031644034917556</v>
-      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4731,18 +4549,19 @@
         <v>20</v>
       </c>
       <c r="G125" t="n">
-        <v>-497318.3761692146</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4764,18 +4583,19 @@
         <v>8</v>
       </c>
       <c r="G126" t="n">
-        <v>-497326.3761692146</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4797,18 +4617,19 @@
         <v>6</v>
       </c>
       <c r="G127" t="n">
-        <v>-497326.3761692146</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4830,18 +4651,19 @@
         <v>7766.4107</v>
       </c>
       <c r="G128" t="n">
-        <v>-497326.3761692146</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4863,18 +4685,19 @@
         <v>15.789</v>
       </c>
       <c r="G129" t="n">
-        <v>-497342.1651692146</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4896,18 +4719,19 @@
         <v>48.677</v>
       </c>
       <c r="G130" t="n">
-        <v>-497293.4881692146</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4929,18 +4753,19 @@
         <v>55387.3084</v>
       </c>
       <c r="G131" t="n">
-        <v>-441906.1797692146</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4962,18 +4787,17 @@
         <v>1555.1935</v>
       </c>
       <c r="G132" t="n">
-        <v>-443461.3732692146</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4995,22 +4819,15 @@
         <v>189.8829</v>
       </c>
       <c r="G133" t="n">
-        <v>-443271.4903692146</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>85.73</v>
-      </c>
-      <c r="J133" t="n">
-        <v>85.73</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5032,24 +4849,15 @@
         <v>14.9743</v>
       </c>
       <c r="G134" t="n">
-        <v>-443256.5160692146</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>85.73</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5071,24 +4879,15 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-443266.5160692146</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>85.73</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5110,18 +4909,15 @@
         <v>1270.2613</v>
       </c>
       <c r="G136" t="n">
-        <v>-441996.2547692145</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5143,18 +4939,15 @@
         <v>2167.5956</v>
       </c>
       <c r="G137" t="n">
-        <v>-444163.8503692145</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5176,18 +4969,15 @@
         <v>168246.9495</v>
       </c>
       <c r="G138" t="n">
-        <v>-612410.7998692145</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5209,18 +4999,15 @@
         <v>2986</v>
       </c>
       <c r="G139" t="n">
-        <v>-609424.7998692145</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5242,18 +5029,15 @@
         <v>16205.9388</v>
       </c>
       <c r="G140" t="n">
-        <v>-625630.7386692145</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5275,18 +5059,15 @@
         <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>-625630.7386692145</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5308,18 +5089,15 @@
         <v>7446.613</v>
       </c>
       <c r="G142" t="n">
-        <v>-633077.3516692145</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5341,18 +5119,15 @@
         <v>4883.9061</v>
       </c>
       <c r="G143" t="n">
-        <v>-633077.3516692145</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5374,18 +5149,15 @@
         <v>14071.3647</v>
       </c>
       <c r="G144" t="n">
-        <v>-619005.9869692145</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5407,18 +5179,15 @@
         <v>20902.4258</v>
       </c>
       <c r="G145" t="n">
-        <v>-598103.5611692145</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5440,18 +5209,15 @@
         <v>4824.9177</v>
       </c>
       <c r="G146" t="n">
-        <v>-593278.6434692146</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5473,18 +5239,15 @@
         <v>11469.2305</v>
       </c>
       <c r="G147" t="n">
-        <v>-581809.4129692146</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5506,18 +5269,15 @@
         <v>1428.6336</v>
       </c>
       <c r="G148" t="n">
-        <v>-581809.4129692146</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5539,18 +5299,15 @@
         <v>5071.0864</v>
       </c>
       <c r="G149" t="n">
-        <v>-586880.4993692146</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5572,18 +5329,15 @@
         <v>3400</v>
       </c>
       <c r="G150" t="n">
-        <v>-583480.4993692146</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5605,18 +5359,15 @@
         <v>2244.2176</v>
       </c>
       <c r="G151" t="n">
-        <v>-583480.4993692146</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5638,18 +5389,15 @@
         <v>40</v>
       </c>
       <c r="G152" t="n">
-        <v>-583520.4993692146</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5671,18 +5419,15 @@
         <v>1400</v>
       </c>
       <c r="G153" t="n">
-        <v>-584920.4993692146</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5704,18 +5449,15 @@
         <v>43.3061</v>
       </c>
       <c r="G154" t="n">
-        <v>-584963.8054692147</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5737,18 +5479,15 @@
         <v>20000</v>
       </c>
       <c r="G155" t="n">
-        <v>-564963.8054692147</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5770,18 +5509,15 @@
         <v>766.0612</v>
       </c>
       <c r="G156" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5803,18 +5539,15 @@
         <v>1436.3764</v>
       </c>
       <c r="G157" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5836,18 +5569,15 @@
         <v>861.8422</v>
       </c>
       <c r="G158" t="n">
-        <v>-564197.7442692147</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5869,18 +5599,15 @@
         <v>53652.3736</v>
       </c>
       <c r="G159" t="n">
-        <v>-617850.1178692147</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5902,18 +5629,15 @@
         <v>6527</v>
       </c>
       <c r="G160" t="n">
-        <v>-611323.1178692147</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5935,18 +5659,15 @@
         <v>11785.279</v>
       </c>
       <c r="G161" t="n">
-        <v>-623108.3968692147</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5968,18 +5689,15 @@
         <v>2248.1654</v>
       </c>
       <c r="G162" t="n">
-        <v>-625356.5622692148</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6001,18 +5719,15 @@
         <v>105.5622</v>
       </c>
       <c r="G163" t="n">
-        <v>-625462.1244692148</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6034,22 +5749,15 @@
         <v>8754</v>
       </c>
       <c r="G164" t="n">
-        <v>-625462.1244692148</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="J164" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6071,26 +5779,15 @@
         <v>2874.4367</v>
       </c>
       <c r="G165" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="J165" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6112,26 +5809,15 @@
         <v>1107.6401</v>
       </c>
       <c r="G166" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="J166" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6153,26 +5839,15 @@
         <v>9.3599</v>
       </c>
       <c r="G167" t="n">
-        <v>-628336.5611692148</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="J167" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6194,26 +5869,15 @@
         <v>497.6193</v>
       </c>
       <c r="G168" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="J168" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6235,26 +5899,15 @@
         <v>619</v>
       </c>
       <c r="G169" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="J169" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6276,26 +5929,15 @@
         <v>558</v>
       </c>
       <c r="G170" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="J170" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6317,26 +5959,15 @@
         <v>558</v>
       </c>
       <c r="G171" t="n">
-        <v>-627838.9418692148</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="J171" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6358,26 +5989,15 @@
         <v>1252.5294</v>
       </c>
       <c r="G172" t="n">
-        <v>-629091.4712692148</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="J172" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6399,26 +6019,15 @@
         <v>1533.9901</v>
       </c>
       <c r="G173" t="n">
-        <v>-630625.4613692148</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="J173" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6440,26 +6049,15 @@
         <v>1000</v>
       </c>
       <c r="G174" t="n">
-        <v>-631625.4613692148</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>84.62</v>
-      </c>
-      <c r="J174" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6481,26 +6079,15 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>-631615.4613692148</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="J175" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6522,24 +6109,15 @@
         <v>3903.7535</v>
       </c>
       <c r="G176" t="n">
-        <v>-631615.4613692148</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6561,24 +6139,15 @@
         <v>13184</v>
       </c>
       <c r="G177" t="n">
-        <v>-644799.4613692148</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>0.9881195335276968</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6600,18 +6169,15 @@
         <v>2167.5956</v>
       </c>
       <c r="G178" t="n">
-        <v>-642631.8657692148</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6633,18 +6199,15 @@
         <v>5093.8586</v>
       </c>
       <c r="G179" t="n">
-        <v>-647725.7243692148</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6666,18 +6229,15 @@
         <v>570</v>
       </c>
       <c r="G180" t="n">
-        <v>-647155.7243692148</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6699,18 +6259,15 @@
         <v>81.07482047718322</v>
       </c>
       <c r="G181" t="n">
-        <v>-647074.6495487377</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6732,18 +6289,15 @@
         <v>50589.4092</v>
       </c>
       <c r="G182" t="n">
-        <v>-697664.0587487377</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6765,18 +6319,15 @@
         <v>2000</v>
       </c>
       <c r="G183" t="n">
-        <v>-695664.0587487377</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6798,18 +6349,15 @@
         <v>7455.4851</v>
       </c>
       <c r="G184" t="n">
-        <v>-688208.5736487376</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6831,18 +6379,15 @@
         <v>6081.3766</v>
       </c>
       <c r="G185" t="n">
-        <v>-694289.9502487376</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6864,18 +6409,15 @@
         <v>10000</v>
       </c>
       <c r="G186" t="n">
-        <v>-684289.9502487376</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6897,18 +6439,15 @@
         <v>7455.4851</v>
       </c>
       <c r="G187" t="n">
-        <v>-691745.4353487376</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6930,18 +6469,15 @@
         <v>1600</v>
       </c>
       <c r="G188" t="n">
-        <v>-691745.4353487376</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6963,18 +6499,15 @@
         <v>26086.0757</v>
       </c>
       <c r="G189" t="n">
-        <v>-717831.5110487377</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6996,18 +6529,15 @@
         <v>1971</v>
       </c>
       <c r="G190" t="n">
-        <v>-715860.5110487377</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7029,18 +6559,15 @@
         <v>7026.1832</v>
       </c>
       <c r="G191" t="n">
-        <v>-708834.3278487377</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7062,22 +6589,15 @@
         <v>6144.0743</v>
       </c>
       <c r="G192" t="n">
-        <v>-714978.4021487377</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="J192" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7099,26 +6619,15 @@
         <v>115.9689203293517</v>
       </c>
       <c r="G193" t="n">
-        <v>-714862.4332284083</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="J193" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7140,26 +6649,15 @@
         <v>8077.1347</v>
       </c>
       <c r="G194" t="n">
-        <v>-722939.5679284084</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>86.23</v>
-      </c>
-      <c r="J194" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7181,26 +6679,15 @@
         <v>3800.711475612602</v>
       </c>
       <c r="G195" t="n">
-        <v>-719138.8564527958</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="J195" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7222,26 +6709,15 @@
         <v>1811.7953</v>
       </c>
       <c r="G196" t="n">
-        <v>-720950.6517527958</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="J196" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7263,26 +6739,15 @@
         <v>11037.947</v>
       </c>
       <c r="G197" t="n">
-        <v>-709912.7047527957</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="J197" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7304,26 +6769,15 @@
         <v>5629.5192</v>
       </c>
       <c r="G198" t="n">
-        <v>-709912.7047527957</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>85.53</v>
-      </c>
-      <c r="J198" t="n">
-        <v>86.12</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
